--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -205,7 +205,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проврьте правильность заполнения данной колонки, если что то не устраивает то правьте наименование ВРУЧНУЮ. Данная информация (кроме размеров) будет на этикетке</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">выберите ВИД ОБУВИ из выпадающего списка или со второго листа (справочник)</t>
@@ -4762,7 +4762,7 @@
   <dimension ref="A1:AMJ1702"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1607" activeCellId="0" sqref="H1607"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1018">
   <si>
     <t xml:space="preserve">V_MANUFACTURER_CODE</t>
   </si>
@@ -2304,7 +2304,7 @@
     <t xml:space="preserve">51-52</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">МАЛИ</t>
@@ -2445,10 +2445,13 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЯ</t>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -2478,13 +2481,7 @@
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
@@ -2496,7 +2493,7 @@
     <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
@@ -2508,7 +2505,7 @@
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
@@ -2517,6 +2514,9 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
   </si>
   <si>
@@ -2535,13 +2535,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -2562,7 +2565,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУРЦИЯ</t>
@@ -2610,10 +2613,13 @@
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
+  </si>
+  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -2634,7 +2640,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -2652,7 +2661,10 @@
     <t xml:space="preserve">ЭФИОПИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -35030,8 +35042,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B118" activeCellId="0" sqref="B118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38410,7 +38422,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="84" t="s">
-        <v>83</v>
+        <v>866</v>
       </c>
       <c r="B236" s="84"/>
       <c r="C236" s="84"/>
@@ -38419,7 +38431,7 @@
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B237" s="84"/>
       <c r="C237" s="84"/>
@@ -38428,7 +38440,7 @@
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="84" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B238" s="84"/>
       <c r="C238" s="84"/>
@@ -38437,7 +38449,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="84" t="s">
-        <v>868</v>
+        <v>83</v>
       </c>
       <c r="B239" s="84"/>
       <c r="C239" s="84"/>
@@ -38445,28 +38457,36 @@
       <c r="E239" s="84"/>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="84"/>
+      <c r="A240" s="84" t="s">
+        <v>869</v>
+      </c>
       <c r="B240" s="84"/>
       <c r="C240" s="84"/>
       <c r="D240" s="84"/>
       <c r="E240" s="84"/>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="84"/>
+      <c r="A241" s="84" t="s">
+        <v>870</v>
+      </c>
       <c r="B241" s="84"/>
       <c r="C241" s="84"/>
       <c r="D241" s="84"/>
       <c r="E241" s="84"/>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="84"/>
+      <c r="A242" s="84" t="s">
+        <v>871</v>
+      </c>
       <c r="B242" s="84"/>
       <c r="C242" s="84"/>
       <c r="D242" s="84"/>
       <c r="E242" s="84"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="84"/>
+      <c r="A243" s="84" t="s">
+        <v>872</v>
+      </c>
       <c r="B243" s="84"/>
       <c r="D243" s="84"/>
       <c r="E243" s="84"/>
@@ -40778,10 +40798,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="90" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40789,7 +40809,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40797,7 +40817,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40805,7 +40825,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40813,7 +40833,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40821,7 +40841,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40829,7 +40849,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40837,7 +40857,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40845,7 +40865,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40853,7 +40873,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40861,7 +40881,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40869,7 +40889,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40877,7 +40897,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40885,7 +40905,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40893,7 +40913,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40901,7 +40921,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40909,7 +40929,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40917,7 +40937,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40925,7 +40945,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40933,7 +40953,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40941,7 +40961,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40949,7 +40969,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40957,7 +40977,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40965,7 +40985,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40973,7 +40993,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40981,7 +41001,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40989,7 +41009,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40997,7 +41017,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41005,7 +41025,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41013,7 +41033,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41021,7 +41041,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="93" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41029,7 +41049,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="93" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41037,7 +41057,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41045,7 +41065,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41053,7 +41073,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41061,7 +41081,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41069,7 +41089,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41077,7 +41097,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41085,7 +41105,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41093,7 +41113,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41101,7 +41121,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41109,7 +41129,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41117,7 +41137,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41125,7 +41145,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41133,7 +41153,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41141,7 +41161,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41149,7 +41169,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41157,7 +41177,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41165,7 +41185,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41173,7 +41193,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="92" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41181,7 +41201,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41189,7 +41209,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41197,7 +41217,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41205,7 +41225,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41213,7 +41233,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41221,7 +41241,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="93" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41229,7 +41249,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="93" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41237,7 +41257,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="95" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41245,7 +41265,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41253,7 +41273,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="93" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41261,7 +41281,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41269,7 +41289,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41277,7 +41297,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41285,7 +41305,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="93" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41293,7 +41313,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="93" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41301,7 +41321,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41309,7 +41329,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41317,7 +41337,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41325,7 +41345,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41333,7 +41353,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41341,7 +41361,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41349,7 +41369,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41357,7 +41377,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41365,7 +41385,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41373,7 +41393,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41381,7 +41401,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41389,7 +41409,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41397,7 +41417,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41405,7 +41425,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41413,7 +41433,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41421,7 +41441,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41429,7 +41449,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41437,7 +41457,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41445,7 +41465,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41453,7 +41473,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41461,7 +41481,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41469,7 +41489,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41477,7 +41497,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41485,7 +41505,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41493,7 +41513,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41501,7 +41521,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="92" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41509,7 +41529,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41517,7 +41537,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41525,7 +41545,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41533,7 +41553,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41541,7 +41561,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="93" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41549,7 +41569,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41557,7 +41577,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41565,7 +41585,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41573,7 +41593,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41581,7 +41601,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41589,7 +41609,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41597,7 +41617,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41605,7 +41625,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41613,7 +41633,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="93" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41621,7 +41641,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="93" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41629,7 +41649,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="93" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41637,7 +41657,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="93" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41645,7 +41665,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="93" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41653,7 +41673,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41661,7 +41681,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="93" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41669,7 +41689,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="93" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41677,7 +41697,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="93" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41685,7 +41705,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="93" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41693,7 +41713,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="93" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41701,7 +41721,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="93" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41709,7 +41729,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="93" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41717,7 +41737,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="93" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41725,7 +41745,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="93" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41733,7 +41753,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="93" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41741,7 +41761,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="93" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41749,7 +41769,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="93" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41757,7 +41777,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="93" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41765,7 +41785,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="93" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41773,7 +41793,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="93" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41781,7 +41801,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="93" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41789,7 +41809,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="93" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41797,7 +41817,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41805,7 +41825,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="93" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41813,7 +41833,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="93" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41821,7 +41841,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="93" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41829,7 +41849,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="92" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41837,7 +41857,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="93" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41845,7 +41865,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="93" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41853,7 +41873,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="93" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41861,7 +41881,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="93" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41869,7 +41889,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="93" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41877,7 +41897,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="92" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41885,7 +41905,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="93" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41893,7 +41913,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="93" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41901,7 +41921,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="93" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41909,7 +41929,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="93" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41917,7 +41937,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="93" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41925,7 +41945,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="93" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41933,7 +41953,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="93" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -2082,7 +2082,7 @@
     <t xml:space="preserve">&lt;6405100001&gt; -- с подошвой из дерева или пробки</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТОПСАЙДЕРЫ</t>
@@ -2442,7 +2442,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -2514,7 +2514,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+    <t xml:space="preserve">США</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -2385,7 +2385,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -35042,8 +35042,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -2451,7 +2451,7 @@
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+    <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -3767,7 +3767,7 @@
     <numFmt numFmtId="168" formatCode="[$-419]dd\.mm\.yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4035,6 +4035,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF63666A"/>
       <name val="Arial"/>
@@ -4297,7 +4303,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4654,6 +4660,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="37" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4674,7 +4684,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -35042,8 +35052,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37818,7 +37828,7 @@
       <c r="E168" s="84"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="84" t="s">
+      <c r="A169" s="89" t="s">
         <v>799</v>
       </c>
       <c r="B169" s="84"/>
@@ -38493,2277 +38503,2277 @@
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="84"/>
-      <c r="E244" s="89"/>
+      <c r="E244" s="90"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="84"/>
-      <c r="E245" s="89"/>
+      <c r="E245" s="90"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="84"/>
-      <c r="E246" s="89"/>
+      <c r="E246" s="90"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="89"/>
+      <c r="E247" s="90"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="89"/>
+      <c r="E248" s="90"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="89"/>
+      <c r="E249" s="90"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="89"/>
+      <c r="E250" s="90"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="89"/>
+      <c r="E251" s="90"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="89"/>
+      <c r="E252" s="90"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="89"/>
+      <c r="E253" s="90"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="89"/>
+      <c r="E254" s="90"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="89"/>
+      <c r="E255" s="90"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="89"/>
+      <c r="E256" s="90"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="89"/>
+      <c r="E257" s="90"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="89"/>
+      <c r="E258" s="90"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="89"/>
+      <c r="E259" s="90"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="89"/>
+      <c r="E260" s="90"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="89"/>
+      <c r="E261" s="90"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="89"/>
+      <c r="E262" s="90"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="89"/>
+      <c r="E263" s="90"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="89"/>
+      <c r="E264" s="90"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="89"/>
+      <c r="E265" s="90"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="89"/>
+      <c r="E266" s="90"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="89"/>
+      <c r="E267" s="90"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="89"/>
+      <c r="E268" s="90"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="89"/>
+      <c r="E269" s="90"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="89"/>
+      <c r="E270" s="90"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="89"/>
+      <c r="E271" s="90"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="89"/>
+      <c r="E272" s="90"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="89"/>
+      <c r="E273" s="90"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="89"/>
+      <c r="E274" s="90"/>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="89"/>
+      <c r="E275" s="90"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="89"/>
+      <c r="E276" s="90"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="89"/>
+      <c r="E277" s="90"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="89"/>
+      <c r="E278" s="90"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="89"/>
+      <c r="E279" s="90"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="89"/>
+      <c r="E280" s="90"/>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="89"/>
+      <c r="E281" s="90"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="89"/>
+      <c r="E282" s="90"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="89"/>
+      <c r="E283" s="90"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="89"/>
+      <c r="E284" s="90"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="89"/>
+      <c r="E285" s="90"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="89"/>
+      <c r="E286" s="90"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="89"/>
+      <c r="E287" s="90"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="89"/>
+      <c r="E288" s="90"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="89"/>
+      <c r="E289" s="90"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="89"/>
+      <c r="E290" s="90"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="89"/>
+      <c r="E291" s="90"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="89"/>
+      <c r="E292" s="90"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="89"/>
+      <c r="E293" s="90"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="89"/>
+      <c r="E294" s="90"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="89"/>
+      <c r="E295" s="90"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="89"/>
+      <c r="E296" s="90"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="89"/>
+      <c r="E297" s="90"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="89"/>
+      <c r="E298" s="90"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="89"/>
+      <c r="E299" s="90"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="89"/>
+      <c r="E300" s="90"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="89"/>
+      <c r="E301" s="90"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="89"/>
+      <c r="E302" s="90"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="89"/>
+      <c r="E303" s="90"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="89"/>
+      <c r="E304" s="90"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="89"/>
+      <c r="E305" s="90"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="89"/>
+      <c r="E306" s="90"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="89"/>
+      <c r="E307" s="90"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="89"/>
+      <c r="E308" s="90"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="89"/>
+      <c r="E309" s="90"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="89"/>
+      <c r="E310" s="90"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="89"/>
+      <c r="E311" s="90"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="89"/>
+      <c r="E312" s="90"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="89"/>
+      <c r="E313" s="90"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="89"/>
+      <c r="E314" s="90"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="89"/>
+      <c r="E315" s="90"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="89"/>
+      <c r="E316" s="90"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="89"/>
+      <c r="E317" s="90"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="89"/>
+      <c r="E318" s="90"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="89"/>
+      <c r="E319" s="90"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="89"/>
+      <c r="E320" s="90"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="89"/>
+      <c r="E321" s="90"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="89"/>
+      <c r="E322" s="90"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="89"/>
+      <c r="E323" s="90"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="89"/>
+      <c r="E324" s="90"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="89"/>
+      <c r="E325" s="90"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="89"/>
+      <c r="E326" s="90"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="89"/>
+      <c r="E327" s="90"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="89"/>
+      <c r="E328" s="90"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="89"/>
+      <c r="E329" s="90"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="89"/>
+      <c r="E330" s="90"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="89"/>
+      <c r="E331" s="90"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="89"/>
+      <c r="E332" s="90"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="89"/>
+      <c r="E333" s="90"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="89"/>
+      <c r="E334" s="90"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="89"/>
+      <c r="E335" s="90"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="89"/>
+      <c r="E336" s="90"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="89"/>
+      <c r="E337" s="90"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="89"/>
+      <c r="E338" s="90"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="89"/>
+      <c r="E339" s="90"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="89"/>
+      <c r="E340" s="90"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="89"/>
+      <c r="E341" s="90"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="89"/>
+      <c r="E342" s="90"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="89"/>
+      <c r="E343" s="90"/>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="89"/>
+      <c r="E344" s="90"/>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="89"/>
+      <c r="E345" s="90"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="89"/>
+      <c r="E346" s="90"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="89"/>
+      <c r="E347" s="90"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="89"/>
+      <c r="E348" s="90"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="89"/>
+      <c r="E349" s="90"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="89"/>
+      <c r="E350" s="90"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="89"/>
+      <c r="E351" s="90"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="89"/>
+      <c r="E352" s="90"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="89"/>
+      <c r="E353" s="90"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="89"/>
+      <c r="E354" s="90"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="89"/>
+      <c r="E355" s="90"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="89"/>
+      <c r="E356" s="90"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="89"/>
+      <c r="E357" s="90"/>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="89"/>
+      <c r="E358" s="90"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="89"/>
+      <c r="E359" s="90"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="89"/>
+      <c r="E360" s="90"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="89"/>
+      <c r="E361" s="90"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="89"/>
+      <c r="E362" s="90"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="89"/>
+      <c r="E363" s="90"/>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="89"/>
+      <c r="E364" s="90"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="89"/>
+      <c r="E365" s="90"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="89"/>
+      <c r="E366" s="90"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="89"/>
+      <c r="E367" s="90"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="89"/>
+      <c r="E368" s="90"/>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="89"/>
+      <c r="E369" s="90"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="89"/>
+      <c r="E370" s="90"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="89"/>
+      <c r="E371" s="90"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="89"/>
+      <c r="E372" s="90"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="89"/>
+      <c r="E373" s="90"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="89"/>
+      <c r="E374" s="90"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="89"/>
+      <c r="E375" s="90"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="89"/>
+      <c r="E376" s="90"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="89"/>
+      <c r="E377" s="90"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="89"/>
+      <c r="E378" s="90"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="89"/>
+      <c r="E379" s="90"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="89"/>
+      <c r="E380" s="90"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="89"/>
+      <c r="E381" s="90"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="89"/>
+      <c r="E382" s="90"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="89"/>
+      <c r="E383" s="90"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="89"/>
+      <c r="E384" s="90"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="89"/>
+      <c r="E385" s="90"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="89"/>
+      <c r="E386" s="90"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="89"/>
+      <c r="E387" s="90"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="89"/>
+      <c r="E388" s="90"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="89"/>
+      <c r="E389" s="90"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="89"/>
+      <c r="E390" s="90"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="89"/>
+      <c r="E391" s="90"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="89"/>
+      <c r="E392" s="90"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="89"/>
+      <c r="E393" s="90"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="89"/>
+      <c r="E394" s="90"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="89"/>
+      <c r="E395" s="90"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="89"/>
+      <c r="E396" s="90"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="89"/>
+      <c r="E397" s="90"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="89"/>
+      <c r="E398" s="90"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="89"/>
+      <c r="E399" s="90"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="89"/>
+      <c r="E400" s="90"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="89"/>
+      <c r="E401" s="90"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="89"/>
+      <c r="E402" s="90"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="89"/>
+      <c r="E403" s="90"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="89"/>
+      <c r="E404" s="90"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="89"/>
+      <c r="E405" s="90"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="89"/>
+      <c r="E406" s="90"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="89"/>
+      <c r="E407" s="90"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="89"/>
+      <c r="E408" s="90"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="89"/>
+      <c r="E409" s="90"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="89"/>
+      <c r="E410" s="90"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="89"/>
+      <c r="E411" s="90"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="89"/>
+      <c r="E412" s="90"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="89"/>
+      <c r="E413" s="90"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="89"/>
+      <c r="E414" s="90"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="89"/>
+      <c r="E415" s="90"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="89"/>
+      <c r="E416" s="90"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="89"/>
+      <c r="E417" s="90"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="89"/>
+      <c r="E418" s="90"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="89"/>
+      <c r="E419" s="90"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="89"/>
+      <c r="E420" s="90"/>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="89"/>
+      <c r="E421" s="90"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="89"/>
+      <c r="E422" s="90"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="89"/>
+      <c r="E423" s="90"/>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="89"/>
+      <c r="E424" s="90"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="89"/>
+      <c r="E425" s="90"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="89"/>
+      <c r="E426" s="90"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="89"/>
+      <c r="E427" s="90"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="89"/>
+      <c r="E428" s="90"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="89"/>
+      <c r="E429" s="90"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="89"/>
+      <c r="E430" s="90"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="89"/>
+      <c r="E431" s="90"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="89"/>
+      <c r="E432" s="90"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="89"/>
+      <c r="E433" s="90"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="89"/>
+      <c r="E434" s="90"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="89"/>
+      <c r="E435" s="90"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="89"/>
+      <c r="E436" s="90"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="89"/>
+      <c r="E437" s="90"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="89"/>
+      <c r="E438" s="90"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="89"/>
+      <c r="E439" s="90"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="89"/>
+      <c r="E440" s="90"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="89"/>
+      <c r="E441" s="90"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="89"/>
+      <c r="E442" s="90"/>
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="89"/>
+      <c r="E443" s="90"/>
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="89"/>
+      <c r="E444" s="90"/>
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="89"/>
+      <c r="E445" s="90"/>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="89"/>
+      <c r="E446" s="90"/>
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="89"/>
+      <c r="E447" s="90"/>
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="89"/>
+      <c r="E448" s="90"/>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="89"/>
+      <c r="E449" s="90"/>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="89"/>
+      <c r="E450" s="90"/>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="89"/>
+      <c r="E451" s="90"/>
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="89"/>
+      <c r="E452" s="90"/>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="89"/>
+      <c r="E453" s="90"/>
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="89"/>
+      <c r="E454" s="90"/>
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="89"/>
+      <c r="E455" s="90"/>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="89"/>
+      <c r="E456" s="90"/>
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="89"/>
+      <c r="E457" s="90"/>
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="89"/>
+      <c r="E458" s="90"/>
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="89"/>
+      <c r="E459" s="90"/>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="89"/>
+      <c r="E460" s="90"/>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="89"/>
+      <c r="E461" s="90"/>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="89"/>
+      <c r="E462" s="90"/>
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="89"/>
+      <c r="E463" s="90"/>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="89"/>
+      <c r="E464" s="90"/>
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="89"/>
+      <c r="E465" s="90"/>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="89"/>
+      <c r="E466" s="90"/>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="89"/>
+      <c r="E467" s="90"/>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="89"/>
+      <c r="E468" s="90"/>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="89"/>
+      <c r="E469" s="90"/>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="89"/>
+      <c r="E470" s="90"/>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="89"/>
+      <c r="E471" s="90"/>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="89"/>
+      <c r="E472" s="90"/>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="89"/>
+      <c r="E473" s="90"/>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="89"/>
+      <c r="E474" s="90"/>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="89"/>
+      <c r="E475" s="90"/>
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="89"/>
+      <c r="E476" s="90"/>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="89"/>
+      <c r="E477" s="90"/>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="89"/>
+      <c r="E478" s="90"/>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="89"/>
+      <c r="E479" s="90"/>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="89"/>
+      <c r="E480" s="90"/>
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="89"/>
+      <c r="E481" s="90"/>
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="89"/>
+      <c r="E482" s="90"/>
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="89"/>
+      <c r="E483" s="90"/>
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="89"/>
+      <c r="E484" s="90"/>
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="89"/>
+      <c r="E485" s="90"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="89"/>
+      <c r="E486" s="90"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="89"/>
+      <c r="E487" s="90"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="89"/>
+      <c r="E488" s="90"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="89"/>
+      <c r="E489" s="90"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="89"/>
+      <c r="E490" s="90"/>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="89"/>
+      <c r="E491" s="90"/>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="89"/>
+      <c r="E492" s="90"/>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="89"/>
+      <c r="E493" s="90"/>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="89"/>
+      <c r="E494" s="90"/>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="89"/>
+      <c r="E495" s="90"/>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="89"/>
+      <c r="E496" s="90"/>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="89"/>
+      <c r="E497" s="90"/>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="89"/>
+      <c r="E498" s="90"/>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="89"/>
+      <c r="E499" s="90"/>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="89"/>
+      <c r="E500" s="90"/>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="89"/>
+      <c r="E501" s="90"/>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="89"/>
+      <c r="E502" s="90"/>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="89"/>
+      <c r="E503" s="90"/>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="89"/>
+      <c r="E504" s="90"/>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="89"/>
+      <c r="E505" s="90"/>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="89"/>
+      <c r="E506" s="90"/>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="89"/>
+      <c r="E507" s="90"/>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="89"/>
+      <c r="E508" s="90"/>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="89"/>
+      <c r="E509" s="90"/>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="89"/>
+      <c r="E510" s="90"/>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="89"/>
+      <c r="E511" s="90"/>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="89"/>
+      <c r="E512" s="90"/>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="89"/>
+      <c r="E513" s="90"/>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="89"/>
+      <c r="E514" s="90"/>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="89"/>
+      <c r="E515" s="90"/>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="89"/>
+      <c r="E516" s="90"/>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="89"/>
+      <c r="E517" s="90"/>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="89"/>
+      <c r="E518" s="90"/>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="89"/>
+      <c r="E519" s="90"/>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="89"/>
+      <c r="E520" s="90"/>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="89"/>
+      <c r="E521" s="90"/>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="89"/>
+      <c r="E522" s="90"/>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="89"/>
+      <c r="E523" s="90"/>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="89"/>
+      <c r="E524" s="90"/>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="89"/>
+      <c r="E525" s="90"/>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="89"/>
+      <c r="E526" s="90"/>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="89"/>
+      <c r="E527" s="90"/>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="89"/>
+      <c r="E528" s="90"/>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="89"/>
+      <c r="E529" s="90"/>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="89"/>
+      <c r="E530" s="90"/>
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="89"/>
+      <c r="E531" s="90"/>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="89"/>
+      <c r="E532" s="90"/>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="89"/>
+      <c r="E533" s="90"/>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="89"/>
+      <c r="E534" s="90"/>
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="89"/>
+      <c r="E535" s="90"/>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="89"/>
+      <c r="E536" s="90"/>
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="89"/>
+      <c r="E537" s="90"/>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="89"/>
+      <c r="E538" s="90"/>
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="89"/>
+      <c r="E539" s="90"/>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="89"/>
+      <c r="E540" s="90"/>
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="89"/>
+      <c r="E541" s="90"/>
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="89"/>
+      <c r="E542" s="90"/>
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="89"/>
+      <c r="E543" s="90"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="89"/>
+      <c r="E544" s="90"/>
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="89"/>
+      <c r="E545" s="90"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="89"/>
+      <c r="E546" s="90"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="89"/>
+      <c r="E547" s="90"/>
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="89"/>
+      <c r="E548" s="90"/>
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="89"/>
+      <c r="E549" s="90"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="89"/>
+      <c r="E550" s="90"/>
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="89"/>
+      <c r="E551" s="90"/>
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="89"/>
+      <c r="E552" s="90"/>
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="89"/>
+      <c r="E553" s="90"/>
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="89"/>
+      <c r="E554" s="90"/>
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="89"/>
+      <c r="E555" s="90"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="89"/>
+      <c r="E556" s="90"/>
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="89"/>
+      <c r="E557" s="90"/>
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="89"/>
+      <c r="E558" s="90"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="89"/>
+      <c r="E559" s="90"/>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="89"/>
+      <c r="E560" s="90"/>
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="89"/>
+      <c r="E561" s="90"/>
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="89"/>
+      <c r="E562" s="90"/>
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="89"/>
+      <c r="E563" s="90"/>
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="89"/>
+      <c r="E564" s="90"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="89"/>
+      <c r="E565" s="90"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="89"/>
+      <c r="E566" s="90"/>
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="89"/>
+      <c r="E567" s="90"/>
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="89"/>
+      <c r="E568" s="90"/>
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="89"/>
+      <c r="E569" s="90"/>
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="89"/>
+      <c r="E570" s="90"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="89"/>
+      <c r="E571" s="90"/>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="89"/>
+      <c r="E572" s="90"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="89"/>
+      <c r="E573" s="90"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="89"/>
+      <c r="E574" s="90"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="89"/>
+      <c r="E575" s="90"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="89"/>
+      <c r="E576" s="90"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="89"/>
+      <c r="E577" s="90"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="89"/>
+      <c r="E578" s="90"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="89"/>
+      <c r="E579" s="90"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="89"/>
+      <c r="E580" s="90"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="89"/>
+      <c r="E581" s="90"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="89"/>
+      <c r="E582" s="90"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="89"/>
+      <c r="E583" s="90"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="89"/>
+      <c r="E584" s="90"/>
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="89"/>
+      <c r="E585" s="90"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="89"/>
+      <c r="E586" s="90"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="89"/>
+      <c r="E587" s="90"/>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="89"/>
+      <c r="E588" s="90"/>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="89"/>
+      <c r="E589" s="90"/>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="89"/>
+      <c r="E590" s="90"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="89"/>
+      <c r="E591" s="90"/>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="89"/>
+      <c r="E592" s="90"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="89"/>
+      <c r="E593" s="90"/>
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="89"/>
+      <c r="E594" s="90"/>
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="89"/>
+      <c r="E595" s="90"/>
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="89"/>
+      <c r="E596" s="90"/>
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="89"/>
+      <c r="E597" s="90"/>
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="89"/>
+      <c r="E598" s="90"/>
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="89"/>
+      <c r="E599" s="90"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="89"/>
+      <c r="E600" s="90"/>
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="89"/>
+      <c r="E601" s="90"/>
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="89"/>
+      <c r="E602" s="90"/>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="89"/>
+      <c r="E603" s="90"/>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="89"/>
+      <c r="E604" s="90"/>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="89"/>
+      <c r="E605" s="90"/>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="89"/>
+      <c r="E606" s="90"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="89"/>
+      <c r="E607" s="90"/>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="89"/>
+      <c r="E608" s="90"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="89"/>
+      <c r="E609" s="90"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="89"/>
+      <c r="E610" s="90"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="89"/>
+      <c r="E611" s="90"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="89"/>
+      <c r="E612" s="90"/>
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="89"/>
+      <c r="E613" s="90"/>
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="89"/>
+      <c r="E614" s="90"/>
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="89"/>
+      <c r="E615" s="90"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="89"/>
+      <c r="E616" s="90"/>
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="89"/>
+      <c r="E617" s="90"/>
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="89"/>
+      <c r="E618" s="90"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="89"/>
+      <c r="E619" s="90"/>
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="89"/>
+      <c r="E620" s="90"/>
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="89"/>
+      <c r="E621" s="90"/>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="89"/>
+      <c r="E622" s="90"/>
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="89"/>
+      <c r="E623" s="90"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="89"/>
+      <c r="E624" s="90"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="89"/>
+      <c r="E625" s="90"/>
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="89"/>
+      <c r="E626" s="90"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="89"/>
+      <c r="E627" s="90"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="89"/>
+      <c r="E628" s="90"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="89"/>
+      <c r="E629" s="90"/>
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="89"/>
+      <c r="E630" s="90"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="89"/>
+      <c r="E631" s="90"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="89"/>
+      <c r="E632" s="90"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="89"/>
+      <c r="E633" s="90"/>
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="89"/>
+      <c r="E634" s="90"/>
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="89"/>
+      <c r="E635" s="90"/>
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="89"/>
+      <c r="E636" s="90"/>
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="89"/>
+      <c r="E637" s="90"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="89"/>
+      <c r="E638" s="90"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="89"/>
+      <c r="E639" s="90"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="89"/>
+      <c r="E640" s="90"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="89"/>
+      <c r="E641" s="90"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="89"/>
+      <c r="E642" s="90"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="89"/>
+      <c r="E643" s="90"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="89"/>
+      <c r="E644" s="90"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="89"/>
+      <c r="E645" s="90"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="89"/>
+      <c r="E646" s="90"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="89"/>
+      <c r="E647" s="90"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="89"/>
+      <c r="E648" s="90"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="89"/>
+      <c r="E649" s="90"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="89"/>
+      <c r="E650" s="90"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="89"/>
+      <c r="E651" s="90"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="89"/>
+      <c r="E652" s="90"/>
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="89"/>
+      <c r="E653" s="90"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="89"/>
+      <c r="E654" s="90"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="89"/>
+      <c r="E655" s="90"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="89"/>
+      <c r="E656" s="90"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="89"/>
+      <c r="E657" s="90"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="89"/>
+      <c r="E658" s="90"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="89"/>
+      <c r="E659" s="90"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="89"/>
+      <c r="E660" s="90"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="89"/>
+      <c r="E661" s="90"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="89"/>
+      <c r="E662" s="90"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="89"/>
+      <c r="E663" s="90"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="89"/>
+      <c r="E664" s="90"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="89"/>
+      <c r="E665" s="90"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="89"/>
+      <c r="E666" s="90"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="89"/>
+      <c r="E667" s="90"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="89"/>
+      <c r="E668" s="90"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="89"/>
+      <c r="E669" s="90"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="89"/>
+      <c r="E670" s="90"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="89"/>
+      <c r="E671" s="90"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="89"/>
+      <c r="E672" s="90"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="89"/>
+      <c r="E673" s="90"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="89"/>
+      <c r="E674" s="90"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="89"/>
+      <c r="E675" s="90"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="89"/>
+      <c r="E676" s="90"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="89"/>
+      <c r="E677" s="90"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="89"/>
+      <c r="E678" s="90"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="89"/>
+      <c r="E679" s="90"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="89"/>
+      <c r="E680" s="90"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="89"/>
+      <c r="E681" s="90"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="89"/>
+      <c r="E682" s="90"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="89"/>
+      <c r="E683" s="90"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="89"/>
+      <c r="E684" s="90"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="89"/>
+      <c r="E685" s="90"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="89"/>
+      <c r="E686" s="90"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="89"/>
+      <c r="E687" s="90"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="89"/>
+      <c r="E688" s="90"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="89"/>
+      <c r="E689" s="90"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="89"/>
+      <c r="E690" s="90"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="89"/>
+      <c r="E691" s="90"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="89"/>
+      <c r="E692" s="90"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="89"/>
+      <c r="E693" s="90"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="89"/>
+      <c r="E694" s="90"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="89"/>
+      <c r="E695" s="90"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="89"/>
+      <c r="E696" s="90"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="89"/>
+      <c r="E697" s="90"/>
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="89"/>
+      <c r="E698" s="90"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="89"/>
+      <c r="E699" s="90"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="89"/>
+      <c r="E700" s="90"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="89"/>
+      <c r="E701" s="90"/>
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="89"/>
+      <c r="E702" s="90"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="89"/>
+      <c r="E703" s="90"/>
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="89"/>
+      <c r="E704" s="90"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="89"/>
+      <c r="E705" s="90"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="89"/>
+      <c r="E706" s="90"/>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="89"/>
+      <c r="E707" s="90"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="89"/>
+      <c r="E708" s="90"/>
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="89"/>
+      <c r="E709" s="90"/>
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="89"/>
+      <c r="E710" s="90"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="89"/>
+      <c r="E711" s="90"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="89"/>
+      <c r="E712" s="90"/>
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="89"/>
+      <c r="E713" s="90"/>
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="89"/>
+      <c r="E714" s="90"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="89"/>
+      <c r="E715" s="90"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="89"/>
+      <c r="E716" s="90"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="89"/>
+      <c r="E717" s="90"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="89"/>
+      <c r="E718" s="90"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="89"/>
+      <c r="E719" s="90"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="89"/>
+      <c r="E720" s="90"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="89"/>
+      <c r="E721" s="90"/>
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="89"/>
+      <c r="E722" s="90"/>
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="89"/>
+      <c r="E723" s="90"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="89"/>
+      <c r="E724" s="90"/>
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="89"/>
+      <c r="E725" s="90"/>
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="89"/>
+      <c r="E726" s="90"/>
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="89"/>
+      <c r="E727" s="90"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="89"/>
+      <c r="E728" s="90"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="89"/>
+      <c r="E729" s="90"/>
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="89"/>
+      <c r="E730" s="90"/>
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="89"/>
+      <c r="E731" s="90"/>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="89"/>
+      <c r="E732" s="90"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="89"/>
+      <c r="E733" s="90"/>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="89"/>
+      <c r="E734" s="90"/>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="89"/>
+      <c r="E735" s="90"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="89"/>
+      <c r="E736" s="90"/>
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="89"/>
+      <c r="E737" s="90"/>
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="89"/>
+      <c r="E738" s="90"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="89"/>
+      <c r="E739" s="90"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="89"/>
+      <c r="E740" s="90"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="89"/>
+      <c r="E741" s="90"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="89"/>
+      <c r="E742" s="90"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="89"/>
+      <c r="E743" s="90"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="89"/>
+      <c r="E744" s="90"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="89"/>
+      <c r="E745" s="90"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="89"/>
+      <c r="E746" s="90"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="89"/>
+      <c r="E747" s="90"/>
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="89"/>
+      <c r="E748" s="90"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="89"/>
+      <c r="E749" s="90"/>
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="89"/>
+      <c r="E750" s="90"/>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="89"/>
+      <c r="E751" s="90"/>
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="89"/>
+      <c r="E752" s="90"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="89"/>
+      <c r="E753" s="90"/>
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="89"/>
+      <c r="E754" s="90"/>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="89"/>
+      <c r="E755" s="90"/>
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="89"/>
+      <c r="E756" s="90"/>
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="89"/>
+      <c r="E757" s="90"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="89"/>
+      <c r="E758" s="90"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="89"/>
+      <c r="E759" s="90"/>
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="89"/>
+      <c r="E760" s="90"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="89"/>
+      <c r="E761" s="90"/>
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="89"/>
+      <c r="E762" s="90"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="89"/>
+      <c r="E763" s="90"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="89"/>
+      <c r="E764" s="90"/>
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="89"/>
+      <c r="E765" s="90"/>
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="89"/>
+      <c r="E766" s="90"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="89"/>
+      <c r="E767" s="90"/>
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="89"/>
+      <c r="E768" s="90"/>
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="89"/>
+      <c r="E769" s="90"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="89"/>
+      <c r="E770" s="90"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="89"/>
+      <c r="E771" s="90"/>
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="89"/>
+      <c r="E772" s="90"/>
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="89"/>
+      <c r="E773" s="90"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="89"/>
+      <c r="E774" s="90"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="89"/>
+      <c r="E775" s="90"/>
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="89"/>
+      <c r="E776" s="90"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="89"/>
+      <c r="E777" s="90"/>
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="89"/>
+      <c r="E778" s="90"/>
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="89"/>
+      <c r="E779" s="90"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="89"/>
+      <c r="E780" s="90"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="89"/>
+      <c r="E781" s="90"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="89"/>
+      <c r="E782" s="90"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="89"/>
+      <c r="E783" s="90"/>
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="89"/>
+      <c r="E784" s="90"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="89"/>
+      <c r="E785" s="90"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="89"/>
+      <c r="E786" s="90"/>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="89"/>
+      <c r="E787" s="90"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="89"/>
+      <c r="E788" s="90"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="89"/>
+      <c r="E789" s="90"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="89"/>
+      <c r="E790" s="90"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="89"/>
+      <c r="E791" s="90"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="89"/>
+      <c r="E792" s="90"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="89"/>
+      <c r="E793" s="90"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="89"/>
+      <c r="E794" s="90"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="89"/>
+      <c r="E795" s="90"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="89"/>
+      <c r="E796" s="90"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="89"/>
+      <c r="E797" s="90"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="89"/>
+      <c r="E798" s="90"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="89"/>
+      <c r="E799" s="90"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="89"/>
+      <c r="E800" s="90"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="89"/>
+      <c r="E801" s="90"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="89"/>
+      <c r="E802" s="90"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="89"/>
+      <c r="E803" s="90"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="89"/>
+      <c r="E804" s="90"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="89"/>
+      <c r="E805" s="90"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="89"/>
+      <c r="E806" s="90"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="89"/>
+      <c r="E807" s="90"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="89"/>
+      <c r="E808" s="90"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="89"/>
+      <c r="E809" s="90"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="89"/>
+      <c r="E810" s="90"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="89"/>
+      <c r="E811" s="90"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="89"/>
+      <c r="E812" s="90"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="89"/>
+      <c r="E813" s="90"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="89"/>
+      <c r="E814" s="90"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="89"/>
+      <c r="E815" s="90"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="89"/>
+      <c r="E816" s="90"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="89"/>
+      <c r="E817" s="90"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="89"/>
+      <c r="E818" s="90"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="89"/>
+      <c r="E819" s="90"/>
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="89"/>
+      <c r="E820" s="90"/>
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="89"/>
+      <c r="E821" s="90"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="89"/>
+      <c r="E822" s="90"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="89"/>
+      <c r="E823" s="90"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="89"/>
+      <c r="E824" s="90"/>
     </row>
     <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="89"/>
+      <c r="E825" s="90"/>
     </row>
     <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="89"/>
+      <c r="E826" s="90"/>
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="89"/>
+      <c r="E827" s="90"/>
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="89"/>
+      <c r="E828" s="90"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="89"/>
+      <c r="E829" s="90"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="89"/>
+      <c r="E830" s="90"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="89"/>
+      <c r="E831" s="90"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="89"/>
+      <c r="E832" s="90"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="89"/>
+      <c r="E833" s="90"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="89"/>
+      <c r="E834" s="90"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="89"/>
+      <c r="E835" s="90"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="89"/>
+      <c r="E836" s="90"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="89"/>
+      <c r="E837" s="90"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="89"/>
+      <c r="E838" s="90"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="89"/>
+      <c r="E839" s="90"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="89"/>
+      <c r="E840" s="90"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="89"/>
+      <c r="E841" s="90"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="89"/>
+      <c r="E842" s="90"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="89"/>
+      <c r="E843" s="90"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="89"/>
+      <c r="E844" s="90"/>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="89"/>
+      <c r="E845" s="90"/>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="89"/>
+      <c r="E846" s="90"/>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="89"/>
+      <c r="E847" s="90"/>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="89"/>
+      <c r="E848" s="90"/>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="89"/>
+      <c r="E849" s="90"/>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="89"/>
+      <c r="E850" s="90"/>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="89"/>
+      <c r="E851" s="90"/>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="89"/>
+      <c r="E852" s="90"/>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="89"/>
+      <c r="E853" s="90"/>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="89"/>
+      <c r="E854" s="90"/>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="89"/>
+      <c r="E855" s="90"/>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="89"/>
+      <c r="E856" s="90"/>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="89"/>
+      <c r="E857" s="90"/>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="89"/>
+      <c r="E858" s="90"/>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="89"/>
+      <c r="E859" s="90"/>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="89"/>
+      <c r="E860" s="90"/>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="89"/>
+      <c r="E861" s="90"/>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="89"/>
+      <c r="E862" s="90"/>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="89"/>
+      <c r="E863" s="90"/>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="89"/>
+      <c r="E864" s="90"/>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="89"/>
+      <c r="E865" s="90"/>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="89"/>
+      <c r="E866" s="90"/>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="89"/>
+      <c r="E867" s="90"/>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="89"/>
+      <c r="E868" s="90"/>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="89"/>
+      <c r="E869" s="90"/>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="89"/>
+      <c r="E870" s="90"/>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="89"/>
+      <c r="E871" s="90"/>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="89"/>
+      <c r="E872" s="90"/>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="89"/>
+      <c r="E873" s="90"/>
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="89"/>
+      <c r="E874" s="90"/>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="89"/>
+      <c r="E875" s="90"/>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="89"/>
+      <c r="E876" s="90"/>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="89"/>
+      <c r="E877" s="90"/>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="89"/>
+      <c r="E878" s="90"/>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="89"/>
+      <c r="E879" s="90"/>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="89"/>
+      <c r="E880" s="90"/>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="89"/>
+      <c r="E881" s="90"/>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="89"/>
+      <c r="E882" s="90"/>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="89"/>
+      <c r="E883" s="90"/>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="89"/>
+      <c r="E884" s="90"/>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="89"/>
+      <c r="E885" s="90"/>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="89"/>
+      <c r="E886" s="90"/>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="89"/>
+      <c r="E887" s="90"/>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="89"/>
+      <c r="E888" s="90"/>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="89"/>
+      <c r="E889" s="90"/>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="89"/>
+      <c r="E890" s="90"/>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="89"/>
+      <c r="E891" s="90"/>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="89"/>
+      <c r="E892" s="90"/>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="89"/>
+      <c r="E893" s="90"/>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="89"/>
+      <c r="E894" s="90"/>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="89"/>
+      <c r="E895" s="90"/>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="89"/>
+      <c r="E896" s="90"/>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="89"/>
+      <c r="E897" s="90"/>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="89"/>
+      <c r="E898" s="90"/>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="89"/>
+      <c r="E899" s="90"/>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="89"/>
+      <c r="E900" s="90"/>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="89"/>
+      <c r="E901" s="90"/>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="89"/>
+      <c r="E902" s="90"/>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="89"/>
+      <c r="E903" s="90"/>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="89"/>
+      <c r="E904" s="90"/>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="89"/>
+      <c r="E905" s="90"/>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="89"/>
+      <c r="E906" s="90"/>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="89"/>
+      <c r="E907" s="90"/>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="89"/>
+      <c r="E908" s="90"/>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="89"/>
+      <c r="E909" s="90"/>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="89"/>
+      <c r="E910" s="90"/>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="89"/>
+      <c r="E911" s="90"/>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="89"/>
+      <c r="E912" s="90"/>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="89"/>
+      <c r="E913" s="90"/>
     </row>
     <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="89"/>
+      <c r="E914" s="90"/>
     </row>
     <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="89"/>
+      <c r="E915" s="90"/>
     </row>
     <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="89"/>
+      <c r="E916" s="90"/>
     </row>
     <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="89"/>
+      <c r="E917" s="90"/>
     </row>
     <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="89"/>
+      <c r="E918" s="90"/>
     </row>
     <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="89"/>
+      <c r="E919" s="90"/>
     </row>
     <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="89"/>
+      <c r="E920" s="90"/>
     </row>
     <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="89"/>
+      <c r="E921" s="90"/>
     </row>
     <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="89"/>
+      <c r="E922" s="90"/>
     </row>
     <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="89"/>
+      <c r="E923" s="90"/>
     </row>
     <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="89"/>
+      <c r="E924" s="90"/>
     </row>
     <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="89"/>
+      <c r="E925" s="90"/>
     </row>
     <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="89"/>
+      <c r="E926" s="90"/>
     </row>
     <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="89"/>
+      <c r="E927" s="90"/>
     </row>
     <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="89"/>
+      <c r="E928" s="90"/>
     </row>
     <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="89"/>
+      <c r="E929" s="90"/>
     </row>
     <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="89"/>
+      <c r="E930" s="90"/>
     </row>
     <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="89"/>
+      <c r="E931" s="90"/>
     </row>
     <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="89"/>
+      <c r="E932" s="90"/>
     </row>
     <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="89"/>
+      <c r="E933" s="90"/>
     </row>
     <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="89"/>
+      <c r="E934" s="90"/>
     </row>
     <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="89"/>
+      <c r="E935" s="90"/>
     </row>
     <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="89"/>
+      <c r="E936" s="90"/>
     </row>
     <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="89"/>
+      <c r="E937" s="90"/>
     </row>
     <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="89"/>
+      <c r="E938" s="90"/>
     </row>
     <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="89"/>
+      <c r="E939" s="90"/>
     </row>
     <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="89"/>
+      <c r="E940" s="90"/>
     </row>
     <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="89"/>
+      <c r="E941" s="90"/>
     </row>
     <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="89"/>
+      <c r="E942" s="90"/>
     </row>
     <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="89"/>
+      <c r="E943" s="90"/>
     </row>
     <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="89"/>
+      <c r="E944" s="90"/>
     </row>
     <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="89"/>
+      <c r="E945" s="90"/>
     </row>
     <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="89"/>
+      <c r="E946" s="90"/>
     </row>
     <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="89"/>
+      <c r="E947" s="90"/>
     </row>
     <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="89"/>
+      <c r="E948" s="90"/>
     </row>
     <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="89"/>
+      <c r="E949" s="90"/>
     </row>
     <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="89"/>
+      <c r="E950" s="90"/>
     </row>
     <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="89"/>
+      <c r="E951" s="90"/>
     </row>
     <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="89"/>
+      <c r="E952" s="90"/>
     </row>
     <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="89"/>
+      <c r="E953" s="90"/>
     </row>
     <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="89"/>
+      <c r="E954" s="90"/>
     </row>
     <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="89"/>
+      <c r="E955" s="90"/>
     </row>
     <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="89"/>
+      <c r="E956" s="90"/>
     </row>
     <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="89"/>
+      <c r="E957" s="90"/>
     </row>
     <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="89"/>
+      <c r="E958" s="90"/>
     </row>
     <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="89"/>
+      <c r="E959" s="90"/>
     </row>
     <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="89"/>
+      <c r="E960" s="90"/>
     </row>
     <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="89"/>
+      <c r="E961" s="90"/>
     </row>
     <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="89"/>
+      <c r="E962" s="90"/>
     </row>
     <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="89"/>
+      <c r="E963" s="90"/>
     </row>
     <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="89"/>
+      <c r="E964" s="90"/>
     </row>
     <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="89"/>
+      <c r="E965" s="90"/>
     </row>
     <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="89"/>
+      <c r="E966" s="90"/>
     </row>
     <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="89"/>
+      <c r="E967" s="90"/>
     </row>
     <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="89"/>
+      <c r="E968" s="90"/>
     </row>
     <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="89"/>
+      <c r="E969" s="90"/>
     </row>
     <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="89"/>
+      <c r="E970" s="90"/>
     </row>
     <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="89"/>
+      <c r="E971" s="90"/>
     </row>
     <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="89"/>
+      <c r="E972" s="90"/>
     </row>
     <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="89"/>
+      <c r="E973" s="90"/>
     </row>
     <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="89"/>
+      <c r="E974" s="90"/>
     </row>
     <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="89"/>
+      <c r="E975" s="90"/>
     </row>
     <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="89"/>
+      <c r="E976" s="90"/>
     </row>
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="89"/>
+      <c r="E977" s="90"/>
     </row>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="89"/>
+      <c r="E978" s="90"/>
     </row>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="89"/>
+      <c r="E979" s="90"/>
     </row>
     <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="89"/>
+      <c r="E980" s="90"/>
     </row>
     <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="89"/>
+      <c r="E981" s="90"/>
     </row>
     <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="89"/>
+      <c r="E982" s="90"/>
     </row>
     <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="89"/>
+      <c r="E983" s="90"/>
     </row>
     <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="89"/>
+      <c r="E984" s="90"/>
     </row>
     <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="89"/>
+      <c r="E985" s="90"/>
     </row>
     <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="89"/>
+      <c r="E986" s="90"/>
     </row>
     <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="89"/>
+      <c r="E987" s="90"/>
     </row>
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="89"/>
+      <c r="E988" s="90"/>
     </row>
     <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="89"/>
+      <c r="E989" s="90"/>
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="89"/>
+      <c r="E990" s="90"/>
     </row>
     <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="89"/>
+      <c r="E991" s="90"/>
     </row>
     <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="89"/>
+      <c r="E992" s="90"/>
     </row>
     <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="89"/>
+      <c r="E993" s="90"/>
     </row>
     <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="89"/>
+      <c r="E994" s="90"/>
     </row>
     <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="89"/>
+      <c r="E995" s="90"/>
     </row>
     <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="89"/>
+      <c r="E996" s="90"/>
     </row>
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="89"/>
+      <c r="E997" s="90"/>
     </row>
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="89"/>
+      <c r="E998" s="90"/>
     </row>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="89"/>
+      <c r="E999" s="90"/>
     </row>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="89"/>
+      <c r="E1000" s="90"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C112">
@@ -40797,18 +40807,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91" t="n">
+      <c r="A2" s="92" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>875</v>
       </c>
     </row>
@@ -40816,7 +40826,7 @@
       <c r="A3" s="21" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>876</v>
       </c>
     </row>
@@ -40824,15 +40834,15 @@
       <c r="A4" s="21" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="94" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91" t="n">
+      <c r="A5" s="92" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="93" t="s">
         <v>878</v>
       </c>
     </row>
@@ -40840,7 +40850,7 @@
       <c r="A6" s="21" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>879</v>
       </c>
     </row>
@@ -40848,7 +40858,7 @@
       <c r="A7" s="21" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>880</v>
       </c>
     </row>
@@ -40856,7 +40866,7 @@
       <c r="A8" s="21" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="94" t="s">
         <v>881</v>
       </c>
     </row>
@@ -40864,7 +40874,7 @@
       <c r="A9" s="21" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>882</v>
       </c>
     </row>
@@ -40872,7 +40882,7 @@
       <c r="A10" s="21" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="94" t="s">
         <v>883</v>
       </c>
     </row>
@@ -40880,15 +40890,15 @@
       <c r="A11" s="21" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="94" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91" t="n">
+      <c r="A12" s="92" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="93" t="s">
         <v>885</v>
       </c>
     </row>
@@ -40896,7 +40906,7 @@
       <c r="A13" s="21" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="94" t="s">
         <v>886</v>
       </c>
     </row>
@@ -40904,7 +40914,7 @@
       <c r="A14" s="21" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>887</v>
       </c>
     </row>
@@ -40912,7 +40922,7 @@
       <c r="A15" s="21" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="94" t="s">
         <v>888</v>
       </c>
     </row>
@@ -40920,15 +40930,15 @@
       <c r="A16" s="21" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="94" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91" t="n">
+      <c r="A17" s="92" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="93" t="s">
         <v>890</v>
       </c>
     </row>
@@ -40936,7 +40946,7 @@
       <c r="A18" s="21" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="94" t="s">
         <v>891</v>
       </c>
     </row>
@@ -40944,7 +40954,7 @@
       <c r="A19" s="21" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="94" t="s">
         <v>892</v>
       </c>
     </row>
@@ -40952,7 +40962,7 @@
       <c r="A20" s="21" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="94" t="s">
         <v>893</v>
       </c>
     </row>
@@ -40960,7 +40970,7 @@
       <c r="A21" s="21" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="94" t="s">
         <v>894</v>
       </c>
     </row>
@@ -40968,7 +40978,7 @@
       <c r="A22" s="21" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="94" t="s">
         <v>895</v>
       </c>
     </row>
@@ -40976,15 +40986,15 @@
       <c r="A23" s="21" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="94" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="91" t="n">
+      <c r="A24" s="92" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="93" t="s">
         <v>897</v>
       </c>
     </row>
@@ -40992,7 +41002,7 @@
       <c r="A25" s="21" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="94" t="s">
         <v>898</v>
       </c>
     </row>
@@ -41000,7 +41010,7 @@
       <c r="A26" s="21" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="94" t="s">
         <v>899</v>
       </c>
     </row>
@@ -41008,7 +41018,7 @@
       <c r="A27" s="21" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="94" t="s">
         <v>900</v>
       </c>
     </row>
@@ -41016,7 +41026,7 @@
       <c r="A28" s="21" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="94" t="s">
         <v>901</v>
       </c>
     </row>
@@ -41024,7 +41034,7 @@
       <c r="A29" s="21" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="94" t="s">
         <v>902</v>
       </c>
     </row>
@@ -41032,7 +41042,7 @@
       <c r="A30" s="21" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="94" t="s">
         <v>903</v>
       </c>
     </row>
@@ -41040,7 +41050,7 @@
       <c r="A31" s="21" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="94" t="s">
         <v>904</v>
       </c>
     </row>
@@ -41048,7 +41058,7 @@
       <c r="A32" s="21" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="94" t="s">
         <v>905</v>
       </c>
     </row>
@@ -41056,7 +41066,7 @@
       <c r="A33" s="21" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="94" t="s">
         <v>906</v>
       </c>
     </row>
@@ -41064,7 +41074,7 @@
       <c r="A34" s="21" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="94" t="s">
         <v>907</v>
       </c>
     </row>
@@ -41072,7 +41082,7 @@
       <c r="A35" s="21" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="94" t="s">
         <v>908</v>
       </c>
     </row>
@@ -41080,7 +41090,7 @@
       <c r="A36" s="21" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="94" t="s">
         <v>909</v>
       </c>
     </row>
@@ -41088,7 +41098,7 @@
       <c r="A37" s="21" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="94" t="s">
         <v>910</v>
       </c>
     </row>
@@ -41096,7 +41106,7 @@
       <c r="A38" s="21" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="94" t="s">
         <v>911</v>
       </c>
     </row>
@@ -41104,7 +41114,7 @@
       <c r="A39" s="21" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="94" t="s">
         <v>912</v>
       </c>
     </row>
@@ -41112,7 +41122,7 @@
       <c r="A40" s="21" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>913</v>
       </c>
     </row>
@@ -41120,7 +41130,7 @@
       <c r="A41" s="21" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="94" t="s">
         <v>914</v>
       </c>
     </row>
@@ -41128,7 +41138,7 @@
       <c r="A42" s="21" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="94" t="s">
         <v>915</v>
       </c>
     </row>
@@ -41136,7 +41146,7 @@
       <c r="A43" s="21" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="94" t="s">
         <v>916</v>
       </c>
     </row>
@@ -41144,7 +41154,7 @@
       <c r="A44" s="21" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="94" t="s">
         <v>917</v>
       </c>
     </row>
@@ -41152,7 +41162,7 @@
       <c r="A45" s="21" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="94" t="s">
         <v>918</v>
       </c>
     </row>
@@ -41160,7 +41170,7 @@
       <c r="A46" s="21" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="94" t="s">
         <v>919</v>
       </c>
     </row>
@@ -41168,7 +41178,7 @@
       <c r="A47" s="21" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="94" t="s">
         <v>920</v>
       </c>
     </row>
@@ -41176,7 +41186,7 @@
       <c r="A48" s="21" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="94" t="s">
         <v>921</v>
       </c>
     </row>
@@ -41184,15 +41194,15 @@
       <c r="A49" s="21" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="94" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="91" t="n">
+      <c r="A50" s="92" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="93" t="s">
         <v>923</v>
       </c>
     </row>
@@ -41200,7 +41210,7 @@
       <c r="A51" s="21" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="94" t="s">
         <v>924</v>
       </c>
     </row>
@@ -41208,7 +41218,7 @@
       <c r="A52" s="21" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="94" t="s">
         <v>925</v>
       </c>
     </row>
@@ -41216,7 +41226,7 @@
       <c r="A53" s="21" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="94" t="s">
         <v>926</v>
       </c>
     </row>
@@ -41224,7 +41234,7 @@
       <c r="A54" s="21" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="94" t="s">
         <v>927</v>
       </c>
     </row>
@@ -41232,7 +41242,7 @@
       <c r="A55" s="21" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="94" t="s">
         <v>928</v>
       </c>
     </row>
@@ -41240,7 +41250,7 @@
       <c r="A56" s="21" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="94" t="s">
         <v>929</v>
       </c>
     </row>
@@ -41248,15 +41258,15 @@
       <c r="A57" s="21" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="93" t="s">
+      <c r="B57" s="94" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="91" t="n">
+      <c r="A58" s="92" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="96" t="s">
         <v>931</v>
       </c>
     </row>
@@ -41264,7 +41274,7 @@
       <c r="A59" s="21" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="94" t="s">
         <v>932</v>
       </c>
     </row>
@@ -41272,15 +41282,15 @@
       <c r="A60" s="21" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="94" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="91" t="n">
+      <c r="A61" s="92" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="93" t="s">
         <v>934</v>
       </c>
     </row>
@@ -41288,7 +41298,7 @@
       <c r="A62" s="21" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="94" t="s">
         <v>935</v>
       </c>
     </row>
@@ -41296,7 +41306,7 @@
       <c r="A63" s="21" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="94" t="s">
         <v>936</v>
       </c>
     </row>
@@ -41304,7 +41314,7 @@
       <c r="A64" s="21" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="94" t="s">
         <v>937</v>
       </c>
     </row>
@@ -41312,7 +41322,7 @@
       <c r="A65" s="21" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="94" t="s">
         <v>938</v>
       </c>
     </row>
@@ -41320,7 +41330,7 @@
       <c r="A66" s="21" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="94" t="s">
         <v>939</v>
       </c>
     </row>
@@ -41328,7 +41338,7 @@
       <c r="A67" s="21" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="94" t="s">
         <v>940</v>
       </c>
     </row>
@@ -41336,7 +41346,7 @@
       <c r="A68" s="21" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="94" t="s">
         <v>941</v>
       </c>
     </row>
@@ -41344,15 +41354,15 @@
       <c r="A69" s="21" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="94" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="91" t="n">
+      <c r="A70" s="92" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="93" t="s">
         <v>943</v>
       </c>
     </row>
@@ -41360,7 +41370,7 @@
       <c r="A71" s="21" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="94" t="s">
         <v>944</v>
       </c>
     </row>
@@ -41368,7 +41378,7 @@
       <c r="A72" s="21" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="94" t="s">
         <v>945</v>
       </c>
     </row>
@@ -41376,7 +41386,7 @@
       <c r="A73" s="21" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="94" t="s">
         <v>946</v>
       </c>
     </row>
@@ -41384,15 +41394,15 @@
       <c r="A74" s="21" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="94" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="91" t="n">
+      <c r="A75" s="92" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="93" t="s">
         <v>948</v>
       </c>
     </row>
@@ -41400,7 +41410,7 @@
       <c r="A76" s="21" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="94" t="s">
         <v>949</v>
       </c>
     </row>
@@ -41408,7 +41418,7 @@
       <c r="A77" s="21" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="94" t="s">
         <v>950</v>
       </c>
     </row>
@@ -41416,7 +41426,7 @@
       <c r="A78" s="21" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="94" t="s">
         <v>951</v>
       </c>
     </row>
@@ -41424,7 +41434,7 @@
       <c r="A79" s="21" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="93" t="s">
+      <c r="B79" s="94" t="s">
         <v>952</v>
       </c>
     </row>
@@ -41432,7 +41442,7 @@
       <c r="A80" s="21" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="94" t="s">
         <v>953</v>
       </c>
     </row>
@@ -41440,7 +41450,7 @@
       <c r="A81" s="21" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="93" t="s">
+      <c r="B81" s="94" t="s">
         <v>954</v>
       </c>
     </row>
@@ -41448,7 +41458,7 @@
       <c r="A82" s="21" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="93" t="s">
+      <c r="B82" s="94" t="s">
         <v>955</v>
       </c>
     </row>
@@ -41456,7 +41466,7 @@
       <c r="A83" s="21" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="93" t="s">
+      <c r="B83" s="94" t="s">
         <v>956</v>
       </c>
     </row>
@@ -41464,7 +41474,7 @@
       <c r="A84" s="21" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="93" t="s">
+      <c r="B84" s="94" t="s">
         <v>957</v>
       </c>
     </row>
@@ -41472,7 +41482,7 @@
       <c r="A85" s="21" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="93" t="s">
+      <c r="B85" s="94" t="s">
         <v>958</v>
       </c>
     </row>
@@ -41480,7 +41490,7 @@
       <c r="A86" s="21" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="94" t="s">
         <v>959</v>
       </c>
     </row>
@@ -41488,7 +41498,7 @@
       <c r="A87" s="21" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="93" t="s">
+      <c r="B87" s="94" t="s">
         <v>960</v>
       </c>
     </row>
@@ -41496,7 +41506,7 @@
       <c r="A88" s="21" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="93" t="s">
+      <c r="B88" s="94" t="s">
         <v>961</v>
       </c>
     </row>
@@ -41504,7 +41514,7 @@
       <c r="A89" s="21" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="93" t="s">
+      <c r="B89" s="94" t="s">
         <v>962</v>
       </c>
     </row>
@@ -41512,15 +41522,15 @@
       <c r="A90" s="21" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="93" t="s">
+      <c r="B90" s="94" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="91" t="n">
+      <c r="A91" s="92" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="93" t="s">
         <v>963</v>
       </c>
     </row>
@@ -41528,7 +41538,7 @@
       <c r="A92" s="21" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="93" t="s">
+      <c r="B92" s="94" t="s">
         <v>964</v>
       </c>
     </row>
@@ -41536,7 +41546,7 @@
       <c r="A93" s="21" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="93" t="s">
+      <c r="B93" s="94" t="s">
         <v>965</v>
       </c>
     </row>
@@ -41544,7 +41554,7 @@
       <c r="A94" s="21" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="93" t="s">
+      <c r="B94" s="94" t="s">
         <v>966</v>
       </c>
     </row>
@@ -41552,7 +41562,7 @@
       <c r="A95" s="21" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="93" t="s">
+      <c r="B95" s="94" t="s">
         <v>967</v>
       </c>
     </row>
@@ -41560,7 +41570,7 @@
       <c r="A96" s="21" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="93" t="s">
+      <c r="B96" s="94" t="s">
         <v>968</v>
       </c>
     </row>
@@ -41568,7 +41578,7 @@
       <c r="A97" s="21" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="93" t="s">
+      <c r="B97" s="94" t="s">
         <v>969</v>
       </c>
     </row>
@@ -41576,7 +41586,7 @@
       <c r="A98" s="21" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B98" s="94" t="s">
         <v>970</v>
       </c>
     </row>
@@ -41584,7 +41594,7 @@
       <c r="A99" s="21" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="93" t="s">
+      <c r="B99" s="94" t="s">
         <v>971</v>
       </c>
     </row>
@@ -41592,7 +41602,7 @@
       <c r="A100" s="21" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="93" t="s">
+      <c r="B100" s="94" t="s">
         <v>972</v>
       </c>
     </row>
@@ -41600,7 +41610,7 @@
       <c r="A101" s="21" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="93" t="s">
+      <c r="B101" s="94" t="s">
         <v>973</v>
       </c>
     </row>
@@ -41608,7 +41618,7 @@
       <c r="A102" s="21" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="93" t="s">
+      <c r="B102" s="94" t="s">
         <v>974</v>
       </c>
     </row>
@@ -41616,7 +41626,7 @@
       <c r="A103" s="21" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="93" t="s">
+      <c r="B103" s="94" t="s">
         <v>975</v>
       </c>
     </row>
@@ -41624,7 +41634,7 @@
       <c r="A104" s="21" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="93" t="s">
+      <c r="B104" s="94" t="s">
         <v>976</v>
       </c>
     </row>
@@ -41632,7 +41642,7 @@
       <c r="A105" s="21" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="93" t="s">
+      <c r="B105" s="94" t="s">
         <v>977</v>
       </c>
     </row>
@@ -41640,7 +41650,7 @@
       <c r="A106" s="21" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="93" t="s">
+      <c r="B106" s="94" t="s">
         <v>978</v>
       </c>
     </row>
@@ -41648,7 +41658,7 @@
       <c r="A107" s="21" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="94" t="s">
         <v>979</v>
       </c>
     </row>
@@ -41656,7 +41666,7 @@
       <c r="A108" s="21" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="93" t="s">
+      <c r="B108" s="94" t="s">
         <v>980</v>
       </c>
     </row>
@@ -41664,7 +41674,7 @@
       <c r="A109" s="21" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="93" t="s">
+      <c r="B109" s="94" t="s">
         <v>981</v>
       </c>
     </row>
@@ -41672,7 +41682,7 @@
       <c r="A110" s="21" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="93" t="s">
+      <c r="B110" s="94" t="s">
         <v>982</v>
       </c>
     </row>
@@ -41680,23 +41690,23 @@
       <c r="A111" s="21" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="94" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="96" t="n">
+      <c r="A112" s="97" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="93" t="s">
+      <c r="B112" s="94" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="96" t="n">
+      <c r="A113" s="97" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="93" t="s">
+      <c r="B113" s="94" t="s">
         <v>985</v>
       </c>
     </row>
@@ -41704,7 +41714,7 @@
       <c r="A114" s="21" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="93" t="s">
+      <c r="B114" s="94" t="s">
         <v>986</v>
       </c>
     </row>
@@ -41712,7 +41722,7 @@
       <c r="A115" s="21" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="93" t="s">
+      <c r="B115" s="94" t="s">
         <v>987</v>
       </c>
     </row>
@@ -41720,7 +41730,7 @@
       <c r="A116" s="21" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="93" t="s">
+      <c r="B116" s="94" t="s">
         <v>988</v>
       </c>
     </row>
@@ -41728,7 +41738,7 @@
       <c r="A117" s="21" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="93" t="s">
+      <c r="B117" s="94" t="s">
         <v>989</v>
       </c>
     </row>
@@ -41736,7 +41746,7 @@
       <c r="A118" s="21" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="93" t="s">
+      <c r="B118" s="94" t="s">
         <v>990</v>
       </c>
     </row>
@@ -41744,7 +41754,7 @@
       <c r="A119" s="21" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="93" t="s">
+      <c r="B119" s="94" t="s">
         <v>991</v>
       </c>
     </row>
@@ -41752,7 +41762,7 @@
       <c r="A120" s="21" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="93" t="s">
+      <c r="B120" s="94" t="s">
         <v>992</v>
       </c>
     </row>
@@ -41760,7 +41770,7 @@
       <c r="A121" s="21" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="93" t="s">
+      <c r="B121" s="94" t="s">
         <v>993</v>
       </c>
     </row>
@@ -41768,7 +41778,7 @@
       <c r="A122" s="21" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="93" t="s">
+      <c r="B122" s="94" t="s">
         <v>994</v>
       </c>
     </row>
@@ -41776,7 +41786,7 @@
       <c r="A123" s="21" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="93" t="s">
+      <c r="B123" s="94" t="s">
         <v>995</v>
       </c>
     </row>
@@ -41784,7 +41794,7 @@
       <c r="A124" s="21" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="93" t="s">
+      <c r="B124" s="94" t="s">
         <v>996</v>
       </c>
     </row>
@@ -41792,7 +41802,7 @@
       <c r="A125" s="21" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="93" t="s">
+      <c r="B125" s="94" t="s">
         <v>997</v>
       </c>
     </row>
@@ -41800,7 +41810,7 @@
       <c r="A126" s="21" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="93" t="s">
+      <c r="B126" s="94" t="s">
         <v>998</v>
       </c>
     </row>
@@ -41808,7 +41818,7 @@
       <c r="A127" s="21" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="93" t="s">
+      <c r="B127" s="94" t="s">
         <v>999</v>
       </c>
     </row>
@@ -41816,7 +41826,7 @@
       <c r="A128" s="21" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="93" t="s">
+      <c r="B128" s="94" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -41824,7 +41834,7 @@
       <c r="A129" s="21" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="93" t="s">
+      <c r="B129" s="94" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -41832,7 +41842,7 @@
       <c r="A130" s="21" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="93" t="s">
+      <c r="B130" s="94" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -41840,15 +41850,15 @@
       <c r="A131" s="21" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="93" t="s">
+      <c r="B131" s="94" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="91" t="n">
+      <c r="A132" s="92" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="92" t="s">
+      <c r="B132" s="93" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -41856,7 +41866,7 @@
       <c r="A133" s="21" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="93" t="s">
+      <c r="B133" s="94" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -41864,7 +41874,7 @@
       <c r="A134" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="93" t="s">
+      <c r="B134" s="94" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -41872,7 +41882,7 @@
       <c r="A135" s="21" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="93" t="s">
+      <c r="B135" s="94" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -41880,7 +41890,7 @@
       <c r="A136" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="93" t="s">
+      <c r="B136" s="94" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -41888,15 +41898,15 @@
       <c r="A137" s="21" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="93" t="s">
+      <c r="B137" s="94" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="91" t="n">
+      <c r="A138" s="92" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="92" t="s">
+      <c r="B138" s="93" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -41904,7 +41914,7 @@
       <c r="A139" s="21" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="93" t="s">
+      <c r="B139" s="94" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -41912,7 +41922,7 @@
       <c r="A140" s="21" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="93" t="s">
+      <c r="B140" s="94" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -41920,7 +41930,7 @@
       <c r="A141" s="21" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="93" t="s">
+      <c r="B141" s="94" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -41928,7 +41938,7 @@
       <c r="A142" s="21" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="93" t="s">
+      <c r="B142" s="94" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -41936,7 +41946,7 @@
       <c r="A143" s="21" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="93" t="s">
+      <c r="B143" s="94" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -41944,7 +41954,7 @@
       <c r="A144" s="21" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="93" t="s">
+      <c r="B144" s="94" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -41952,7 +41962,7 @@
       <c r="A145" s="21" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="93" t="s">
+      <c r="B145" s="94" t="s">
         <v>1017</v>
       </c>
     </row>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -840,7 +840,7 @@
     <t xml:space="preserve">Полиэфир</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">БОТЫ СПЕЦИАЛЬНЫЕ</t>
@@ -4039,6 +4039,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4880,8 +4881,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1702"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1609" activeCellId="0" sqref="D1609"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25288,6 +25289,7 @@
         <f aca="false">J1004*K1004</f>
         <v>0</v>
       </c>
+      <c r="M1004" s="62"/>
       <c r="Q1004" s="62"/>
       <c r="R1004" s="62"/>
       <c r="S1004" s="1"/>
@@ -25303,6 +25305,7 @@
         <f aca="false">J1005*K1005</f>
         <v>0</v>
       </c>
+      <c r="M1005" s="62"/>
       <c r="Q1005" s="62"/>
       <c r="R1005" s="62"/>
       <c r="S1005" s="1"/>
@@ -25318,6 +25321,7 @@
         <f aca="false">J1006*K1006</f>
         <v>0</v>
       </c>
+      <c r="M1006" s="62"/>
       <c r="Q1006" s="62"/>
       <c r="R1006" s="62"/>
       <c r="S1006" s="1"/>
@@ -25333,6 +25337,7 @@
         <f aca="false">J1007*K1007</f>
         <v>0</v>
       </c>
+      <c r="M1007" s="62"/>
       <c r="Q1007" s="62"/>
       <c r="R1007" s="62"/>
       <c r="S1007" s="1"/>
@@ -25348,6 +25353,7 @@
         <f aca="false">J1008*K1008</f>
         <v>0</v>
       </c>
+      <c r="M1008" s="62"/>
       <c r="Q1008" s="62"/>
       <c r="R1008" s="62"/>
       <c r="S1008" s="1"/>
@@ -25363,6 +25369,7 @@
         <f aca="false">J1009*K1009</f>
         <v>0</v>
       </c>
+      <c r="M1009" s="62"/>
       <c r="Q1009" s="62"/>
       <c r="R1009" s="62"/>
       <c r="S1009" s="1"/>
@@ -25378,6 +25385,7 @@
         <f aca="false">J1010*K1010</f>
         <v>0</v>
       </c>
+      <c r="M1010" s="62"/>
       <c r="Q1010" s="62"/>
       <c r="R1010" s="62"/>
       <c r="S1010" s="1"/>
@@ -25393,6 +25401,7 @@
         <f aca="false">J1011*K1011</f>
         <v>0</v>
       </c>
+      <c r="M1011" s="62"/>
       <c r="Q1011" s="62"/>
       <c r="R1011" s="62"/>
       <c r="S1011" s="1"/>
@@ -25408,6 +25417,7 @@
         <f aca="false">J1012*K1012</f>
         <v>0</v>
       </c>
+      <c r="M1012" s="62"/>
       <c r="Q1012" s="62"/>
       <c r="R1012" s="62"/>
       <c r="S1012" s="1"/>
@@ -25423,6 +25433,7 @@
         <f aca="false">J1013*K1013</f>
         <v>0</v>
       </c>
+      <c r="M1013" s="62"/>
       <c r="Q1013" s="62"/>
       <c r="R1013" s="62"/>
       <c r="S1013" s="1"/>
@@ -25438,6 +25449,7 @@
         <f aca="false">J1014*K1014</f>
         <v>0</v>
       </c>
+      <c r="M1014" s="62"/>
       <c r="Q1014" s="62"/>
       <c r="R1014" s="62"/>
       <c r="S1014" s="1"/>
@@ -25453,6 +25465,7 @@
         <f aca="false">J1015*K1015</f>
         <v>0</v>
       </c>
+      <c r="M1015" s="62"/>
       <c r="Q1015" s="62"/>
       <c r="R1015" s="62"/>
       <c r="S1015" s="1"/>
@@ -25468,6 +25481,7 @@
         <f aca="false">J1016*K1016</f>
         <v>0</v>
       </c>
+      <c r="M1016" s="62"/>
       <c r="Q1016" s="62"/>
       <c r="R1016" s="62"/>
       <c r="S1016" s="1"/>
@@ -25483,6 +25497,7 @@
         <f aca="false">J1017*K1017</f>
         <v>0</v>
       </c>
+      <c r="M1017" s="62"/>
       <c r="Q1017" s="62"/>
       <c r="R1017" s="62"/>
       <c r="S1017" s="1"/>
@@ -25498,6 +25513,7 @@
         <f aca="false">J1018*K1018</f>
         <v>0</v>
       </c>
+      <c r="M1018" s="62"/>
       <c r="Q1018" s="62"/>
       <c r="R1018" s="62"/>
       <c r="S1018" s="1"/>
@@ -25513,6 +25529,7 @@
         <f aca="false">J1019*K1019</f>
         <v>0</v>
       </c>
+      <c r="M1019" s="62"/>
       <c r="Q1019" s="62"/>
       <c r="R1019" s="62"/>
       <c r="S1019" s="1"/>
@@ -25528,6 +25545,7 @@
         <f aca="false">J1020*K1020</f>
         <v>0</v>
       </c>
+      <c r="M1020" s="62"/>
       <c r="Q1020" s="62"/>
       <c r="R1020" s="62"/>
       <c r="S1020" s="1"/>
@@ -25543,6 +25561,7 @@
         <f aca="false">J1021*K1021</f>
         <v>0</v>
       </c>
+      <c r="M1021" s="62"/>
       <c r="Q1021" s="62"/>
       <c r="R1021" s="62"/>
       <c r="S1021" s="1"/>
@@ -25558,6 +25577,7 @@
         <f aca="false">J1022*K1022</f>
         <v>0</v>
       </c>
+      <c r="M1022" s="62"/>
       <c r="Q1022" s="62"/>
       <c r="R1022" s="62"/>
       <c r="S1022" s="1"/>
@@ -25573,6 +25593,7 @@
         <f aca="false">J1023*K1023</f>
         <v>0</v>
       </c>
+      <c r="M1023" s="62"/>
       <c r="Q1023" s="62"/>
       <c r="R1023" s="62"/>
       <c r="S1023" s="1"/>
@@ -25588,6 +25609,7 @@
         <f aca="false">J1024*K1024</f>
         <v>0</v>
       </c>
+      <c r="M1024" s="62"/>
       <c r="Q1024" s="62"/>
       <c r="R1024" s="62"/>
       <c r="S1024" s="1"/>
@@ -25603,6 +25625,7 @@
         <f aca="false">J1025*K1025</f>
         <v>0</v>
       </c>
+      <c r="M1025" s="62"/>
       <c r="Q1025" s="62"/>
       <c r="R1025" s="62"/>
       <c r="S1025" s="1"/>
@@ -25618,6 +25641,7 @@
         <f aca="false">J1026*K1026</f>
         <v>0</v>
       </c>
+      <c r="M1026" s="62"/>
       <c r="Q1026" s="62"/>
       <c r="R1026" s="62"/>
       <c r="S1026" s="1"/>
@@ -25633,6 +25657,7 @@
         <f aca="false">J1027*K1027</f>
         <v>0</v>
       </c>
+      <c r="M1027" s="62"/>
       <c r="Q1027" s="62"/>
       <c r="R1027" s="62"/>
       <c r="S1027" s="1"/>
@@ -25648,6 +25673,7 @@
         <f aca="false">J1028*K1028</f>
         <v>0</v>
       </c>
+      <c r="M1028" s="62"/>
       <c r="Q1028" s="62"/>
       <c r="R1028" s="62"/>
       <c r="S1028" s="1"/>
@@ -25663,6 +25689,7 @@
         <f aca="false">J1029*K1029</f>
         <v>0</v>
       </c>
+      <c r="M1029" s="62"/>
       <c r="Q1029" s="62"/>
       <c r="R1029" s="62"/>
       <c r="S1029" s="1"/>
@@ -25678,6 +25705,7 @@
         <f aca="false">J1030*K1030</f>
         <v>0</v>
       </c>
+      <c r="M1030" s="62"/>
       <c r="Q1030" s="62"/>
       <c r="R1030" s="62"/>
       <c r="S1030" s="1"/>
@@ -25693,6 +25721,7 @@
         <f aca="false">J1031*K1031</f>
         <v>0</v>
       </c>
+      <c r="M1031" s="62"/>
       <c r="Q1031" s="62"/>
       <c r="R1031" s="62"/>
       <c r="S1031" s="1"/>
@@ -25708,6 +25737,7 @@
         <f aca="false">J1032*K1032</f>
         <v>0</v>
       </c>
+      <c r="M1032" s="62"/>
       <c r="Q1032" s="62"/>
       <c r="R1032" s="62"/>
       <c r="S1032" s="1"/>
@@ -25723,6 +25753,7 @@
         <f aca="false">J1033*K1033</f>
         <v>0</v>
       </c>
+      <c r="M1033" s="62"/>
       <c r="Q1033" s="62"/>
       <c r="R1033" s="62"/>
       <c r="S1033" s="1"/>
@@ -25738,6 +25769,7 @@
         <f aca="false">J1034*K1034</f>
         <v>0</v>
       </c>
+      <c r="M1034" s="62"/>
       <c r="Q1034" s="62"/>
       <c r="R1034" s="62"/>
       <c r="S1034" s="1"/>
@@ -25753,6 +25785,7 @@
         <f aca="false">J1035*K1035</f>
         <v>0</v>
       </c>
+      <c r="M1035" s="62"/>
       <c r="Q1035" s="62"/>
       <c r="R1035" s="62"/>
       <c r="S1035" s="1"/>
@@ -25768,6 +25801,7 @@
         <f aca="false">J1036*K1036</f>
         <v>0</v>
       </c>
+      <c r="M1036" s="62"/>
       <c r="Q1036" s="62"/>
       <c r="R1036" s="62"/>
       <c r="S1036" s="1"/>
@@ -25783,6 +25817,7 @@
         <f aca="false">J1037*K1037</f>
         <v>0</v>
       </c>
+      <c r="M1037" s="62"/>
       <c r="Q1037" s="62"/>
       <c r="R1037" s="62"/>
       <c r="S1037" s="1"/>
@@ -25798,6 +25833,7 @@
         <f aca="false">J1038*K1038</f>
         <v>0</v>
       </c>
+      <c r="M1038" s="62"/>
       <c r="Q1038" s="62"/>
       <c r="R1038" s="62"/>
       <c r="S1038" s="1"/>
@@ -25813,6 +25849,7 @@
         <f aca="false">J1039*K1039</f>
         <v>0</v>
       </c>
+      <c r="M1039" s="62"/>
       <c r="Q1039" s="62"/>
       <c r="R1039" s="62"/>
       <c r="S1039" s="1"/>
@@ -25828,6 +25865,7 @@
         <f aca="false">J1040*K1040</f>
         <v>0</v>
       </c>
+      <c r="M1040" s="62"/>
       <c r="Q1040" s="62"/>
       <c r="R1040" s="62"/>
       <c r="S1040" s="1"/>
@@ -25843,6 +25881,7 @@
         <f aca="false">J1041*K1041</f>
         <v>0</v>
       </c>
+      <c r="M1041" s="62"/>
       <c r="Q1041" s="62"/>
       <c r="R1041" s="62"/>
       <c r="S1041" s="1"/>
@@ -25858,6 +25897,7 @@
         <f aca="false">J1042*K1042</f>
         <v>0</v>
       </c>
+      <c r="M1042" s="62"/>
       <c r="Q1042" s="62"/>
       <c r="R1042" s="62"/>
       <c r="S1042" s="1"/>
@@ -25873,6 +25913,7 @@
         <f aca="false">J1043*K1043</f>
         <v>0</v>
       </c>
+      <c r="M1043" s="62"/>
       <c r="Q1043" s="62"/>
       <c r="R1043" s="62"/>
       <c r="S1043" s="1"/>
@@ -25888,6 +25929,7 @@
         <f aca="false">J1044*K1044</f>
         <v>0</v>
       </c>
+      <c r="M1044" s="62"/>
       <c r="Q1044" s="62"/>
       <c r="R1044" s="62"/>
       <c r="S1044" s="1"/>
@@ -25903,6 +25945,7 @@
         <f aca="false">J1045*K1045</f>
         <v>0</v>
       </c>
+      <c r="M1045" s="62"/>
       <c r="Q1045" s="62"/>
       <c r="R1045" s="62"/>
       <c r="S1045" s="1"/>
@@ -25918,6 +25961,7 @@
         <f aca="false">J1046*K1046</f>
         <v>0</v>
       </c>
+      <c r="M1046" s="62"/>
       <c r="Q1046" s="62"/>
       <c r="R1046" s="62"/>
       <c r="S1046" s="1"/>
@@ -25933,6 +25977,7 @@
         <f aca="false">J1047*K1047</f>
         <v>0</v>
       </c>
+      <c r="M1047" s="62"/>
       <c r="Q1047" s="62"/>
       <c r="R1047" s="62"/>
       <c r="S1047" s="1"/>
@@ -25948,6 +25993,7 @@
         <f aca="false">J1048*K1048</f>
         <v>0</v>
       </c>
+      <c r="M1048" s="62"/>
       <c r="Q1048" s="62"/>
       <c r="R1048" s="62"/>
       <c r="S1048" s="1"/>
@@ -25963,6 +26009,7 @@
         <f aca="false">J1049*K1049</f>
         <v>0</v>
       </c>
+      <c r="M1049" s="62"/>
       <c r="Q1049" s="62"/>
       <c r="R1049" s="62"/>
       <c r="S1049" s="1"/>
@@ -25978,6 +26025,7 @@
         <f aca="false">J1050*K1050</f>
         <v>0</v>
       </c>
+      <c r="M1050" s="62"/>
       <c r="Q1050" s="62"/>
       <c r="R1050" s="62"/>
       <c r="S1050" s="1"/>
@@ -25993,6 +26041,7 @@
         <f aca="false">J1051*K1051</f>
         <v>0</v>
       </c>
+      <c r="M1051" s="62"/>
       <c r="Q1051" s="62"/>
       <c r="R1051" s="62"/>
       <c r="S1051" s="1"/>
@@ -26008,6 +26057,7 @@
         <f aca="false">J1052*K1052</f>
         <v>0</v>
       </c>
+      <c r="M1052" s="62"/>
       <c r="Q1052" s="62"/>
       <c r="R1052" s="62"/>
       <c r="S1052" s="1"/>
@@ -26023,6 +26073,7 @@
         <f aca="false">J1053*K1053</f>
         <v>0</v>
       </c>
+      <c r="M1053" s="62"/>
       <c r="Q1053" s="62"/>
       <c r="R1053" s="62"/>
       <c r="S1053" s="1"/>
@@ -26038,6 +26089,7 @@
         <f aca="false">J1054*K1054</f>
         <v>0</v>
       </c>
+      <c r="M1054" s="62"/>
       <c r="Q1054" s="62"/>
       <c r="R1054" s="62"/>
       <c r="S1054" s="1"/>
@@ -26053,6 +26105,7 @@
         <f aca="false">J1055*K1055</f>
         <v>0</v>
       </c>
+      <c r="M1055" s="62"/>
       <c r="Q1055" s="62"/>
       <c r="R1055" s="62"/>
       <c r="S1055" s="1"/>
@@ -26068,6 +26121,7 @@
         <f aca="false">J1056*K1056</f>
         <v>0</v>
       </c>
+      <c r="M1056" s="62"/>
       <c r="Q1056" s="62"/>
       <c r="R1056" s="62"/>
       <c r="S1056" s="1"/>
@@ -26083,6 +26137,7 @@
         <f aca="false">J1057*K1057</f>
         <v>0</v>
       </c>
+      <c r="M1057" s="62"/>
       <c r="Q1057" s="62"/>
       <c r="R1057" s="62"/>
       <c r="S1057" s="1"/>
@@ -26098,6 +26153,7 @@
         <f aca="false">J1058*K1058</f>
         <v>0</v>
       </c>
+      <c r="M1058" s="62"/>
       <c r="Q1058" s="62"/>
       <c r="R1058" s="62"/>
       <c r="S1058" s="1"/>
@@ -26113,6 +26169,7 @@
         <f aca="false">J1059*K1059</f>
         <v>0</v>
       </c>
+      <c r="M1059" s="62"/>
       <c r="Q1059" s="62"/>
       <c r="R1059" s="62"/>
       <c r="S1059" s="1"/>
@@ -26128,6 +26185,7 @@
         <f aca="false">J1060*K1060</f>
         <v>0</v>
       </c>
+      <c r="M1060" s="62"/>
       <c r="Q1060" s="62"/>
       <c r="R1060" s="62"/>
       <c r="S1060" s="1"/>
@@ -26143,6 +26201,7 @@
         <f aca="false">J1061*K1061</f>
         <v>0</v>
       </c>
+      <c r="M1061" s="62"/>
       <c r="Q1061" s="62"/>
       <c r="R1061" s="62"/>
       <c r="S1061" s="1"/>
@@ -26158,6 +26217,7 @@
         <f aca="false">J1062*K1062</f>
         <v>0</v>
       </c>
+      <c r="M1062" s="62"/>
       <c r="Q1062" s="62"/>
       <c r="R1062" s="62"/>
       <c r="S1062" s="1"/>
@@ -26173,6 +26233,7 @@
         <f aca="false">J1063*K1063</f>
         <v>0</v>
       </c>
+      <c r="M1063" s="62"/>
       <c r="Q1063" s="62"/>
       <c r="R1063" s="62"/>
       <c r="S1063" s="1"/>
@@ -26188,6 +26249,7 @@
         <f aca="false">J1064*K1064</f>
         <v>0</v>
       </c>
+      <c r="M1064" s="62"/>
       <c r="Q1064" s="62"/>
       <c r="R1064" s="62"/>
       <c r="S1064" s="1"/>
@@ -26203,6 +26265,7 @@
         <f aca="false">J1065*K1065</f>
         <v>0</v>
       </c>
+      <c r="M1065" s="62"/>
       <c r="Q1065" s="62"/>
       <c r="R1065" s="62"/>
       <c r="S1065" s="1"/>
@@ -26218,6 +26281,7 @@
         <f aca="false">J1066*K1066</f>
         <v>0</v>
       </c>
+      <c r="M1066" s="62"/>
       <c r="Q1066" s="62"/>
       <c r="R1066" s="62"/>
       <c r="S1066" s="1"/>
@@ -26233,6 +26297,7 @@
         <f aca="false">J1067*K1067</f>
         <v>0</v>
       </c>
+      <c r="M1067" s="62"/>
       <c r="Q1067" s="62"/>
       <c r="R1067" s="62"/>
       <c r="S1067" s="1"/>
@@ -26248,6 +26313,7 @@
         <f aca="false">J1068*K1068</f>
         <v>0</v>
       </c>
+      <c r="M1068" s="62"/>
       <c r="Q1068" s="62"/>
       <c r="R1068" s="62"/>
       <c r="S1068" s="1"/>
@@ -26263,6 +26329,7 @@
         <f aca="false">J1069*K1069</f>
         <v>0</v>
       </c>
+      <c r="M1069" s="62"/>
       <c r="Q1069" s="62"/>
       <c r="R1069" s="62"/>
       <c r="S1069" s="1"/>
@@ -26278,6 +26345,7 @@
         <f aca="false">J1070*K1070</f>
         <v>0</v>
       </c>
+      <c r="M1070" s="62"/>
       <c r="Q1070" s="62"/>
       <c r="R1070" s="62"/>
       <c r="S1070" s="1"/>
@@ -26293,6 +26361,7 @@
         <f aca="false">J1071*K1071</f>
         <v>0</v>
       </c>
+      <c r="M1071" s="62"/>
       <c r="Q1071" s="62"/>
       <c r="R1071" s="62"/>
       <c r="S1071" s="1"/>
@@ -26308,6 +26377,7 @@
         <f aca="false">J1072*K1072</f>
         <v>0</v>
       </c>
+      <c r="M1072" s="62"/>
       <c r="Q1072" s="62"/>
       <c r="R1072" s="62"/>
       <c r="S1072" s="1"/>
@@ -26323,6 +26393,7 @@
         <f aca="false">J1073*K1073</f>
         <v>0</v>
       </c>
+      <c r="M1073" s="62"/>
       <c r="Q1073" s="62"/>
       <c r="R1073" s="62"/>
       <c r="S1073" s="1"/>
@@ -26338,6 +26409,7 @@
         <f aca="false">J1074*K1074</f>
         <v>0</v>
       </c>
+      <c r="M1074" s="62"/>
       <c r="Q1074" s="62"/>
       <c r="R1074" s="62"/>
       <c r="S1074" s="1"/>
@@ -26353,6 +26425,7 @@
         <f aca="false">J1075*K1075</f>
         <v>0</v>
       </c>
+      <c r="M1075" s="62"/>
       <c r="Q1075" s="62"/>
       <c r="R1075" s="62"/>
       <c r="S1075" s="1"/>
@@ -26368,6 +26441,7 @@
         <f aca="false">J1076*K1076</f>
         <v>0</v>
       </c>
+      <c r="M1076" s="62"/>
       <c r="Q1076" s="62"/>
       <c r="R1076" s="62"/>
       <c r="S1076" s="1"/>
@@ -26383,6 +26457,7 @@
         <f aca="false">J1077*K1077</f>
         <v>0</v>
       </c>
+      <c r="M1077" s="62"/>
       <c r="Q1077" s="62"/>
       <c r="R1077" s="62"/>
       <c r="S1077" s="1"/>
@@ -26398,6 +26473,7 @@
         <f aca="false">J1078*K1078</f>
         <v>0</v>
       </c>
+      <c r="M1078" s="62"/>
       <c r="Q1078" s="62"/>
       <c r="R1078" s="62"/>
       <c r="S1078" s="1"/>
@@ -26413,6 +26489,7 @@
         <f aca="false">J1079*K1079</f>
         <v>0</v>
       </c>
+      <c r="M1079" s="62"/>
       <c r="Q1079" s="62"/>
       <c r="R1079" s="62"/>
       <c r="S1079" s="1"/>
@@ -26428,6 +26505,7 @@
         <f aca="false">J1080*K1080</f>
         <v>0</v>
       </c>
+      <c r="M1080" s="62"/>
       <c r="Q1080" s="62"/>
       <c r="R1080" s="62"/>
       <c r="S1080" s="1"/>
@@ -26443,6 +26521,7 @@
         <f aca="false">J1081*K1081</f>
         <v>0</v>
       </c>
+      <c r="M1081" s="62"/>
       <c r="Q1081" s="62"/>
       <c r="R1081" s="62"/>
       <c r="S1081" s="1"/>
@@ -26458,6 +26537,7 @@
         <f aca="false">J1082*K1082</f>
         <v>0</v>
       </c>
+      <c r="M1082" s="62"/>
       <c r="Q1082" s="62"/>
       <c r="R1082" s="62"/>
       <c r="S1082" s="1"/>
@@ -26473,6 +26553,7 @@
         <f aca="false">J1083*K1083</f>
         <v>0</v>
       </c>
+      <c r="M1083" s="62"/>
       <c r="Q1083" s="62"/>
       <c r="R1083" s="62"/>
       <c r="S1083" s="1"/>
@@ -26488,6 +26569,7 @@
         <f aca="false">J1084*K1084</f>
         <v>0</v>
       </c>
+      <c r="M1084" s="62"/>
       <c r="Q1084" s="62"/>
       <c r="R1084" s="62"/>
       <c r="S1084" s="1"/>
@@ -26503,6 +26585,7 @@
         <f aca="false">J1085*K1085</f>
         <v>0</v>
       </c>
+      <c r="M1085" s="62"/>
       <c r="Q1085" s="62"/>
       <c r="R1085" s="62"/>
       <c r="S1085" s="1"/>
@@ -26518,6 +26601,7 @@
         <f aca="false">J1086*K1086</f>
         <v>0</v>
       </c>
+      <c r="M1086" s="62"/>
       <c r="Q1086" s="62"/>
       <c r="R1086" s="62"/>
       <c r="S1086" s="1"/>
@@ -26533,6 +26617,7 @@
         <f aca="false">J1087*K1087</f>
         <v>0</v>
       </c>
+      <c r="M1087" s="62"/>
       <c r="Q1087" s="62"/>
       <c r="R1087" s="62"/>
       <c r="S1087" s="1"/>
@@ -26548,6 +26633,7 @@
         <f aca="false">J1088*K1088</f>
         <v>0</v>
       </c>
+      <c r="M1088" s="62"/>
       <c r="Q1088" s="62"/>
       <c r="R1088" s="62"/>
       <c r="S1088" s="1"/>
@@ -26563,6 +26649,7 @@
         <f aca="false">J1089*K1089</f>
         <v>0</v>
       </c>
+      <c r="M1089" s="62"/>
       <c r="Q1089" s="62"/>
       <c r="R1089" s="62"/>
       <c r="S1089" s="1"/>
@@ -26578,6 +26665,7 @@
         <f aca="false">J1090*K1090</f>
         <v>0</v>
       </c>
+      <c r="M1090" s="62"/>
       <c r="Q1090" s="62"/>
       <c r="R1090" s="62"/>
       <c r="S1090" s="1"/>
@@ -26593,6 +26681,7 @@
         <f aca="false">J1091*K1091</f>
         <v>0</v>
       </c>
+      <c r="M1091" s="62"/>
       <c r="Q1091" s="62"/>
       <c r="R1091" s="62"/>
       <c r="S1091" s="1"/>
@@ -26608,6 +26697,7 @@
         <f aca="false">J1092*K1092</f>
         <v>0</v>
       </c>
+      <c r="M1092" s="62"/>
       <c r="Q1092" s="62"/>
       <c r="R1092" s="62"/>
       <c r="S1092" s="1"/>
@@ -26623,6 +26713,7 @@
         <f aca="false">J1093*K1093</f>
         <v>0</v>
       </c>
+      <c r="M1093" s="62"/>
       <c r="Q1093" s="62"/>
       <c r="R1093" s="62"/>
       <c r="S1093" s="1"/>
@@ -26638,6 +26729,7 @@
         <f aca="false">J1094*K1094</f>
         <v>0</v>
       </c>
+      <c r="M1094" s="62"/>
       <c r="Q1094" s="62"/>
       <c r="R1094" s="62"/>
       <c r="S1094" s="1"/>
@@ -26653,6 +26745,7 @@
         <f aca="false">J1095*K1095</f>
         <v>0</v>
       </c>
+      <c r="M1095" s="62"/>
       <c r="Q1095" s="62"/>
       <c r="R1095" s="62"/>
       <c r="S1095" s="1"/>
@@ -26668,6 +26761,7 @@
         <f aca="false">J1096*K1096</f>
         <v>0</v>
       </c>
+      <c r="M1096" s="62"/>
       <c r="Q1096" s="62"/>
       <c r="R1096" s="62"/>
       <c r="S1096" s="1"/>
@@ -26683,6 +26777,7 @@
         <f aca="false">J1097*K1097</f>
         <v>0</v>
       </c>
+      <c r="M1097" s="62"/>
       <c r="Q1097" s="62"/>
       <c r="R1097" s="62"/>
       <c r="S1097" s="1"/>
@@ -26698,6 +26793,7 @@
         <f aca="false">J1098*K1098</f>
         <v>0</v>
       </c>
+      <c r="M1098" s="62"/>
       <c r="Q1098" s="62"/>
       <c r="R1098" s="62"/>
       <c r="S1098" s="1"/>
@@ -26713,6 +26809,7 @@
         <f aca="false">J1099*K1099</f>
         <v>0</v>
       </c>
+      <c r="M1099" s="62"/>
       <c r="Q1099" s="62"/>
       <c r="R1099" s="62"/>
       <c r="S1099" s="1"/>
@@ -26728,6 +26825,7 @@
         <f aca="false">J1100*K1100</f>
         <v>0</v>
       </c>
+      <c r="M1100" s="62"/>
       <c r="Q1100" s="62"/>
       <c r="R1100" s="62"/>
       <c r="S1100" s="1"/>
@@ -26743,6 +26841,7 @@
         <f aca="false">J1101*K1101</f>
         <v>0</v>
       </c>
+      <c r="M1101" s="62"/>
       <c r="Q1101" s="62"/>
       <c r="R1101" s="62"/>
       <c r="S1101" s="1"/>
@@ -26758,6 +26857,7 @@
         <f aca="false">J1102*K1102</f>
         <v>0</v>
       </c>
+      <c r="M1102" s="62"/>
       <c r="Q1102" s="62"/>
       <c r="R1102" s="62"/>
       <c r="S1102" s="1"/>
@@ -26773,6 +26873,7 @@
         <f aca="false">J1103*K1103</f>
         <v>0</v>
       </c>
+      <c r="M1103" s="62"/>
       <c r="Q1103" s="62"/>
       <c r="R1103" s="62"/>
       <c r="S1103" s="1"/>
@@ -26788,6 +26889,7 @@
         <f aca="false">J1104*K1104</f>
         <v>0</v>
       </c>
+      <c r="M1104" s="62"/>
       <c r="Q1104" s="62"/>
       <c r="R1104" s="62"/>
       <c r="S1104" s="1"/>
@@ -26803,6 +26905,7 @@
         <f aca="false">J1105*K1105</f>
         <v>0</v>
       </c>
+      <c r="M1105" s="62"/>
       <c r="Q1105" s="62"/>
       <c r="R1105" s="62"/>
       <c r="S1105" s="1"/>
@@ -26818,6 +26921,7 @@
         <f aca="false">J1106*K1106</f>
         <v>0</v>
       </c>
+      <c r="M1106" s="62"/>
       <c r="Q1106" s="62"/>
       <c r="R1106" s="62"/>
       <c r="S1106" s="1"/>
@@ -26833,6 +26937,7 @@
         <f aca="false">J1107*K1107</f>
         <v>0</v>
       </c>
+      <c r="M1107" s="62"/>
       <c r="Q1107" s="62"/>
       <c r="R1107" s="62"/>
       <c r="S1107" s="1"/>
@@ -26848,6 +26953,7 @@
         <f aca="false">J1108*K1108</f>
         <v>0</v>
       </c>
+      <c r="M1108" s="62"/>
       <c r="Q1108" s="62"/>
       <c r="R1108" s="62"/>
       <c r="S1108" s="1"/>
@@ -26863,6 +26969,7 @@
         <f aca="false">J1109*K1109</f>
         <v>0</v>
       </c>
+      <c r="M1109" s="62"/>
       <c r="Q1109" s="62"/>
       <c r="R1109" s="62"/>
       <c r="S1109" s="1"/>
@@ -26878,6 +26985,7 @@
         <f aca="false">J1110*K1110</f>
         <v>0</v>
       </c>
+      <c r="M1110" s="62"/>
       <c r="Q1110" s="62"/>
       <c r="R1110" s="62"/>
       <c r="S1110" s="1"/>
@@ -26893,6 +27001,7 @@
         <f aca="false">J1111*K1111</f>
         <v>0</v>
       </c>
+      <c r="M1111" s="62"/>
       <c r="Q1111" s="62"/>
       <c r="R1111" s="62"/>
       <c r="S1111" s="1"/>
@@ -26908,6 +27017,7 @@
         <f aca="false">J1112*K1112</f>
         <v>0</v>
       </c>
+      <c r="M1112" s="62"/>
       <c r="Q1112" s="62"/>
       <c r="R1112" s="62"/>
       <c r="S1112" s="1"/>
@@ -26923,6 +27033,7 @@
         <f aca="false">J1113*K1113</f>
         <v>0</v>
       </c>
+      <c r="M1113" s="62"/>
       <c r="Q1113" s="62"/>
       <c r="R1113" s="62"/>
       <c r="S1113" s="1"/>
@@ -26938,6 +27049,7 @@
         <f aca="false">J1114*K1114</f>
         <v>0</v>
       </c>
+      <c r="M1114" s="62"/>
       <c r="Q1114" s="62"/>
       <c r="R1114" s="62"/>
       <c r="S1114" s="1"/>
@@ -26953,6 +27065,7 @@
         <f aca="false">J1115*K1115</f>
         <v>0</v>
       </c>
+      <c r="M1115" s="62"/>
       <c r="Q1115" s="62"/>
       <c r="R1115" s="62"/>
       <c r="S1115" s="1"/>
@@ -26968,6 +27081,7 @@
         <f aca="false">J1116*K1116</f>
         <v>0</v>
       </c>
+      <c r="M1116" s="62"/>
       <c r="Q1116" s="62"/>
       <c r="R1116" s="62"/>
       <c r="S1116" s="1"/>
@@ -26983,6 +27097,7 @@
         <f aca="false">J1117*K1117</f>
         <v>0</v>
       </c>
+      <c r="M1117" s="62"/>
       <c r="Q1117" s="62"/>
       <c r="R1117" s="62"/>
       <c r="S1117" s="1"/>
@@ -26998,6 +27113,7 @@
         <f aca="false">J1118*K1118</f>
         <v>0</v>
       </c>
+      <c r="M1118" s="62"/>
       <c r="Q1118" s="62"/>
       <c r="R1118" s="62"/>
       <c r="S1118" s="1"/>
@@ -27013,6 +27129,7 @@
         <f aca="false">J1119*K1119</f>
         <v>0</v>
       </c>
+      <c r="M1119" s="62"/>
       <c r="Q1119" s="62"/>
       <c r="R1119" s="62"/>
       <c r="S1119" s="1"/>
@@ -27028,6 +27145,7 @@
         <f aca="false">J1120*K1120</f>
         <v>0</v>
       </c>
+      <c r="M1120" s="62"/>
       <c r="Q1120" s="62"/>
       <c r="R1120" s="62"/>
       <c r="S1120" s="1"/>
@@ -27043,6 +27161,7 @@
         <f aca="false">J1121*K1121</f>
         <v>0</v>
       </c>
+      <c r="M1121" s="62"/>
       <c r="Q1121" s="62"/>
       <c r="R1121" s="62"/>
       <c r="S1121" s="1"/>
@@ -27058,6 +27177,7 @@
         <f aca="false">J1122*K1122</f>
         <v>0</v>
       </c>
+      <c r="M1122" s="62"/>
       <c r="Q1122" s="62"/>
       <c r="R1122" s="62"/>
       <c r="S1122" s="1"/>
@@ -27073,6 +27193,7 @@
         <f aca="false">J1123*K1123</f>
         <v>0</v>
       </c>
+      <c r="M1123" s="62"/>
       <c r="Q1123" s="62"/>
       <c r="R1123" s="62"/>
       <c r="S1123" s="1"/>
@@ -27088,6 +27209,7 @@
         <f aca="false">J1124*K1124</f>
         <v>0</v>
       </c>
+      <c r="M1124" s="62"/>
       <c r="Q1124" s="62"/>
       <c r="R1124" s="62"/>
       <c r="S1124" s="1"/>
@@ -27103,6 +27225,7 @@
         <f aca="false">J1125*K1125</f>
         <v>0</v>
       </c>
+      <c r="M1125" s="62"/>
       <c r="Q1125" s="62"/>
       <c r="R1125" s="62"/>
       <c r="S1125" s="1"/>
@@ -27118,6 +27241,7 @@
         <f aca="false">J1126*K1126</f>
         <v>0</v>
       </c>
+      <c r="M1126" s="62"/>
       <c r="Q1126" s="62"/>
       <c r="R1126" s="62"/>
       <c r="S1126" s="1"/>
@@ -27133,6 +27257,7 @@
         <f aca="false">J1127*K1127</f>
         <v>0</v>
       </c>
+      <c r="M1127" s="62"/>
       <c r="Q1127" s="62"/>
       <c r="R1127" s="62"/>
       <c r="S1127" s="1"/>
@@ -27148,6 +27273,7 @@
         <f aca="false">J1128*K1128</f>
         <v>0</v>
       </c>
+      <c r="M1128" s="62"/>
       <c r="Q1128" s="62"/>
       <c r="R1128" s="62"/>
       <c r="S1128" s="1"/>
@@ -27163,6 +27289,7 @@
         <f aca="false">J1129*K1129</f>
         <v>0</v>
       </c>
+      <c r="M1129" s="62"/>
       <c r="Q1129" s="62"/>
       <c r="R1129" s="62"/>
       <c r="S1129" s="1"/>
@@ -27178,6 +27305,7 @@
         <f aca="false">J1130*K1130</f>
         <v>0</v>
       </c>
+      <c r="M1130" s="62"/>
       <c r="Q1130" s="62"/>
       <c r="R1130" s="62"/>
       <c r="S1130" s="1"/>
@@ -27193,6 +27321,7 @@
         <f aca="false">J1131*K1131</f>
         <v>0</v>
       </c>
+      <c r="M1131" s="62"/>
       <c r="Q1131" s="62"/>
       <c r="R1131" s="62"/>
       <c r="S1131" s="1"/>
@@ -27208,6 +27337,7 @@
         <f aca="false">J1132*K1132</f>
         <v>0</v>
       </c>
+      <c r="M1132" s="62"/>
       <c r="Q1132" s="62"/>
       <c r="R1132" s="62"/>
       <c r="S1132" s="1"/>
@@ -27223,6 +27353,7 @@
         <f aca="false">J1133*K1133</f>
         <v>0</v>
       </c>
+      <c r="M1133" s="62"/>
       <c r="Q1133" s="62"/>
       <c r="R1133" s="62"/>
       <c r="S1133" s="1"/>
@@ -27238,6 +27369,7 @@
         <f aca="false">J1134*K1134</f>
         <v>0</v>
       </c>
+      <c r="M1134" s="62"/>
       <c r="Q1134" s="62"/>
       <c r="R1134" s="62"/>
       <c r="S1134" s="1"/>
@@ -27253,6 +27385,7 @@
         <f aca="false">J1135*K1135</f>
         <v>0</v>
       </c>
+      <c r="M1135" s="62"/>
       <c r="Q1135" s="62"/>
       <c r="R1135" s="62"/>
       <c r="S1135" s="1"/>
@@ -27268,6 +27401,7 @@
         <f aca="false">J1136*K1136</f>
         <v>0</v>
       </c>
+      <c r="M1136" s="62"/>
       <c r="Q1136" s="62"/>
       <c r="R1136" s="62"/>
       <c r="S1136" s="1"/>
@@ -27283,6 +27417,7 @@
         <f aca="false">J1137*K1137</f>
         <v>0</v>
       </c>
+      <c r="M1137" s="62"/>
       <c r="Q1137" s="62"/>
       <c r="R1137" s="62"/>
       <c r="S1137" s="1"/>
@@ -27298,6 +27433,7 @@
         <f aca="false">J1138*K1138</f>
         <v>0</v>
       </c>
+      <c r="M1138" s="62"/>
       <c r="Q1138" s="62"/>
       <c r="R1138" s="62"/>
       <c r="S1138" s="1"/>
@@ -27313,6 +27449,7 @@
         <f aca="false">J1139*K1139</f>
         <v>0</v>
       </c>
+      <c r="M1139" s="62"/>
       <c r="Q1139" s="62"/>
       <c r="R1139" s="62"/>
       <c r="S1139" s="1"/>
@@ -27328,6 +27465,7 @@
         <f aca="false">J1140*K1140</f>
         <v>0</v>
       </c>
+      <c r="M1140" s="62"/>
       <c r="Q1140" s="62"/>
       <c r="R1140" s="62"/>
       <c r="S1140" s="1"/>
@@ -27343,6 +27481,7 @@
         <f aca="false">J1141*K1141</f>
         <v>0</v>
       </c>
+      <c r="M1141" s="62"/>
       <c r="Q1141" s="62"/>
       <c r="R1141" s="62"/>
       <c r="S1141" s="1"/>
@@ -27358,6 +27497,7 @@
         <f aca="false">J1142*K1142</f>
         <v>0</v>
       </c>
+      <c r="M1142" s="62"/>
       <c r="Q1142" s="62"/>
       <c r="R1142" s="62"/>
       <c r="S1142" s="1"/>
@@ -27373,6 +27513,7 @@
         <f aca="false">J1143*K1143</f>
         <v>0</v>
       </c>
+      <c r="M1143" s="62"/>
       <c r="Q1143" s="62"/>
       <c r="R1143" s="62"/>
       <c r="S1143" s="1"/>
@@ -27388,6 +27529,7 @@
         <f aca="false">J1144*K1144</f>
         <v>0</v>
       </c>
+      <c r="M1144" s="62"/>
       <c r="Q1144" s="62"/>
       <c r="R1144" s="62"/>
       <c r="S1144" s="1"/>
@@ -27403,6 +27545,7 @@
         <f aca="false">J1145*K1145</f>
         <v>0</v>
       </c>
+      <c r="M1145" s="62"/>
       <c r="Q1145" s="62"/>
       <c r="R1145" s="62"/>
       <c r="S1145" s="1"/>
@@ -27418,6 +27561,7 @@
         <f aca="false">J1146*K1146</f>
         <v>0</v>
       </c>
+      <c r="M1146" s="62"/>
       <c r="Q1146" s="62"/>
       <c r="R1146" s="62"/>
       <c r="S1146" s="1"/>
@@ -27433,6 +27577,7 @@
         <f aca="false">J1147*K1147</f>
         <v>0</v>
       </c>
+      <c r="M1147" s="62"/>
       <c r="Q1147" s="62"/>
       <c r="R1147" s="62"/>
       <c r="S1147" s="1"/>
@@ -27448,6 +27593,7 @@
         <f aca="false">J1148*K1148</f>
         <v>0</v>
       </c>
+      <c r="M1148" s="62"/>
       <c r="Q1148" s="62"/>
       <c r="R1148" s="62"/>
       <c r="S1148" s="1"/>
@@ -27463,6 +27609,7 @@
         <f aca="false">J1149*K1149</f>
         <v>0</v>
       </c>
+      <c r="M1149" s="62"/>
       <c r="Q1149" s="62"/>
       <c r="R1149" s="62"/>
       <c r="S1149" s="1"/>
@@ -27478,6 +27625,7 @@
         <f aca="false">J1150*K1150</f>
         <v>0</v>
       </c>
+      <c r="M1150" s="62"/>
       <c r="Q1150" s="62"/>
       <c r="R1150" s="62"/>
       <c r="S1150" s="1"/>
@@ -27493,6 +27641,7 @@
         <f aca="false">J1151*K1151</f>
         <v>0</v>
       </c>
+      <c r="M1151" s="62"/>
       <c r="Q1151" s="62"/>
       <c r="R1151" s="62"/>
       <c r="S1151" s="1"/>
@@ -27508,6 +27657,7 @@
         <f aca="false">J1152*K1152</f>
         <v>0</v>
       </c>
+      <c r="M1152" s="62"/>
       <c r="Q1152" s="62"/>
       <c r="R1152" s="62"/>
       <c r="S1152" s="1"/>
@@ -27523,6 +27673,7 @@
         <f aca="false">J1153*K1153</f>
         <v>0</v>
       </c>
+      <c r="M1153" s="62"/>
       <c r="Q1153" s="62"/>
       <c r="R1153" s="62"/>
       <c r="S1153" s="1"/>
@@ -27538,6 +27689,7 @@
         <f aca="false">J1154*K1154</f>
         <v>0</v>
       </c>
+      <c r="M1154" s="62"/>
       <c r="Q1154" s="62"/>
       <c r="R1154" s="62"/>
       <c r="S1154" s="1"/>
@@ -27553,6 +27705,7 @@
         <f aca="false">J1155*K1155</f>
         <v>0</v>
       </c>
+      <c r="M1155" s="62"/>
       <c r="Q1155" s="62"/>
       <c r="R1155" s="62"/>
       <c r="S1155" s="1"/>
@@ -27568,6 +27721,7 @@
         <f aca="false">J1156*K1156</f>
         <v>0</v>
       </c>
+      <c r="M1156" s="62"/>
       <c r="Q1156" s="62"/>
       <c r="R1156" s="62"/>
       <c r="S1156" s="1"/>
@@ -27583,6 +27737,7 @@
         <f aca="false">J1157*K1157</f>
         <v>0</v>
       </c>
+      <c r="M1157" s="62"/>
       <c r="Q1157" s="62"/>
       <c r="R1157" s="62"/>
       <c r="S1157" s="1"/>
@@ -27598,6 +27753,7 @@
         <f aca="false">J1158*K1158</f>
         <v>0</v>
       </c>
+      <c r="M1158" s="62"/>
       <c r="Q1158" s="62"/>
       <c r="R1158" s="62"/>
       <c r="S1158" s="1"/>
@@ -27613,6 +27769,7 @@
         <f aca="false">J1159*K1159</f>
         <v>0</v>
       </c>
+      <c r="M1159" s="62"/>
       <c r="Q1159" s="62"/>
       <c r="R1159" s="62"/>
       <c r="S1159" s="1"/>
@@ -27628,6 +27785,7 @@
         <f aca="false">J1160*K1160</f>
         <v>0</v>
       </c>
+      <c r="M1160" s="62"/>
       <c r="Q1160" s="62"/>
       <c r="R1160" s="62"/>
       <c r="S1160" s="1"/>
@@ -27643,6 +27801,7 @@
         <f aca="false">J1161*K1161</f>
         <v>0</v>
       </c>
+      <c r="M1161" s="62"/>
       <c r="Q1161" s="62"/>
       <c r="R1161" s="62"/>
       <c r="S1161" s="1"/>
@@ -27658,6 +27817,7 @@
         <f aca="false">J1162*K1162</f>
         <v>0</v>
       </c>
+      <c r="M1162" s="62"/>
       <c r="Q1162" s="62"/>
       <c r="R1162" s="62"/>
       <c r="S1162" s="1"/>
@@ -27673,6 +27833,7 @@
         <f aca="false">J1163*K1163</f>
         <v>0</v>
       </c>
+      <c r="M1163" s="62"/>
       <c r="Q1163" s="62"/>
       <c r="R1163" s="62"/>
       <c r="S1163" s="1"/>
@@ -27688,6 +27849,7 @@
         <f aca="false">J1164*K1164</f>
         <v>0</v>
       </c>
+      <c r="M1164" s="62"/>
       <c r="Q1164" s="62"/>
       <c r="R1164" s="62"/>
       <c r="S1164" s="1"/>
@@ -27703,6 +27865,7 @@
         <f aca="false">J1165*K1165</f>
         <v>0</v>
       </c>
+      <c r="M1165" s="62"/>
       <c r="Q1165" s="62"/>
       <c r="R1165" s="62"/>
       <c r="S1165" s="1"/>
@@ -27718,6 +27881,7 @@
         <f aca="false">J1166*K1166</f>
         <v>0</v>
       </c>
+      <c r="M1166" s="62"/>
       <c r="Q1166" s="62"/>
       <c r="R1166" s="62"/>
       <c r="S1166" s="1"/>
@@ -27733,6 +27897,7 @@
         <f aca="false">J1167*K1167</f>
         <v>0</v>
       </c>
+      <c r="M1167" s="62"/>
       <c r="Q1167" s="62"/>
       <c r="R1167" s="62"/>
       <c r="S1167" s="1"/>
@@ -27748,6 +27913,7 @@
         <f aca="false">J1168*K1168</f>
         <v>0</v>
       </c>
+      <c r="M1168" s="62"/>
       <c r="Q1168" s="62"/>
       <c r="R1168" s="62"/>
       <c r="S1168" s="1"/>
@@ -27763,6 +27929,7 @@
         <f aca="false">J1169*K1169</f>
         <v>0</v>
       </c>
+      <c r="M1169" s="62"/>
       <c r="Q1169" s="62"/>
       <c r="R1169" s="62"/>
       <c r="S1169" s="1"/>
@@ -27778,6 +27945,7 @@
         <f aca="false">J1170*K1170</f>
         <v>0</v>
       </c>
+      <c r="M1170" s="62"/>
       <c r="Q1170" s="62"/>
       <c r="R1170" s="62"/>
       <c r="S1170" s="1"/>
@@ -27793,6 +27961,7 @@
         <f aca="false">J1171*K1171</f>
         <v>0</v>
       </c>
+      <c r="M1171" s="62"/>
       <c r="Q1171" s="62"/>
       <c r="R1171" s="62"/>
       <c r="S1171" s="1"/>
@@ -27808,6 +27977,7 @@
         <f aca="false">J1172*K1172</f>
         <v>0</v>
       </c>
+      <c r="M1172" s="62"/>
       <c r="Q1172" s="62"/>
       <c r="R1172" s="62"/>
       <c r="S1172" s="1"/>
@@ -27823,6 +27993,7 @@
         <f aca="false">J1173*K1173</f>
         <v>0</v>
       </c>
+      <c r="M1173" s="62"/>
       <c r="Q1173" s="62"/>
       <c r="R1173" s="62"/>
       <c r="S1173" s="1"/>
@@ -27838,6 +28009,7 @@
         <f aca="false">J1174*K1174</f>
         <v>0</v>
       </c>
+      <c r="M1174" s="62"/>
       <c r="Q1174" s="62"/>
       <c r="R1174" s="62"/>
       <c r="S1174" s="1"/>
@@ -27853,6 +28025,7 @@
         <f aca="false">J1175*K1175</f>
         <v>0</v>
       </c>
+      <c r="M1175" s="62"/>
       <c r="Q1175" s="62"/>
       <c r="R1175" s="62"/>
       <c r="S1175" s="1"/>
@@ -27868,6 +28041,7 @@
         <f aca="false">J1176*K1176</f>
         <v>0</v>
       </c>
+      <c r="M1176" s="62"/>
       <c r="Q1176" s="62"/>
       <c r="R1176" s="62"/>
       <c r="S1176" s="1"/>
@@ -27883,6 +28057,7 @@
         <f aca="false">J1177*K1177</f>
         <v>0</v>
       </c>
+      <c r="M1177" s="62"/>
       <c r="Q1177" s="62"/>
       <c r="R1177" s="62"/>
       <c r="S1177" s="1"/>
@@ -27898,6 +28073,7 @@
         <f aca="false">J1178*K1178</f>
         <v>0</v>
       </c>
+      <c r="M1178" s="62"/>
       <c r="Q1178" s="62"/>
       <c r="R1178" s="62"/>
       <c r="S1178" s="1"/>
@@ -27913,6 +28089,7 @@
         <f aca="false">J1179*K1179</f>
         <v>0</v>
       </c>
+      <c r="M1179" s="62"/>
       <c r="Q1179" s="62"/>
       <c r="R1179" s="62"/>
       <c r="S1179" s="1"/>
@@ -27928,6 +28105,7 @@
         <f aca="false">J1180*K1180</f>
         <v>0</v>
       </c>
+      <c r="M1180" s="62"/>
       <c r="Q1180" s="62"/>
       <c r="R1180" s="62"/>
       <c r="S1180" s="1"/>
@@ -27943,6 +28121,7 @@
         <f aca="false">J1181*K1181</f>
         <v>0</v>
       </c>
+      <c r="M1181" s="62"/>
       <c r="Q1181" s="62"/>
       <c r="R1181" s="62"/>
       <c r="S1181" s="1"/>
@@ -27958,6 +28137,7 @@
         <f aca="false">J1182*K1182</f>
         <v>0</v>
       </c>
+      <c r="M1182" s="62"/>
       <c r="Q1182" s="62"/>
       <c r="R1182" s="62"/>
       <c r="S1182" s="1"/>
@@ -27973,6 +28153,7 @@
         <f aca="false">J1183*K1183</f>
         <v>0</v>
       </c>
+      <c r="M1183" s="62"/>
       <c r="Q1183" s="62"/>
       <c r="R1183" s="62"/>
       <c r="S1183" s="1"/>
@@ -27988,6 +28169,7 @@
         <f aca="false">J1184*K1184</f>
         <v>0</v>
       </c>
+      <c r="M1184" s="62"/>
       <c r="Q1184" s="62"/>
       <c r="R1184" s="62"/>
       <c r="S1184" s="1"/>
@@ -28003,6 +28185,7 @@
         <f aca="false">J1185*K1185</f>
         <v>0</v>
       </c>
+      <c r="M1185" s="62"/>
       <c r="Q1185" s="62"/>
       <c r="R1185" s="62"/>
       <c r="S1185" s="1"/>
@@ -28018,6 +28201,7 @@
         <f aca="false">J1186*K1186</f>
         <v>0</v>
       </c>
+      <c r="M1186" s="62"/>
       <c r="Q1186" s="62"/>
       <c r="R1186" s="62"/>
       <c r="S1186" s="1"/>
@@ -28033,6 +28217,7 @@
         <f aca="false">J1187*K1187</f>
         <v>0</v>
       </c>
+      <c r="M1187" s="62"/>
       <c r="Q1187" s="62"/>
       <c r="R1187" s="62"/>
       <c r="S1187" s="1"/>
@@ -28048,6 +28233,7 @@
         <f aca="false">J1188*K1188</f>
         <v>0</v>
       </c>
+      <c r="M1188" s="62"/>
       <c r="Q1188" s="62"/>
       <c r="R1188" s="62"/>
       <c r="S1188" s="1"/>
@@ -28063,6 +28249,7 @@
         <f aca="false">J1189*K1189</f>
         <v>0</v>
       </c>
+      <c r="M1189" s="62"/>
       <c r="Q1189" s="62"/>
       <c r="R1189" s="62"/>
       <c r="S1189" s="1"/>
@@ -28078,6 +28265,7 @@
         <f aca="false">J1190*K1190</f>
         <v>0</v>
       </c>
+      <c r="M1190" s="62"/>
       <c r="Q1190" s="62"/>
       <c r="R1190" s="62"/>
       <c r="S1190" s="1"/>
@@ -28093,6 +28281,7 @@
         <f aca="false">J1191*K1191</f>
         <v>0</v>
       </c>
+      <c r="M1191" s="62"/>
       <c r="Q1191" s="62"/>
       <c r="R1191" s="62"/>
       <c r="S1191" s="1"/>
@@ -28108,6 +28297,7 @@
         <f aca="false">J1192*K1192</f>
         <v>0</v>
       </c>
+      <c r="M1192" s="62"/>
       <c r="Q1192" s="62"/>
       <c r="R1192" s="62"/>
       <c r="S1192" s="1"/>
@@ -28123,6 +28313,7 @@
         <f aca="false">J1193*K1193</f>
         <v>0</v>
       </c>
+      <c r="M1193" s="62"/>
       <c r="Q1193" s="62"/>
       <c r="R1193" s="62"/>
       <c r="S1193" s="1"/>
@@ -28138,6 +28329,7 @@
         <f aca="false">J1194*K1194</f>
         <v>0</v>
       </c>
+      <c r="M1194" s="62"/>
       <c r="Q1194" s="62"/>
       <c r="R1194" s="62"/>
       <c r="S1194" s="1"/>
@@ -28153,6 +28345,7 @@
         <f aca="false">J1195*K1195</f>
         <v>0</v>
       </c>
+      <c r="M1195" s="62"/>
       <c r="Q1195" s="62"/>
       <c r="R1195" s="62"/>
       <c r="S1195" s="1"/>
@@ -28168,6 +28361,7 @@
         <f aca="false">J1196*K1196</f>
         <v>0</v>
       </c>
+      <c r="M1196" s="62"/>
       <c r="Q1196" s="62"/>
       <c r="R1196" s="62"/>
       <c r="S1196" s="1"/>
@@ -28183,6 +28377,7 @@
         <f aca="false">J1197*K1197</f>
         <v>0</v>
       </c>
+      <c r="M1197" s="62"/>
       <c r="Q1197" s="62"/>
       <c r="R1197" s="62"/>
       <c r="S1197" s="1"/>
@@ -28198,6 +28393,7 @@
         <f aca="false">J1198*K1198</f>
         <v>0</v>
       </c>
+      <c r="M1198" s="62"/>
       <c r="Q1198" s="62"/>
       <c r="R1198" s="62"/>
       <c r="S1198" s="1"/>
@@ -28213,6 +28409,7 @@
         <f aca="false">J1199*K1199</f>
         <v>0</v>
       </c>
+      <c r="M1199" s="62"/>
       <c r="Q1199" s="62"/>
       <c r="R1199" s="62"/>
       <c r="S1199" s="1"/>
@@ -28228,6 +28425,7 @@
         <f aca="false">J1200*K1200</f>
         <v>0</v>
       </c>
+      <c r="M1200" s="62"/>
       <c r="Q1200" s="62"/>
       <c r="R1200" s="62"/>
       <c r="S1200" s="1"/>
@@ -28243,6 +28441,7 @@
         <f aca="false">J1201*K1201</f>
         <v>0</v>
       </c>
+      <c r="M1201" s="62"/>
       <c r="Q1201" s="62"/>
       <c r="R1201" s="62"/>
       <c r="S1201" s="1"/>
@@ -28258,6 +28457,7 @@
         <f aca="false">J1202*K1202</f>
         <v>0</v>
       </c>
+      <c r="M1202" s="62"/>
       <c r="Q1202" s="62"/>
       <c r="R1202" s="62"/>
       <c r="S1202" s="1"/>
@@ -28273,6 +28473,7 @@
         <f aca="false">J1203*K1203</f>
         <v>0</v>
       </c>
+      <c r="M1203" s="62"/>
       <c r="Q1203" s="62"/>
       <c r="R1203" s="62"/>
       <c r="S1203" s="1"/>
@@ -28288,6 +28489,7 @@
         <f aca="false">J1204*K1204</f>
         <v>0</v>
       </c>
+      <c r="M1204" s="62"/>
       <c r="Q1204" s="62"/>
       <c r="R1204" s="62"/>
       <c r="S1204" s="1"/>
@@ -28303,6 +28505,7 @@
         <f aca="false">J1205*K1205</f>
         <v>0</v>
       </c>
+      <c r="M1205" s="62"/>
       <c r="Q1205" s="62"/>
       <c r="R1205" s="62"/>
       <c r="S1205" s="1"/>
@@ -28318,6 +28521,7 @@
         <f aca="false">J1206*K1206</f>
         <v>0</v>
       </c>
+      <c r="M1206" s="62"/>
       <c r="Q1206" s="62"/>
       <c r="R1206" s="62"/>
       <c r="S1206" s="1"/>
@@ -28333,6 +28537,7 @@
         <f aca="false">J1207*K1207</f>
         <v>0</v>
       </c>
+      <c r="M1207" s="62"/>
       <c r="Q1207" s="62"/>
       <c r="R1207" s="62"/>
       <c r="S1207" s="1"/>
@@ -28348,6 +28553,7 @@
         <f aca="false">J1208*K1208</f>
         <v>0</v>
       </c>
+      <c r="M1208" s="62"/>
       <c r="Q1208" s="62"/>
       <c r="R1208" s="62"/>
       <c r="S1208" s="1"/>
@@ -28363,6 +28569,7 @@
         <f aca="false">J1209*K1209</f>
         <v>0</v>
       </c>
+      <c r="M1209" s="62"/>
       <c r="Q1209" s="62"/>
       <c r="R1209" s="62"/>
       <c r="S1209" s="1"/>
@@ -28378,6 +28585,7 @@
         <f aca="false">J1210*K1210</f>
         <v>0</v>
       </c>
+      <c r="M1210" s="62"/>
       <c r="Q1210" s="62"/>
       <c r="R1210" s="62"/>
       <c r="S1210" s="1"/>
@@ -28393,6 +28601,7 @@
         <f aca="false">J1211*K1211</f>
         <v>0</v>
       </c>
+      <c r="M1211" s="62"/>
       <c r="Q1211" s="62"/>
       <c r="R1211" s="62"/>
       <c r="S1211" s="1"/>
@@ -28408,6 +28617,7 @@
         <f aca="false">J1212*K1212</f>
         <v>0</v>
       </c>
+      <c r="M1212" s="62"/>
       <c r="Q1212" s="62"/>
       <c r="R1212" s="62"/>
       <c r="S1212" s="1"/>
@@ -28423,6 +28633,7 @@
         <f aca="false">J1213*K1213</f>
         <v>0</v>
       </c>
+      <c r="M1213" s="62"/>
       <c r="Q1213" s="62"/>
       <c r="R1213" s="62"/>
       <c r="S1213" s="1"/>
@@ -28438,6 +28649,7 @@
         <f aca="false">J1214*K1214</f>
         <v>0</v>
       </c>
+      <c r="M1214" s="62"/>
       <c r="Q1214" s="62"/>
       <c r="R1214" s="62"/>
       <c r="S1214" s="1"/>
@@ -28453,6 +28665,7 @@
         <f aca="false">J1215*K1215</f>
         <v>0</v>
       </c>
+      <c r="M1215" s="62"/>
       <c r="Q1215" s="62"/>
       <c r="R1215" s="62"/>
       <c r="S1215" s="1"/>
@@ -28468,6 +28681,7 @@
         <f aca="false">J1216*K1216</f>
         <v>0</v>
       </c>
+      <c r="M1216" s="62"/>
       <c r="Q1216" s="62"/>
       <c r="R1216" s="62"/>
       <c r="S1216" s="1"/>
@@ -28483,6 +28697,7 @@
         <f aca="false">J1217*K1217</f>
         <v>0</v>
       </c>
+      <c r="M1217" s="62"/>
       <c r="Q1217" s="62"/>
       <c r="R1217" s="62"/>
       <c r="S1217" s="1"/>
@@ -28498,6 +28713,7 @@
         <f aca="false">J1218*K1218</f>
         <v>0</v>
       </c>
+      <c r="M1218" s="62"/>
       <c r="Q1218" s="62"/>
       <c r="R1218" s="62"/>
       <c r="S1218" s="1"/>
@@ -28513,6 +28729,7 @@
         <f aca="false">J1219*K1219</f>
         <v>0</v>
       </c>
+      <c r="M1219" s="62"/>
       <c r="Q1219" s="62"/>
       <c r="R1219" s="62"/>
       <c r="S1219" s="1"/>
@@ -28528,6 +28745,7 @@
         <f aca="false">J1220*K1220</f>
         <v>0</v>
       </c>
+      <c r="M1220" s="62"/>
       <c r="Q1220" s="62"/>
       <c r="R1220" s="62"/>
       <c r="S1220" s="1"/>
@@ -28543,6 +28761,7 @@
         <f aca="false">J1221*K1221</f>
         <v>0</v>
       </c>
+      <c r="M1221" s="62"/>
       <c r="Q1221" s="62"/>
       <c r="R1221" s="62"/>
       <c r="S1221" s="1"/>
@@ -28558,6 +28777,7 @@
         <f aca="false">J1222*K1222</f>
         <v>0</v>
       </c>
+      <c r="M1222" s="62"/>
       <c r="Q1222" s="62"/>
       <c r="R1222" s="62"/>
       <c r="S1222" s="1"/>
@@ -28573,6 +28793,7 @@
         <f aca="false">J1223*K1223</f>
         <v>0</v>
       </c>
+      <c r="M1223" s="62"/>
       <c r="Q1223" s="62"/>
       <c r="R1223" s="62"/>
       <c r="S1223" s="1"/>
@@ -28588,6 +28809,7 @@
         <f aca="false">J1224*K1224</f>
         <v>0</v>
       </c>
+      <c r="M1224" s="62"/>
       <c r="Q1224" s="62"/>
       <c r="R1224" s="62"/>
       <c r="S1224" s="1"/>
@@ -28603,6 +28825,7 @@
         <f aca="false">J1225*K1225</f>
         <v>0</v>
       </c>
+      <c r="M1225" s="62"/>
       <c r="Q1225" s="62"/>
       <c r="R1225" s="62"/>
       <c r="S1225" s="1"/>
@@ -28618,6 +28841,7 @@
         <f aca="false">J1226*K1226</f>
         <v>0</v>
       </c>
+      <c r="M1226" s="62"/>
       <c r="Q1226" s="62"/>
       <c r="R1226" s="62"/>
       <c r="S1226" s="1"/>
@@ -28633,6 +28857,7 @@
         <f aca="false">J1227*K1227</f>
         <v>0</v>
       </c>
+      <c r="M1227" s="62"/>
       <c r="Q1227" s="62"/>
       <c r="R1227" s="62"/>
       <c r="S1227" s="1"/>
@@ -28648,6 +28873,7 @@
         <f aca="false">J1228*K1228</f>
         <v>0</v>
       </c>
+      <c r="M1228" s="62"/>
       <c r="Q1228" s="62"/>
       <c r="R1228" s="62"/>
       <c r="S1228" s="1"/>
@@ -28663,6 +28889,7 @@
         <f aca="false">J1229*K1229</f>
         <v>0</v>
       </c>
+      <c r="M1229" s="62"/>
       <c r="Q1229" s="62"/>
       <c r="R1229" s="62"/>
       <c r="S1229" s="1"/>
@@ -28678,6 +28905,7 @@
         <f aca="false">J1230*K1230</f>
         <v>0</v>
       </c>
+      <c r="M1230" s="62"/>
       <c r="Q1230" s="62"/>
       <c r="R1230" s="62"/>
       <c r="S1230" s="1"/>
@@ -28693,6 +28921,7 @@
         <f aca="false">J1231*K1231</f>
         <v>0</v>
       </c>
+      <c r="M1231" s="62"/>
       <c r="Q1231" s="62"/>
       <c r="R1231" s="62"/>
       <c r="S1231" s="1"/>
@@ -28708,6 +28937,7 @@
         <f aca="false">J1232*K1232</f>
         <v>0</v>
       </c>
+      <c r="M1232" s="62"/>
       <c r="Q1232" s="62"/>
       <c r="R1232" s="62"/>
       <c r="S1232" s="1"/>
@@ -28723,6 +28953,7 @@
         <f aca="false">J1233*K1233</f>
         <v>0</v>
       </c>
+      <c r="M1233" s="62"/>
       <c r="Q1233" s="62"/>
       <c r="R1233" s="62"/>
       <c r="S1233" s="1"/>
@@ -28738,6 +28969,7 @@
         <f aca="false">J1234*K1234</f>
         <v>0</v>
       </c>
+      <c r="M1234" s="62"/>
       <c r="Q1234" s="62"/>
       <c r="R1234" s="62"/>
       <c r="S1234" s="1"/>
@@ -28753,6 +28985,7 @@
         <f aca="false">J1235*K1235</f>
         <v>0</v>
       </c>
+      <c r="M1235" s="62"/>
       <c r="Q1235" s="62"/>
       <c r="R1235" s="62"/>
       <c r="S1235" s="1"/>
@@ -28768,6 +29001,7 @@
         <f aca="false">J1236*K1236</f>
         <v>0</v>
       </c>
+      <c r="M1236" s="62"/>
       <c r="Q1236" s="62"/>
       <c r="R1236" s="62"/>
       <c r="S1236" s="1"/>
@@ -28783,6 +29017,7 @@
         <f aca="false">J1237*K1237</f>
         <v>0</v>
       </c>
+      <c r="M1237" s="62"/>
       <c r="Q1237" s="62"/>
       <c r="R1237" s="62"/>
       <c r="S1237" s="1"/>
@@ -28798,6 +29033,7 @@
         <f aca="false">J1238*K1238</f>
         <v>0</v>
       </c>
+      <c r="M1238" s="62"/>
       <c r="Q1238" s="62"/>
       <c r="R1238" s="62"/>
       <c r="S1238" s="1"/>
@@ -28813,6 +29049,7 @@
         <f aca="false">J1239*K1239</f>
         <v>0</v>
       </c>
+      <c r="M1239" s="62"/>
       <c r="Q1239" s="62"/>
       <c r="R1239" s="62"/>
       <c r="S1239" s="1"/>
@@ -28828,6 +29065,7 @@
         <f aca="false">J1240*K1240</f>
         <v>0</v>
       </c>
+      <c r="M1240" s="62"/>
       <c r="Q1240" s="62"/>
       <c r="R1240" s="62"/>
       <c r="S1240" s="1"/>
@@ -28843,6 +29081,7 @@
         <f aca="false">J1241*K1241</f>
         <v>0</v>
       </c>
+      <c r="M1241" s="62"/>
       <c r="Q1241" s="62"/>
       <c r="R1241" s="62"/>
       <c r="S1241" s="1"/>
@@ -28858,6 +29097,7 @@
         <f aca="false">J1242*K1242</f>
         <v>0</v>
       </c>
+      <c r="M1242" s="62"/>
       <c r="Q1242" s="62"/>
       <c r="R1242" s="62"/>
       <c r="S1242" s="1"/>
@@ -28873,6 +29113,7 @@
         <f aca="false">J1243*K1243</f>
         <v>0</v>
       </c>
+      <c r="M1243" s="62"/>
       <c r="Q1243" s="62"/>
       <c r="R1243" s="62"/>
       <c r="S1243" s="1"/>
@@ -28888,6 +29129,7 @@
         <f aca="false">J1244*K1244</f>
         <v>0</v>
       </c>
+      <c r="M1244" s="62"/>
       <c r="Q1244" s="62"/>
       <c r="R1244" s="62"/>
       <c r="S1244" s="1"/>
@@ -28903,6 +29145,7 @@
         <f aca="false">J1245*K1245</f>
         <v>0</v>
       </c>
+      <c r="M1245" s="62"/>
       <c r="Q1245" s="62"/>
       <c r="R1245" s="62"/>
       <c r="S1245" s="1"/>
@@ -28918,6 +29161,7 @@
         <f aca="false">J1246*K1246</f>
         <v>0</v>
       </c>
+      <c r="M1246" s="62"/>
       <c r="Q1246" s="62"/>
       <c r="R1246" s="62"/>
       <c r="S1246" s="1"/>
@@ -28933,6 +29177,7 @@
         <f aca="false">J1247*K1247</f>
         <v>0</v>
       </c>
+      <c r="M1247" s="62"/>
       <c r="Q1247" s="62"/>
       <c r="R1247" s="62"/>
       <c r="S1247" s="1"/>
@@ -28948,6 +29193,7 @@
         <f aca="false">J1248*K1248</f>
         <v>0</v>
       </c>
+      <c r="M1248" s="62"/>
       <c r="Q1248" s="62"/>
       <c r="R1248" s="62"/>
       <c r="S1248" s="1"/>
@@ -28963,6 +29209,7 @@
         <f aca="false">J1249*K1249</f>
         <v>0</v>
       </c>
+      <c r="M1249" s="62"/>
       <c r="Q1249" s="62"/>
       <c r="R1249" s="62"/>
       <c r="S1249" s="1"/>
@@ -28978,6 +29225,7 @@
         <f aca="false">J1250*K1250</f>
         <v>0</v>
       </c>
+      <c r="M1250" s="62"/>
       <c r="Q1250" s="62"/>
       <c r="R1250" s="62"/>
       <c r="S1250" s="1"/>
@@ -28993,6 +29241,7 @@
         <f aca="false">J1251*K1251</f>
         <v>0</v>
       </c>
+      <c r="M1251" s="62"/>
       <c r="Q1251" s="62"/>
       <c r="R1251" s="62"/>
       <c r="S1251" s="1"/>
@@ -29008,6 +29257,7 @@
         <f aca="false">J1252*K1252</f>
         <v>0</v>
       </c>
+      <c r="M1252" s="62"/>
       <c r="Q1252" s="62"/>
       <c r="R1252" s="62"/>
       <c r="S1252" s="1"/>
@@ -29023,6 +29273,7 @@
         <f aca="false">J1253*K1253</f>
         <v>0</v>
       </c>
+      <c r="M1253" s="62"/>
       <c r="Q1253" s="62"/>
       <c r="R1253" s="62"/>
       <c r="S1253" s="1"/>
@@ -29038,6 +29289,7 @@
         <f aca="false">J1254*K1254</f>
         <v>0</v>
       </c>
+      <c r="M1254" s="62"/>
       <c r="Q1254" s="62"/>
       <c r="R1254" s="62"/>
       <c r="S1254" s="1"/>
@@ -29053,6 +29305,7 @@
         <f aca="false">J1255*K1255</f>
         <v>0</v>
       </c>
+      <c r="M1255" s="62"/>
       <c r="Q1255" s="62"/>
       <c r="R1255" s="62"/>
       <c r="S1255" s="1"/>
@@ -29068,6 +29321,7 @@
         <f aca="false">J1256*K1256</f>
         <v>0</v>
       </c>
+      <c r="M1256" s="62"/>
       <c r="Q1256" s="62"/>
       <c r="R1256" s="62"/>
       <c r="S1256" s="1"/>
@@ -29083,6 +29337,7 @@
         <f aca="false">J1257*K1257</f>
         <v>0</v>
       </c>
+      <c r="M1257" s="62"/>
       <c r="Q1257" s="62"/>
       <c r="R1257" s="62"/>
       <c r="S1257" s="1"/>
@@ -29098,6 +29353,7 @@
         <f aca="false">J1258*K1258</f>
         <v>0</v>
       </c>
+      <c r="M1258" s="62"/>
       <c r="Q1258" s="62"/>
       <c r="R1258" s="62"/>
       <c r="S1258" s="1"/>
@@ -29113,6 +29369,7 @@
         <f aca="false">J1259*K1259</f>
         <v>0</v>
       </c>
+      <c r="M1259" s="62"/>
       <c r="Q1259" s="62"/>
       <c r="R1259" s="62"/>
       <c r="S1259" s="1"/>
@@ -29128,6 +29385,7 @@
         <f aca="false">J1260*K1260</f>
         <v>0</v>
       </c>
+      <c r="M1260" s="62"/>
       <c r="Q1260" s="62"/>
       <c r="R1260" s="62"/>
       <c r="S1260" s="1"/>
@@ -29143,6 +29401,7 @@
         <f aca="false">J1261*K1261</f>
         <v>0</v>
       </c>
+      <c r="M1261" s="62"/>
       <c r="Q1261" s="62"/>
       <c r="R1261" s="62"/>
       <c r="S1261" s="1"/>
@@ -29158,6 +29417,7 @@
         <f aca="false">J1262*K1262</f>
         <v>0</v>
       </c>
+      <c r="M1262" s="62"/>
       <c r="Q1262" s="62"/>
       <c r="R1262" s="62"/>
       <c r="S1262" s="1"/>
@@ -29173,6 +29433,7 @@
         <f aca="false">J1263*K1263</f>
         <v>0</v>
       </c>
+      <c r="M1263" s="62"/>
       <c r="Q1263" s="62"/>
       <c r="R1263" s="62"/>
       <c r="S1263" s="1"/>
@@ -29188,6 +29449,7 @@
         <f aca="false">J1264*K1264</f>
         <v>0</v>
       </c>
+      <c r="M1264" s="62"/>
       <c r="Q1264" s="62"/>
       <c r="R1264" s="62"/>
       <c r="S1264" s="1"/>
@@ -29203,6 +29465,7 @@
         <f aca="false">J1265*K1265</f>
         <v>0</v>
       </c>
+      <c r="M1265" s="62"/>
       <c r="Q1265" s="62"/>
       <c r="R1265" s="62"/>
       <c r="S1265" s="1"/>
@@ -29218,6 +29481,7 @@
         <f aca="false">J1266*K1266</f>
         <v>0</v>
       </c>
+      <c r="M1266" s="62"/>
       <c r="Q1266" s="62"/>
       <c r="R1266" s="62"/>
       <c r="S1266" s="1"/>
@@ -29233,6 +29497,7 @@
         <f aca="false">J1267*K1267</f>
         <v>0</v>
       </c>
+      <c r="M1267" s="62"/>
       <c r="Q1267" s="62"/>
       <c r="R1267" s="62"/>
       <c r="S1267" s="1"/>
@@ -29248,6 +29513,7 @@
         <f aca="false">J1268*K1268</f>
         <v>0</v>
       </c>
+      <c r="M1268" s="62"/>
       <c r="Q1268" s="62"/>
       <c r="R1268" s="62"/>
       <c r="S1268" s="1"/>
@@ -29263,6 +29529,7 @@
         <f aca="false">J1269*K1269</f>
         <v>0</v>
       </c>
+      <c r="M1269" s="62"/>
       <c r="Q1269" s="62"/>
       <c r="R1269" s="62"/>
       <c r="S1269" s="1"/>
@@ -29278,6 +29545,7 @@
         <f aca="false">J1270*K1270</f>
         <v>0</v>
       </c>
+      <c r="M1270" s="62"/>
       <c r="Q1270" s="62"/>
       <c r="R1270" s="62"/>
       <c r="S1270" s="1"/>
@@ -29293,6 +29561,7 @@
         <f aca="false">J1271*K1271</f>
         <v>0</v>
       </c>
+      <c r="M1271" s="62"/>
       <c r="Q1271" s="62"/>
       <c r="R1271" s="62"/>
       <c r="S1271" s="1"/>
@@ -29308,6 +29577,7 @@
         <f aca="false">J1272*K1272</f>
         <v>0</v>
       </c>
+      <c r="M1272" s="62"/>
       <c r="Q1272" s="62"/>
       <c r="R1272" s="62"/>
       <c r="S1272" s="1"/>
@@ -29323,6 +29593,7 @@
         <f aca="false">J1273*K1273</f>
         <v>0</v>
       </c>
+      <c r="M1273" s="62"/>
       <c r="Q1273" s="62"/>
       <c r="R1273" s="62"/>
       <c r="S1273" s="1"/>
@@ -29338,6 +29609,7 @@
         <f aca="false">J1274*K1274</f>
         <v>0</v>
       </c>
+      <c r="M1274" s="62"/>
       <c r="Q1274" s="62"/>
       <c r="R1274" s="62"/>
       <c r="S1274" s="1"/>
@@ -29353,6 +29625,7 @@
         <f aca="false">J1275*K1275</f>
         <v>0</v>
       </c>
+      <c r="M1275" s="62"/>
       <c r="Q1275" s="62"/>
       <c r="R1275" s="62"/>
       <c r="S1275" s="1"/>
@@ -29368,6 +29641,7 @@
         <f aca="false">J1276*K1276</f>
         <v>0</v>
       </c>
+      <c r="M1276" s="62"/>
       <c r="Q1276" s="62"/>
       <c r="R1276" s="62"/>
       <c r="S1276" s="1"/>
@@ -29383,6 +29657,7 @@
         <f aca="false">J1277*K1277</f>
         <v>0</v>
       </c>
+      <c r="M1277" s="62"/>
       <c r="Q1277" s="62"/>
       <c r="R1277" s="62"/>
       <c r="S1277" s="1"/>
@@ -29398,6 +29673,7 @@
         <f aca="false">J1278*K1278</f>
         <v>0</v>
       </c>
+      <c r="M1278" s="62"/>
       <c r="Q1278" s="62"/>
       <c r="R1278" s="62"/>
       <c r="S1278" s="1"/>
@@ -29413,6 +29689,7 @@
         <f aca="false">J1279*K1279</f>
         <v>0</v>
       </c>
+      <c r="M1279" s="62"/>
       <c r="Q1279" s="62"/>
       <c r="R1279" s="62"/>
       <c r="S1279" s="1"/>
@@ -29428,6 +29705,7 @@
         <f aca="false">J1280*K1280</f>
         <v>0</v>
       </c>
+      <c r="M1280" s="62"/>
       <c r="Q1280" s="62"/>
       <c r="R1280" s="62"/>
       <c r="S1280" s="1"/>
@@ -29443,6 +29721,7 @@
         <f aca="false">J1281*K1281</f>
         <v>0</v>
       </c>
+      <c r="M1281" s="62"/>
       <c r="Q1281" s="62"/>
       <c r="R1281" s="62"/>
       <c r="S1281" s="1"/>
@@ -29458,6 +29737,7 @@
         <f aca="false">J1282*K1282</f>
         <v>0</v>
       </c>
+      <c r="M1282" s="62"/>
       <c r="Q1282" s="62"/>
       <c r="R1282" s="62"/>
       <c r="S1282" s="1"/>
@@ -29473,6 +29753,7 @@
         <f aca="false">J1283*K1283</f>
         <v>0</v>
       </c>
+      <c r="M1283" s="62"/>
       <c r="Q1283" s="62"/>
       <c r="R1283" s="62"/>
       <c r="S1283" s="1"/>
@@ -29488,6 +29769,7 @@
         <f aca="false">J1284*K1284</f>
         <v>0</v>
       </c>
+      <c r="M1284" s="62"/>
       <c r="Q1284" s="62"/>
       <c r="R1284" s="62"/>
       <c r="S1284" s="1"/>
@@ -29503,6 +29785,7 @@
         <f aca="false">J1285*K1285</f>
         <v>0</v>
       </c>
+      <c r="M1285" s="62"/>
       <c r="Q1285" s="62"/>
       <c r="R1285" s="62"/>
       <c r="S1285" s="1"/>
@@ -29518,6 +29801,7 @@
         <f aca="false">J1286*K1286</f>
         <v>0</v>
       </c>
+      <c r="M1286" s="62"/>
       <c r="Q1286" s="62"/>
       <c r="R1286" s="62"/>
       <c r="S1286" s="1"/>
@@ -29533,6 +29817,7 @@
         <f aca="false">J1287*K1287</f>
         <v>0</v>
       </c>
+      <c r="M1287" s="62"/>
       <c r="Q1287" s="62"/>
       <c r="R1287" s="62"/>
       <c r="S1287" s="1"/>
@@ -29548,6 +29833,7 @@
         <f aca="false">J1288*K1288</f>
         <v>0</v>
       </c>
+      <c r="M1288" s="62"/>
       <c r="Q1288" s="62"/>
       <c r="R1288" s="62"/>
       <c r="S1288" s="1"/>
@@ -29563,6 +29849,7 @@
         <f aca="false">J1289*K1289</f>
         <v>0</v>
       </c>
+      <c r="M1289" s="62"/>
       <c r="Q1289" s="62"/>
       <c r="R1289" s="62"/>
       <c r="S1289" s="1"/>
@@ -29578,6 +29865,7 @@
         <f aca="false">J1290*K1290</f>
         <v>0</v>
       </c>
+      <c r="M1290" s="62"/>
       <c r="Q1290" s="62"/>
       <c r="R1290" s="62"/>
       <c r="S1290" s="1"/>
@@ -29593,6 +29881,7 @@
         <f aca="false">J1291*K1291</f>
         <v>0</v>
       </c>
+      <c r="M1291" s="62"/>
       <c r="Q1291" s="62"/>
       <c r="R1291" s="62"/>
       <c r="S1291" s="1"/>
@@ -29608,6 +29897,7 @@
         <f aca="false">J1292*K1292</f>
         <v>0</v>
       </c>
+      <c r="M1292" s="62"/>
       <c r="Q1292" s="62"/>
       <c r="R1292" s="62"/>
       <c r="S1292" s="1"/>
@@ -29623,6 +29913,7 @@
         <f aca="false">J1293*K1293</f>
         <v>0</v>
       </c>
+      <c r="M1293" s="62"/>
       <c r="Q1293" s="62"/>
       <c r="R1293" s="62"/>
       <c r="S1293" s="1"/>
@@ -29638,6 +29929,7 @@
         <f aca="false">J1294*K1294</f>
         <v>0</v>
       </c>
+      <c r="M1294" s="62"/>
       <c r="Q1294" s="62"/>
       <c r="R1294" s="62"/>
       <c r="S1294" s="1"/>
@@ -29653,6 +29945,7 @@
         <f aca="false">J1295*K1295</f>
         <v>0</v>
       </c>
+      <c r="M1295" s="62"/>
       <c r="Q1295" s="62"/>
       <c r="R1295" s="62"/>
       <c r="S1295" s="1"/>
@@ -29668,6 +29961,7 @@
         <f aca="false">J1296*K1296</f>
         <v>0</v>
       </c>
+      <c r="M1296" s="62"/>
       <c r="Q1296" s="62"/>
       <c r="R1296" s="62"/>
       <c r="S1296" s="1"/>
@@ -29683,6 +29977,7 @@
         <f aca="false">J1297*K1297</f>
         <v>0</v>
       </c>
+      <c r="M1297" s="62"/>
       <c r="Q1297" s="62"/>
       <c r="R1297" s="62"/>
       <c r="S1297" s="1"/>
@@ -29698,6 +29993,7 @@
         <f aca="false">J1298*K1298</f>
         <v>0</v>
       </c>
+      <c r="M1298" s="62"/>
       <c r="Q1298" s="62"/>
       <c r="R1298" s="62"/>
       <c r="S1298" s="1"/>
@@ -29713,6 +30009,7 @@
         <f aca="false">J1299*K1299</f>
         <v>0</v>
       </c>
+      <c r="M1299" s="62"/>
       <c r="Q1299" s="62"/>
       <c r="R1299" s="62"/>
       <c r="S1299" s="1"/>
@@ -29728,6 +30025,7 @@
         <f aca="false">J1300*K1300</f>
         <v>0</v>
       </c>
+      <c r="M1300" s="62"/>
       <c r="Q1300" s="62"/>
       <c r="R1300" s="62"/>
       <c r="S1300" s="1"/>
@@ -29743,6 +30041,7 @@
         <f aca="false">J1301*K1301</f>
         <v>0</v>
       </c>
+      <c r="M1301" s="62"/>
       <c r="Q1301" s="62"/>
       <c r="R1301" s="62"/>
       <c r="S1301" s="1"/>
@@ -29758,6 +30057,7 @@
         <f aca="false">J1302*K1302</f>
         <v>0</v>
       </c>
+      <c r="M1302" s="62"/>
       <c r="Q1302" s="62"/>
       <c r="R1302" s="62"/>
       <c r="S1302" s="1"/>
@@ -29773,6 +30073,7 @@
         <f aca="false">J1303*K1303</f>
         <v>0</v>
       </c>
+      <c r="M1303" s="62"/>
       <c r="Q1303" s="62"/>
       <c r="R1303" s="62"/>
       <c r="S1303" s="1"/>
@@ -29788,6 +30089,7 @@
         <f aca="false">J1304*K1304</f>
         <v>0</v>
       </c>
+      <c r="M1304" s="62"/>
       <c r="Q1304" s="62"/>
       <c r="R1304" s="62"/>
       <c r="S1304" s="1"/>
@@ -29803,6 +30105,7 @@
         <f aca="false">J1305*K1305</f>
         <v>0</v>
       </c>
+      <c r="M1305" s="62"/>
       <c r="Q1305" s="62"/>
       <c r="R1305" s="62"/>
       <c r="S1305" s="1"/>
@@ -29818,6 +30121,7 @@
         <f aca="false">J1306*K1306</f>
         <v>0</v>
       </c>
+      <c r="M1306" s="62"/>
       <c r="Q1306" s="62"/>
       <c r="R1306" s="62"/>
       <c r="S1306" s="1"/>
@@ -29833,6 +30137,7 @@
         <f aca="false">J1307*K1307</f>
         <v>0</v>
       </c>
+      <c r="M1307" s="62"/>
       <c r="Q1307" s="62"/>
       <c r="R1307" s="62"/>
       <c r="S1307" s="1"/>
@@ -29848,6 +30153,7 @@
         <f aca="false">J1308*K1308</f>
         <v>0</v>
       </c>
+      <c r="M1308" s="62"/>
       <c r="Q1308" s="62"/>
       <c r="R1308" s="62"/>
       <c r="S1308" s="1"/>
@@ -29863,6 +30169,7 @@
         <f aca="false">J1309*K1309</f>
         <v>0</v>
       </c>
+      <c r="M1309" s="62"/>
       <c r="Q1309" s="62"/>
       <c r="R1309" s="62"/>
       <c r="S1309" s="1"/>
@@ -29878,6 +30185,7 @@
         <f aca="false">J1310*K1310</f>
         <v>0</v>
       </c>
+      <c r="M1310" s="62"/>
       <c r="Q1310" s="62"/>
       <c r="R1310" s="62"/>
       <c r="S1310" s="1"/>
@@ -29893,6 +30201,7 @@
         <f aca="false">J1311*K1311</f>
         <v>0</v>
       </c>
+      <c r="M1311" s="62"/>
       <c r="Q1311" s="62"/>
       <c r="R1311" s="62"/>
       <c r="S1311" s="1"/>
@@ -29908,6 +30217,7 @@
         <f aca="false">J1312*K1312</f>
         <v>0</v>
       </c>
+      <c r="M1312" s="62"/>
       <c r="Q1312" s="62"/>
       <c r="R1312" s="62"/>
       <c r="S1312" s="1"/>
@@ -29923,6 +30233,7 @@
         <f aca="false">J1313*K1313</f>
         <v>0</v>
       </c>
+      <c r="M1313" s="62"/>
       <c r="Q1313" s="62"/>
       <c r="R1313" s="62"/>
       <c r="S1313" s="1"/>
@@ -29938,6 +30249,7 @@
         <f aca="false">J1314*K1314</f>
         <v>0</v>
       </c>
+      <c r="M1314" s="62"/>
       <c r="Q1314" s="62"/>
       <c r="R1314" s="62"/>
       <c r="S1314" s="1"/>
@@ -29953,6 +30265,7 @@
         <f aca="false">J1315*K1315</f>
         <v>0</v>
       </c>
+      <c r="M1315" s="62"/>
       <c r="Q1315" s="62"/>
       <c r="R1315" s="62"/>
       <c r="S1315" s="1"/>
@@ -29968,6 +30281,7 @@
         <f aca="false">J1316*K1316</f>
         <v>0</v>
       </c>
+      <c r="M1316" s="62"/>
       <c r="Q1316" s="62"/>
       <c r="R1316" s="62"/>
       <c r="S1316" s="1"/>
@@ -29983,6 +30297,7 @@
         <f aca="false">J1317*K1317</f>
         <v>0</v>
       </c>
+      <c r="M1317" s="62"/>
       <c r="Q1317" s="62"/>
       <c r="R1317" s="62"/>
       <c r="S1317" s="1"/>
@@ -29998,6 +30313,7 @@
         <f aca="false">J1318*K1318</f>
         <v>0</v>
       </c>
+      <c r="M1318" s="62"/>
       <c r="Q1318" s="62"/>
       <c r="R1318" s="62"/>
       <c r="S1318" s="1"/>
@@ -30013,6 +30329,7 @@
         <f aca="false">J1319*K1319</f>
         <v>0</v>
       </c>
+      <c r="M1319" s="62"/>
       <c r="Q1319" s="62"/>
       <c r="R1319" s="62"/>
       <c r="S1319" s="1"/>
@@ -30028,6 +30345,7 @@
         <f aca="false">J1320*K1320</f>
         <v>0</v>
       </c>
+      <c r="M1320" s="62"/>
       <c r="Q1320" s="62"/>
       <c r="R1320" s="62"/>
       <c r="S1320" s="1"/>
@@ -30043,6 +30361,7 @@
         <f aca="false">J1321*K1321</f>
         <v>0</v>
       </c>
+      <c r="M1321" s="62"/>
       <c r="Q1321" s="62"/>
       <c r="R1321" s="62"/>
       <c r="S1321" s="1"/>
@@ -30058,6 +30377,7 @@
         <f aca="false">J1322*K1322</f>
         <v>0</v>
       </c>
+      <c r="M1322" s="62"/>
       <c r="Q1322" s="62"/>
       <c r="R1322" s="62"/>
       <c r="S1322" s="1"/>
@@ -30073,6 +30393,7 @@
         <f aca="false">J1323*K1323</f>
         <v>0</v>
       </c>
+      <c r="M1323" s="62"/>
       <c r="Q1323" s="62"/>
       <c r="R1323" s="62"/>
       <c r="S1323" s="1"/>
@@ -30088,6 +30409,7 @@
         <f aca="false">J1324*K1324</f>
         <v>0</v>
       </c>
+      <c r="M1324" s="62"/>
       <c r="Q1324" s="62"/>
       <c r="R1324" s="62"/>
       <c r="S1324" s="1"/>
@@ -30103,6 +30425,7 @@
         <f aca="false">J1325*K1325</f>
         <v>0</v>
       </c>
+      <c r="M1325" s="62"/>
       <c r="Q1325" s="62"/>
       <c r="R1325" s="62"/>
       <c r="S1325" s="1"/>
@@ -30118,6 +30441,7 @@
         <f aca="false">J1326*K1326</f>
         <v>0</v>
       </c>
+      <c r="M1326" s="62"/>
       <c r="Q1326" s="62"/>
       <c r="R1326" s="62"/>
       <c r="S1326" s="1"/>
@@ -30133,6 +30457,7 @@
         <f aca="false">J1327*K1327</f>
         <v>0</v>
       </c>
+      <c r="M1327" s="62"/>
       <c r="Q1327" s="62"/>
       <c r="R1327" s="62"/>
       <c r="S1327" s="1"/>
@@ -30148,6 +30473,7 @@
         <f aca="false">J1328*K1328</f>
         <v>0</v>
       </c>
+      <c r="M1328" s="62"/>
       <c r="Q1328" s="62"/>
       <c r="R1328" s="62"/>
       <c r="S1328" s="1"/>
@@ -30163,6 +30489,7 @@
         <f aca="false">J1329*K1329</f>
         <v>0</v>
       </c>
+      <c r="M1329" s="62"/>
       <c r="Q1329" s="62"/>
       <c r="R1329" s="62"/>
       <c r="S1329" s="1"/>
@@ -30178,6 +30505,7 @@
         <f aca="false">J1330*K1330</f>
         <v>0</v>
       </c>
+      <c r="M1330" s="62"/>
       <c r="Q1330" s="62"/>
       <c r="R1330" s="62"/>
       <c r="S1330" s="1"/>
@@ -30193,6 +30521,7 @@
         <f aca="false">J1331*K1331</f>
         <v>0</v>
       </c>
+      <c r="M1331" s="62"/>
       <c r="Q1331" s="62"/>
       <c r="R1331" s="62"/>
       <c r="S1331" s="1"/>
@@ -30208,6 +30537,7 @@
         <f aca="false">J1332*K1332</f>
         <v>0</v>
       </c>
+      <c r="M1332" s="62"/>
       <c r="Q1332" s="62"/>
       <c r="R1332" s="62"/>
       <c r="S1332" s="1"/>
@@ -30223,6 +30553,7 @@
         <f aca="false">J1333*K1333</f>
         <v>0</v>
       </c>
+      <c r="M1333" s="62"/>
       <c r="Q1333" s="62"/>
       <c r="R1333" s="62"/>
       <c r="S1333" s="1"/>
@@ -30238,6 +30569,7 @@
         <f aca="false">J1334*K1334</f>
         <v>0</v>
       </c>
+      <c r="M1334" s="62"/>
       <c r="Q1334" s="62"/>
       <c r="R1334" s="62"/>
       <c r="S1334" s="1"/>
@@ -30253,6 +30585,7 @@
         <f aca="false">J1335*K1335</f>
         <v>0</v>
       </c>
+      <c r="M1335" s="62"/>
       <c r="Q1335" s="62"/>
       <c r="R1335" s="62"/>
       <c r="S1335" s="1"/>
@@ -30268,6 +30601,7 @@
         <f aca="false">J1336*K1336</f>
         <v>0</v>
       </c>
+      <c r="M1336" s="62"/>
       <c r="Q1336" s="62"/>
       <c r="R1336" s="62"/>
       <c r="S1336" s="1"/>
@@ -30283,6 +30617,7 @@
         <f aca="false">J1337*K1337</f>
         <v>0</v>
       </c>
+      <c r="M1337" s="62"/>
       <c r="Q1337" s="62"/>
       <c r="R1337" s="62"/>
       <c r="S1337" s="1"/>
@@ -30298,6 +30633,7 @@
         <f aca="false">J1338*K1338</f>
         <v>0</v>
       </c>
+      <c r="M1338" s="62"/>
       <c r="Q1338" s="62"/>
       <c r="R1338" s="62"/>
       <c r="S1338" s="1"/>
@@ -30313,6 +30649,7 @@
         <f aca="false">J1339*K1339</f>
         <v>0</v>
       </c>
+      <c r="M1339" s="62"/>
       <c r="Q1339" s="62"/>
       <c r="R1339" s="62"/>
       <c r="S1339" s="1"/>
@@ -30328,6 +30665,7 @@
         <f aca="false">J1340*K1340</f>
         <v>0</v>
       </c>
+      <c r="M1340" s="62"/>
       <c r="Q1340" s="62"/>
       <c r="R1340" s="62"/>
       <c r="S1340" s="1"/>
@@ -30343,6 +30681,7 @@
         <f aca="false">J1341*K1341</f>
         <v>0</v>
       </c>
+      <c r="M1341" s="62"/>
       <c r="Q1341" s="62"/>
       <c r="R1341" s="62"/>
       <c r="S1341" s="1"/>
@@ -30358,6 +30697,7 @@
         <f aca="false">J1342*K1342</f>
         <v>0</v>
       </c>
+      <c r="M1342" s="62"/>
       <c r="Q1342" s="62"/>
       <c r="R1342" s="62"/>
       <c r="S1342" s="1"/>
@@ -30373,6 +30713,7 @@
         <f aca="false">J1343*K1343</f>
         <v>0</v>
       </c>
+      <c r="M1343" s="62"/>
       <c r="Q1343" s="62"/>
       <c r="R1343" s="62"/>
       <c r="S1343" s="1"/>
@@ -30388,6 +30729,7 @@
         <f aca="false">J1344*K1344</f>
         <v>0</v>
       </c>
+      <c r="M1344" s="62"/>
       <c r="Q1344" s="62"/>
       <c r="R1344" s="62"/>
       <c r="S1344" s="1"/>
@@ -30403,6 +30745,7 @@
         <f aca="false">J1345*K1345</f>
         <v>0</v>
       </c>
+      <c r="M1345" s="62"/>
       <c r="Q1345" s="62"/>
       <c r="R1345" s="62"/>
       <c r="S1345" s="1"/>
@@ -30418,6 +30761,7 @@
         <f aca="false">J1346*K1346</f>
         <v>0</v>
       </c>
+      <c r="M1346" s="62"/>
       <c r="Q1346" s="62"/>
       <c r="R1346" s="62"/>
       <c r="S1346" s="1"/>
@@ -30433,6 +30777,7 @@
         <f aca="false">J1347*K1347</f>
         <v>0</v>
       </c>
+      <c r="M1347" s="62"/>
       <c r="Q1347" s="62"/>
       <c r="R1347" s="62"/>
       <c r="S1347" s="1"/>
@@ -30448,6 +30793,7 @@
         <f aca="false">J1348*K1348</f>
         <v>0</v>
       </c>
+      <c r="M1348" s="62"/>
       <c r="Q1348" s="62"/>
       <c r="R1348" s="62"/>
       <c r="S1348" s="1"/>
@@ -30463,6 +30809,7 @@
         <f aca="false">J1349*K1349</f>
         <v>0</v>
       </c>
+      <c r="M1349" s="62"/>
       <c r="Q1349" s="62"/>
       <c r="R1349" s="62"/>
       <c r="S1349" s="1"/>
@@ -30478,6 +30825,7 @@
         <f aca="false">J1350*K1350</f>
         <v>0</v>
       </c>
+      <c r="M1350" s="62"/>
       <c r="Q1350" s="62"/>
       <c r="R1350" s="62"/>
       <c r="S1350" s="1"/>
@@ -30493,6 +30841,7 @@
         <f aca="false">J1351*K1351</f>
         <v>0</v>
       </c>
+      <c r="M1351" s="62"/>
       <c r="Q1351" s="62"/>
       <c r="R1351" s="62"/>
       <c r="S1351" s="1"/>
@@ -30508,6 +30857,7 @@
         <f aca="false">J1352*K1352</f>
         <v>0</v>
       </c>
+      <c r="M1352" s="62"/>
       <c r="Q1352" s="62"/>
       <c r="R1352" s="62"/>
       <c r="S1352" s="1"/>
@@ -30523,6 +30873,7 @@
         <f aca="false">J1353*K1353</f>
         <v>0</v>
       </c>
+      <c r="M1353" s="62"/>
       <c r="Q1353" s="62"/>
       <c r="R1353" s="62"/>
       <c r="S1353" s="1"/>
@@ -30538,6 +30889,7 @@
         <f aca="false">J1354*K1354</f>
         <v>0</v>
       </c>
+      <c r="M1354" s="62"/>
       <c r="Q1354" s="62"/>
       <c r="R1354" s="62"/>
       <c r="S1354" s="1"/>
@@ -30553,6 +30905,7 @@
         <f aca="false">J1355*K1355</f>
         <v>0</v>
       </c>
+      <c r="M1355" s="62"/>
       <c r="Q1355" s="62"/>
       <c r="R1355" s="62"/>
       <c r="S1355" s="1"/>
@@ -30568,6 +30921,7 @@
         <f aca="false">J1356*K1356</f>
         <v>0</v>
       </c>
+      <c r="M1356" s="62"/>
       <c r="Q1356" s="62"/>
       <c r="R1356" s="62"/>
       <c r="S1356" s="1"/>
@@ -30583,6 +30937,7 @@
         <f aca="false">J1357*K1357</f>
         <v>0</v>
       </c>
+      <c r="M1357" s="62"/>
       <c r="Q1357" s="62"/>
       <c r="R1357" s="62"/>
       <c r="S1357" s="1"/>
@@ -30598,6 +30953,7 @@
         <f aca="false">J1358*K1358</f>
         <v>0</v>
       </c>
+      <c r="M1358" s="62"/>
       <c r="Q1358" s="62"/>
       <c r="R1358" s="62"/>
       <c r="S1358" s="1"/>
@@ -30613,6 +30969,7 @@
         <f aca="false">J1359*K1359</f>
         <v>0</v>
       </c>
+      <c r="M1359" s="62"/>
       <c r="Q1359" s="62"/>
       <c r="R1359" s="62"/>
       <c r="S1359" s="1"/>
@@ -30628,6 +30985,7 @@
         <f aca="false">J1360*K1360</f>
         <v>0</v>
       </c>
+      <c r="M1360" s="62"/>
       <c r="Q1360" s="62"/>
       <c r="R1360" s="62"/>
       <c r="S1360" s="1"/>
@@ -30643,6 +31001,7 @@
         <f aca="false">J1361*K1361</f>
         <v>0</v>
       </c>
+      <c r="M1361" s="62"/>
       <c r="Q1361" s="62"/>
       <c r="R1361" s="62"/>
       <c r="S1361" s="1"/>
@@ -30658,6 +31017,7 @@
         <f aca="false">J1362*K1362</f>
         <v>0</v>
       </c>
+      <c r="M1362" s="62"/>
       <c r="Q1362" s="62"/>
       <c r="R1362" s="62"/>
       <c r="S1362" s="1"/>
@@ -30673,6 +31033,7 @@
         <f aca="false">J1363*K1363</f>
         <v>0</v>
       </c>
+      <c r="M1363" s="62"/>
       <c r="Q1363" s="62"/>
       <c r="R1363" s="62"/>
       <c r="S1363" s="1"/>
@@ -30688,6 +31049,7 @@
         <f aca="false">J1364*K1364</f>
         <v>0</v>
       </c>
+      <c r="M1364" s="62"/>
       <c r="Q1364" s="62"/>
       <c r="R1364" s="62"/>
       <c r="S1364" s="1"/>
@@ -30703,6 +31065,7 @@
         <f aca="false">J1365*K1365</f>
         <v>0</v>
       </c>
+      <c r="M1365" s="62"/>
       <c r="Q1365" s="62"/>
       <c r="R1365" s="62"/>
       <c r="S1365" s="1"/>
@@ -30718,6 +31081,7 @@
         <f aca="false">J1366*K1366</f>
         <v>0</v>
       </c>
+      <c r="M1366" s="62"/>
       <c r="Q1366" s="62"/>
       <c r="R1366" s="62"/>
       <c r="S1366" s="1"/>
@@ -30733,6 +31097,7 @@
         <f aca="false">J1367*K1367</f>
         <v>0</v>
       </c>
+      <c r="M1367" s="62"/>
       <c r="Q1367" s="62"/>
       <c r="R1367" s="62"/>
       <c r="S1367" s="1"/>
@@ -30748,6 +31113,7 @@
         <f aca="false">J1368*K1368</f>
         <v>0</v>
       </c>
+      <c r="M1368" s="62"/>
       <c r="Q1368" s="62"/>
       <c r="R1368" s="62"/>
       <c r="S1368" s="1"/>
@@ -30763,6 +31129,7 @@
         <f aca="false">J1369*K1369</f>
         <v>0</v>
       </c>
+      <c r="M1369" s="62"/>
       <c r="Q1369" s="62"/>
       <c r="R1369" s="62"/>
       <c r="S1369" s="1"/>
@@ -30778,6 +31145,7 @@
         <f aca="false">J1370*K1370</f>
         <v>0</v>
       </c>
+      <c r="M1370" s="62"/>
       <c r="Q1370" s="62"/>
       <c r="R1370" s="62"/>
       <c r="S1370" s="1"/>
@@ -30793,6 +31161,7 @@
         <f aca="false">J1371*K1371</f>
         <v>0</v>
       </c>
+      <c r="M1371" s="62"/>
       <c r="Q1371" s="62"/>
       <c r="R1371" s="62"/>
       <c r="S1371" s="1"/>
@@ -30808,6 +31177,7 @@
         <f aca="false">J1372*K1372</f>
         <v>0</v>
       </c>
+      <c r="M1372" s="62"/>
       <c r="Q1372" s="62"/>
       <c r="R1372" s="62"/>
       <c r="S1372" s="1"/>
@@ -30823,6 +31193,7 @@
         <f aca="false">J1373*K1373</f>
         <v>0</v>
       </c>
+      <c r="M1373" s="62"/>
       <c r="Q1373" s="62"/>
       <c r="R1373" s="62"/>
       <c r="S1373" s="1"/>
@@ -30838,6 +31209,7 @@
         <f aca="false">J1374*K1374</f>
         <v>0</v>
       </c>
+      <c r="M1374" s="62"/>
       <c r="Q1374" s="62"/>
       <c r="R1374" s="62"/>
       <c r="S1374" s="1"/>
@@ -30853,6 +31225,7 @@
         <f aca="false">J1375*K1375</f>
         <v>0</v>
       </c>
+      <c r="M1375" s="62"/>
       <c r="Q1375" s="62"/>
       <c r="R1375" s="62"/>
       <c r="S1375" s="1"/>
@@ -30868,6 +31241,7 @@
         <f aca="false">J1376*K1376</f>
         <v>0</v>
       </c>
+      <c r="M1376" s="62"/>
       <c r="Q1376" s="62"/>
       <c r="R1376" s="62"/>
       <c r="S1376" s="1"/>
@@ -30883,6 +31257,7 @@
         <f aca="false">J1377*K1377</f>
         <v>0</v>
       </c>
+      <c r="M1377" s="62"/>
       <c r="Q1377" s="62"/>
       <c r="R1377" s="62"/>
       <c r="S1377" s="1"/>
@@ -30898,6 +31273,7 @@
         <f aca="false">J1378*K1378</f>
         <v>0</v>
       </c>
+      <c r="M1378" s="62"/>
       <c r="Q1378" s="62"/>
       <c r="R1378" s="62"/>
       <c r="S1378" s="1"/>
@@ -30913,6 +31289,7 @@
         <f aca="false">J1379*K1379</f>
         <v>0</v>
       </c>
+      <c r="M1379" s="62"/>
       <c r="Q1379" s="62"/>
       <c r="R1379" s="62"/>
       <c r="S1379" s="1"/>
@@ -30928,6 +31305,7 @@
         <f aca="false">J1380*K1380</f>
         <v>0</v>
       </c>
+      <c r="M1380" s="62"/>
       <c r="Q1380" s="62"/>
       <c r="R1380" s="62"/>
       <c r="S1380" s="1"/>
@@ -30943,6 +31321,7 @@
         <f aca="false">J1381*K1381</f>
         <v>0</v>
       </c>
+      <c r="M1381" s="62"/>
       <c r="Q1381" s="62"/>
       <c r="R1381" s="62"/>
       <c r="S1381" s="1"/>
@@ -30958,6 +31337,7 @@
         <f aca="false">J1382*K1382</f>
         <v>0</v>
       </c>
+      <c r="M1382" s="62"/>
       <c r="Q1382" s="62"/>
       <c r="R1382" s="62"/>
       <c r="S1382" s="1"/>
@@ -30973,6 +31353,7 @@
         <f aca="false">J1383*K1383</f>
         <v>0</v>
       </c>
+      <c r="M1383" s="62"/>
       <c r="Q1383" s="62"/>
       <c r="R1383" s="62"/>
       <c r="S1383" s="1"/>
@@ -30988,6 +31369,7 @@
         <f aca="false">J1384*K1384</f>
         <v>0</v>
       </c>
+      <c r="M1384" s="62"/>
       <c r="Q1384" s="62"/>
       <c r="R1384" s="62"/>
       <c r="S1384" s="1"/>
@@ -31003,6 +31385,7 @@
         <f aca="false">J1385*K1385</f>
         <v>0</v>
       </c>
+      <c r="M1385" s="62"/>
       <c r="Q1385" s="62"/>
       <c r="R1385" s="62"/>
       <c r="S1385" s="1"/>
@@ -31018,6 +31401,7 @@
         <f aca="false">J1386*K1386</f>
         <v>0</v>
       </c>
+      <c r="M1386" s="62"/>
       <c r="Q1386" s="62"/>
       <c r="R1386" s="62"/>
       <c r="S1386" s="1"/>
@@ -31033,6 +31417,7 @@
         <f aca="false">J1387*K1387</f>
         <v>0</v>
       </c>
+      <c r="M1387" s="62"/>
       <c r="Q1387" s="62"/>
       <c r="R1387" s="62"/>
       <c r="S1387" s="1"/>
@@ -31048,6 +31433,7 @@
         <f aca="false">J1388*K1388</f>
         <v>0</v>
       </c>
+      <c r="M1388" s="62"/>
       <c r="Q1388" s="62"/>
       <c r="R1388" s="62"/>
       <c r="S1388" s="1"/>
@@ -31063,6 +31449,7 @@
         <f aca="false">J1389*K1389</f>
         <v>0</v>
       </c>
+      <c r="M1389" s="62"/>
       <c r="Q1389" s="62"/>
       <c r="R1389" s="62"/>
       <c r="S1389" s="1"/>
@@ -31078,6 +31465,7 @@
         <f aca="false">J1390*K1390</f>
         <v>0</v>
       </c>
+      <c r="M1390" s="62"/>
       <c r="Q1390" s="62"/>
       <c r="R1390" s="62"/>
       <c r="S1390" s="1"/>
@@ -31093,6 +31481,7 @@
         <f aca="false">J1391*K1391</f>
         <v>0</v>
       </c>
+      <c r="M1391" s="62"/>
       <c r="Q1391" s="62"/>
       <c r="R1391" s="62"/>
       <c r="S1391" s="1"/>
@@ -31108,6 +31497,7 @@
         <f aca="false">J1392*K1392</f>
         <v>0</v>
       </c>
+      <c r="M1392" s="62"/>
       <c r="Q1392" s="62"/>
       <c r="R1392" s="62"/>
       <c r="S1392" s="1"/>
@@ -31123,6 +31513,7 @@
         <f aca="false">J1393*K1393</f>
         <v>0</v>
       </c>
+      <c r="M1393" s="62"/>
       <c r="Q1393" s="62"/>
       <c r="R1393" s="62"/>
       <c r="S1393" s="1"/>
@@ -31138,6 +31529,7 @@
         <f aca="false">J1394*K1394</f>
         <v>0</v>
       </c>
+      <c r="M1394" s="62"/>
       <c r="Q1394" s="62"/>
       <c r="R1394" s="62"/>
       <c r="S1394" s="1"/>
@@ -31153,6 +31545,7 @@
         <f aca="false">J1395*K1395</f>
         <v>0</v>
       </c>
+      <c r="M1395" s="62"/>
       <c r="Q1395" s="62"/>
       <c r="R1395" s="62"/>
       <c r="S1395" s="1"/>
@@ -31168,6 +31561,7 @@
         <f aca="false">J1396*K1396</f>
         <v>0</v>
       </c>
+      <c r="M1396" s="62"/>
       <c r="Q1396" s="62"/>
       <c r="R1396" s="62"/>
       <c r="S1396" s="1"/>
@@ -31183,6 +31577,7 @@
         <f aca="false">J1397*K1397</f>
         <v>0</v>
       </c>
+      <c r="M1397" s="62"/>
       <c r="Q1397" s="62"/>
       <c r="R1397" s="62"/>
       <c r="S1397" s="1"/>
@@ -31198,6 +31593,7 @@
         <f aca="false">J1398*K1398</f>
         <v>0</v>
       </c>
+      <c r="M1398" s="62"/>
       <c r="Q1398" s="62"/>
       <c r="R1398" s="62"/>
       <c r="S1398" s="1"/>
@@ -31213,6 +31609,7 @@
         <f aca="false">J1399*K1399</f>
         <v>0</v>
       </c>
+      <c r="M1399" s="62"/>
       <c r="Q1399" s="62"/>
       <c r="R1399" s="62"/>
       <c r="S1399" s="1"/>
@@ -31228,6 +31625,7 @@
         <f aca="false">J1400*K1400</f>
         <v>0</v>
       </c>
+      <c r="M1400" s="62"/>
       <c r="Q1400" s="62"/>
       <c r="R1400" s="62"/>
       <c r="S1400" s="1"/>
@@ -31243,6 +31641,7 @@
         <f aca="false">J1401*K1401</f>
         <v>0</v>
       </c>
+      <c r="M1401" s="62"/>
       <c r="Q1401" s="62"/>
       <c r="R1401" s="62"/>
       <c r="S1401" s="1"/>
@@ -31258,6 +31657,7 @@
         <f aca="false">J1402*K1402</f>
         <v>0</v>
       </c>
+      <c r="M1402" s="62"/>
       <c r="Q1402" s="62"/>
       <c r="R1402" s="62"/>
       <c r="S1402" s="1"/>
@@ -31273,6 +31673,7 @@
         <f aca="false">J1403*K1403</f>
         <v>0</v>
       </c>
+      <c r="M1403" s="62"/>
       <c r="Q1403" s="62"/>
       <c r="R1403" s="62"/>
       <c r="S1403" s="1"/>
@@ -31288,6 +31689,7 @@
         <f aca="false">J1404*K1404</f>
         <v>0</v>
       </c>
+      <c r="M1404" s="62"/>
       <c r="Q1404" s="62"/>
       <c r="R1404" s="62"/>
       <c r="S1404" s="1"/>
@@ -31303,6 +31705,7 @@
         <f aca="false">J1405*K1405</f>
         <v>0</v>
       </c>
+      <c r="M1405" s="62"/>
       <c r="Q1405" s="62"/>
       <c r="R1405" s="62"/>
       <c r="S1405" s="1"/>
@@ -31318,6 +31721,7 @@
         <f aca="false">J1406*K1406</f>
         <v>0</v>
       </c>
+      <c r="M1406" s="62"/>
       <c r="Q1406" s="62"/>
       <c r="R1406" s="62"/>
       <c r="S1406" s="1"/>
@@ -31333,6 +31737,7 @@
         <f aca="false">J1407*K1407</f>
         <v>0</v>
       </c>
+      <c r="M1407" s="62"/>
       <c r="Q1407" s="62"/>
       <c r="R1407" s="62"/>
       <c r="S1407" s="1"/>
@@ -31348,6 +31753,7 @@
         <f aca="false">J1408*K1408</f>
         <v>0</v>
       </c>
+      <c r="M1408" s="62"/>
       <c r="Q1408" s="62"/>
       <c r="R1408" s="62"/>
       <c r="S1408" s="1"/>
@@ -31363,6 +31769,7 @@
         <f aca="false">J1409*K1409</f>
         <v>0</v>
       </c>
+      <c r="M1409" s="62"/>
       <c r="Q1409" s="62"/>
       <c r="R1409" s="62"/>
       <c r="S1409" s="1"/>
@@ -31378,6 +31785,7 @@
         <f aca="false">J1410*K1410</f>
         <v>0</v>
       </c>
+      <c r="M1410" s="62"/>
       <c r="Q1410" s="62"/>
       <c r="R1410" s="62"/>
       <c r="S1410" s="1"/>
@@ -31393,6 +31801,7 @@
         <f aca="false">J1411*K1411</f>
         <v>0</v>
       </c>
+      <c r="M1411" s="62"/>
       <c r="Q1411" s="62"/>
       <c r="R1411" s="62"/>
       <c r="S1411" s="1"/>
@@ -31408,6 +31817,7 @@
         <f aca="false">J1412*K1412</f>
         <v>0</v>
       </c>
+      <c r="M1412" s="62"/>
       <c r="Q1412" s="62"/>
       <c r="R1412" s="62"/>
       <c r="S1412" s="1"/>
@@ -31423,6 +31833,7 @@
         <f aca="false">J1413*K1413</f>
         <v>0</v>
       </c>
+      <c r="M1413" s="62"/>
       <c r="Q1413" s="62"/>
       <c r="R1413" s="62"/>
       <c r="S1413" s="1"/>
@@ -31438,6 +31849,7 @@
         <f aca="false">J1414*K1414</f>
         <v>0</v>
       </c>
+      <c r="M1414" s="62"/>
       <c r="Q1414" s="62"/>
       <c r="R1414" s="62"/>
       <c r="S1414" s="1"/>
@@ -31453,6 +31865,7 @@
         <f aca="false">J1415*K1415</f>
         <v>0</v>
       </c>
+      <c r="M1415" s="62"/>
       <c r="Q1415" s="62"/>
       <c r="R1415" s="62"/>
       <c r="S1415" s="1"/>
@@ -31468,6 +31881,7 @@
         <f aca="false">J1416*K1416</f>
         <v>0</v>
       </c>
+      <c r="M1416" s="62"/>
       <c r="Q1416" s="62"/>
       <c r="R1416" s="62"/>
       <c r="S1416" s="1"/>
@@ -31483,6 +31897,7 @@
         <f aca="false">J1417*K1417</f>
         <v>0</v>
       </c>
+      <c r="M1417" s="62"/>
       <c r="Q1417" s="62"/>
       <c r="R1417" s="62"/>
       <c r="S1417" s="1"/>
@@ -31498,6 +31913,7 @@
         <f aca="false">J1418*K1418</f>
         <v>0</v>
       </c>
+      <c r="M1418" s="62"/>
       <c r="Q1418" s="62"/>
       <c r="R1418" s="62"/>
       <c r="S1418" s="1"/>
@@ -31513,6 +31929,7 @@
         <f aca="false">J1419*K1419</f>
         <v>0</v>
       </c>
+      <c r="M1419" s="62"/>
       <c r="Q1419" s="62"/>
       <c r="R1419" s="62"/>
       <c r="S1419" s="1"/>
@@ -31528,6 +31945,7 @@
         <f aca="false">J1420*K1420</f>
         <v>0</v>
       </c>
+      <c r="M1420" s="62"/>
       <c r="Q1420" s="62"/>
       <c r="R1420" s="62"/>
       <c r="S1420" s="1"/>
@@ -31543,6 +31961,7 @@
         <f aca="false">J1421*K1421</f>
         <v>0</v>
       </c>
+      <c r="M1421" s="62"/>
       <c r="Q1421" s="62"/>
       <c r="R1421" s="62"/>
       <c r="S1421" s="1"/>
@@ -31558,6 +31977,7 @@
         <f aca="false">J1422*K1422</f>
         <v>0</v>
       </c>
+      <c r="M1422" s="62"/>
       <c r="Q1422" s="62"/>
       <c r="R1422" s="62"/>
       <c r="S1422" s="1"/>
@@ -31573,6 +31993,7 @@
         <f aca="false">J1423*K1423</f>
         <v>0</v>
       </c>
+      <c r="M1423" s="62"/>
       <c r="Q1423" s="62"/>
       <c r="R1423" s="62"/>
       <c r="S1423" s="1"/>
@@ -31588,6 +32009,7 @@
         <f aca="false">J1424*K1424</f>
         <v>0</v>
       </c>
+      <c r="M1424" s="62"/>
       <c r="Q1424" s="62"/>
       <c r="R1424" s="62"/>
       <c r="S1424" s="1"/>
@@ -31603,6 +32025,7 @@
         <f aca="false">J1425*K1425</f>
         <v>0</v>
       </c>
+      <c r="M1425" s="62"/>
       <c r="Q1425" s="62"/>
       <c r="R1425" s="62"/>
       <c r="S1425" s="1"/>
@@ -31618,6 +32041,7 @@
         <f aca="false">J1426*K1426</f>
         <v>0</v>
       </c>
+      <c r="M1426" s="62"/>
       <c r="Q1426" s="62"/>
       <c r="R1426" s="62"/>
       <c r="S1426" s="1"/>
@@ -31633,6 +32057,7 @@
         <f aca="false">J1427*K1427</f>
         <v>0</v>
       </c>
+      <c r="M1427" s="62"/>
       <c r="Q1427" s="62"/>
       <c r="R1427" s="62"/>
       <c r="S1427" s="1"/>
@@ -31648,6 +32073,7 @@
         <f aca="false">J1428*K1428</f>
         <v>0</v>
       </c>
+      <c r="M1428" s="62"/>
       <c r="Q1428" s="62"/>
       <c r="R1428" s="62"/>
       <c r="S1428" s="1"/>
@@ -31663,6 +32089,7 @@
         <f aca="false">J1429*K1429</f>
         <v>0</v>
       </c>
+      <c r="M1429" s="62"/>
       <c r="Q1429" s="62"/>
       <c r="R1429" s="62"/>
       <c r="S1429" s="1"/>
@@ -31678,6 +32105,7 @@
         <f aca="false">J1430*K1430</f>
         <v>0</v>
       </c>
+      <c r="M1430" s="62"/>
       <c r="Q1430" s="62"/>
       <c r="R1430" s="62"/>
       <c r="S1430" s="1"/>
@@ -31693,6 +32121,7 @@
         <f aca="false">J1431*K1431</f>
         <v>0</v>
       </c>
+      <c r="M1431" s="62"/>
       <c r="Q1431" s="62"/>
       <c r="R1431" s="62"/>
       <c r="S1431" s="1"/>
@@ -31708,6 +32137,7 @@
         <f aca="false">J1432*K1432</f>
         <v>0</v>
       </c>
+      <c r="M1432" s="62"/>
       <c r="Q1432" s="62"/>
       <c r="R1432" s="62"/>
       <c r="S1432" s="1"/>
@@ -31723,6 +32153,7 @@
         <f aca="false">J1433*K1433</f>
         <v>0</v>
       </c>
+      <c r="M1433" s="62"/>
       <c r="Q1433" s="62"/>
       <c r="R1433" s="62"/>
       <c r="S1433" s="1"/>
@@ -31738,6 +32169,7 @@
         <f aca="false">J1434*K1434</f>
         <v>0</v>
       </c>
+      <c r="M1434" s="62"/>
       <c r="Q1434" s="62"/>
       <c r="R1434" s="62"/>
       <c r="S1434" s="1"/>
@@ -31753,6 +32185,7 @@
         <f aca="false">J1435*K1435</f>
         <v>0</v>
       </c>
+      <c r="M1435" s="62"/>
       <c r="Q1435" s="62"/>
       <c r="R1435" s="62"/>
       <c r="S1435" s="1"/>
@@ -31768,6 +32201,7 @@
         <f aca="false">J1436*K1436</f>
         <v>0</v>
       </c>
+      <c r="M1436" s="62"/>
       <c r="Q1436" s="62"/>
       <c r="R1436" s="62"/>
       <c r="S1436" s="1"/>
@@ -31783,6 +32217,7 @@
         <f aca="false">J1437*K1437</f>
         <v>0</v>
       </c>
+      <c r="M1437" s="62"/>
       <c r="Q1437" s="62"/>
       <c r="R1437" s="62"/>
       <c r="S1437" s="1"/>
@@ -31798,6 +32233,7 @@
         <f aca="false">J1438*K1438</f>
         <v>0</v>
       </c>
+      <c r="M1438" s="62"/>
       <c r="Q1438" s="62"/>
       <c r="R1438" s="62"/>
       <c r="S1438" s="1"/>
@@ -31813,6 +32249,7 @@
         <f aca="false">J1439*K1439</f>
         <v>0</v>
       </c>
+      <c r="M1439" s="62"/>
       <c r="Q1439" s="62"/>
       <c r="R1439" s="62"/>
       <c r="S1439" s="1"/>
@@ -31828,6 +32265,7 @@
         <f aca="false">J1440*K1440</f>
         <v>0</v>
       </c>
+      <c r="M1440" s="62"/>
       <c r="Q1440" s="62"/>
       <c r="R1440" s="62"/>
       <c r="S1440" s="1"/>
@@ -31843,6 +32281,7 @@
         <f aca="false">J1441*K1441</f>
         <v>0</v>
       </c>
+      <c r="M1441" s="62"/>
       <c r="Q1441" s="62"/>
       <c r="R1441" s="62"/>
       <c r="S1441" s="1"/>
@@ -31858,6 +32297,7 @@
         <f aca="false">J1442*K1442</f>
         <v>0</v>
       </c>
+      <c r="M1442" s="62"/>
       <c r="Q1442" s="62"/>
       <c r="R1442" s="62"/>
       <c r="S1442" s="1"/>
@@ -31873,6 +32313,7 @@
         <f aca="false">J1443*K1443</f>
         <v>0</v>
       </c>
+      <c r="M1443" s="62"/>
       <c r="Q1443" s="62"/>
       <c r="R1443" s="62"/>
       <c r="S1443" s="1"/>
@@ -31888,6 +32329,7 @@
         <f aca="false">J1444*K1444</f>
         <v>0</v>
       </c>
+      <c r="M1444" s="62"/>
       <c r="Q1444" s="62"/>
       <c r="R1444" s="62"/>
       <c r="S1444" s="1"/>
@@ -31903,6 +32345,7 @@
         <f aca="false">J1445*K1445</f>
         <v>0</v>
       </c>
+      <c r="M1445" s="62"/>
       <c r="Q1445" s="62"/>
       <c r="R1445" s="62"/>
       <c r="S1445" s="1"/>
@@ -31918,6 +32361,7 @@
         <f aca="false">J1446*K1446</f>
         <v>0</v>
       </c>
+      <c r="M1446" s="62"/>
       <c r="Q1446" s="62"/>
       <c r="R1446" s="62"/>
       <c r="S1446" s="1"/>
@@ -31933,6 +32377,7 @@
         <f aca="false">J1447*K1447</f>
         <v>0</v>
       </c>
+      <c r="M1447" s="62"/>
       <c r="Q1447" s="62"/>
       <c r="R1447" s="62"/>
       <c r="S1447" s="1"/>
@@ -31948,6 +32393,7 @@
         <f aca="false">J1448*K1448</f>
         <v>0</v>
       </c>
+      <c r="M1448" s="62"/>
       <c r="Q1448" s="62"/>
       <c r="R1448" s="62"/>
       <c r="S1448" s="1"/>
@@ -31963,6 +32409,7 @@
         <f aca="false">J1449*K1449</f>
         <v>0</v>
       </c>
+      <c r="M1449" s="62"/>
       <c r="Q1449" s="62"/>
       <c r="R1449" s="62"/>
       <c r="S1449" s="1"/>
@@ -31978,6 +32425,7 @@
         <f aca="false">J1450*K1450</f>
         <v>0</v>
       </c>
+      <c r="M1450" s="62"/>
       <c r="Q1450" s="62"/>
       <c r="R1450" s="62"/>
       <c r="S1450" s="1"/>
@@ -31993,6 +32441,7 @@
         <f aca="false">J1451*K1451</f>
         <v>0</v>
       </c>
+      <c r="M1451" s="62"/>
       <c r="Q1451" s="62"/>
       <c r="R1451" s="62"/>
       <c r="S1451" s="1"/>
@@ -32008,6 +32457,7 @@
         <f aca="false">J1452*K1452</f>
         <v>0</v>
       </c>
+      <c r="M1452" s="62"/>
       <c r="Q1452" s="62"/>
       <c r="R1452" s="62"/>
       <c r="S1452" s="1"/>
@@ -32023,6 +32473,7 @@
         <f aca="false">J1453*K1453</f>
         <v>0</v>
       </c>
+      <c r="M1453" s="62"/>
       <c r="Q1453" s="62"/>
       <c r="R1453" s="62"/>
       <c r="S1453" s="1"/>
@@ -32038,6 +32489,7 @@
         <f aca="false">J1454*K1454</f>
         <v>0</v>
       </c>
+      <c r="M1454" s="62"/>
       <c r="Q1454" s="62"/>
       <c r="R1454" s="62"/>
       <c r="S1454" s="1"/>
@@ -32053,6 +32505,7 @@
         <f aca="false">J1455*K1455</f>
         <v>0</v>
       </c>
+      <c r="M1455" s="62"/>
       <c r="Q1455" s="62"/>
       <c r="R1455" s="62"/>
       <c r="S1455" s="1"/>
@@ -32068,6 +32521,7 @@
         <f aca="false">J1456*K1456</f>
         <v>0</v>
       </c>
+      <c r="M1456" s="62"/>
       <c r="Q1456" s="62"/>
       <c r="R1456" s="62"/>
       <c r="S1456" s="1"/>
@@ -32083,6 +32537,7 @@
         <f aca="false">J1457*K1457</f>
         <v>0</v>
       </c>
+      <c r="M1457" s="62"/>
       <c r="Q1457" s="62"/>
       <c r="R1457" s="62"/>
       <c r="S1457" s="1"/>
@@ -32098,6 +32553,7 @@
         <f aca="false">J1458*K1458</f>
         <v>0</v>
       </c>
+      <c r="M1458" s="62"/>
       <c r="Q1458" s="62"/>
       <c r="R1458" s="62"/>
       <c r="S1458" s="1"/>
@@ -32113,6 +32569,7 @@
         <f aca="false">J1459*K1459</f>
         <v>0</v>
       </c>
+      <c r="M1459" s="62"/>
       <c r="Q1459" s="62"/>
       <c r="R1459" s="62"/>
       <c r="S1459" s="1"/>
@@ -32128,6 +32585,7 @@
         <f aca="false">J1460*K1460</f>
         <v>0</v>
       </c>
+      <c r="M1460" s="62"/>
       <c r="Q1460" s="62"/>
       <c r="R1460" s="62"/>
       <c r="S1460" s="1"/>
@@ -32143,6 +32601,7 @@
         <f aca="false">J1461*K1461</f>
         <v>0</v>
       </c>
+      <c r="M1461" s="62"/>
       <c r="Q1461" s="62"/>
       <c r="R1461" s="62"/>
       <c r="S1461" s="1"/>
@@ -32158,6 +32617,7 @@
         <f aca="false">J1462*K1462</f>
         <v>0</v>
       </c>
+      <c r="M1462" s="62"/>
       <c r="Q1462" s="62"/>
       <c r="R1462" s="62"/>
       <c r="S1462" s="1"/>
@@ -32173,6 +32633,7 @@
         <f aca="false">J1463*K1463</f>
         <v>0</v>
       </c>
+      <c r="M1463" s="62"/>
       <c r="Q1463" s="62"/>
       <c r="R1463" s="62"/>
       <c r="S1463" s="1"/>
@@ -32188,6 +32649,7 @@
         <f aca="false">J1464*K1464</f>
         <v>0</v>
       </c>
+      <c r="M1464" s="62"/>
       <c r="Q1464" s="62"/>
       <c r="R1464" s="62"/>
       <c r="S1464" s="1"/>
@@ -32203,6 +32665,7 @@
         <f aca="false">J1465*K1465</f>
         <v>0</v>
       </c>
+      <c r="M1465" s="62"/>
       <c r="Q1465" s="62"/>
       <c r="R1465" s="62"/>
       <c r="S1465" s="1"/>
@@ -32218,6 +32681,7 @@
         <f aca="false">J1466*K1466</f>
         <v>0</v>
       </c>
+      <c r="M1466" s="62"/>
       <c r="Q1466" s="62"/>
       <c r="R1466" s="62"/>
       <c r="S1466" s="1"/>
@@ -32233,6 +32697,7 @@
         <f aca="false">J1467*K1467</f>
         <v>0</v>
       </c>
+      <c r="M1467" s="62"/>
       <c r="Q1467" s="62"/>
       <c r="R1467" s="62"/>
       <c r="S1467" s="1"/>
@@ -32248,6 +32713,7 @@
         <f aca="false">J1468*K1468</f>
         <v>0</v>
       </c>
+      <c r="M1468" s="62"/>
       <c r="Q1468" s="62"/>
       <c r="R1468" s="62"/>
       <c r="S1468" s="1"/>
@@ -32263,6 +32729,7 @@
         <f aca="false">J1469*K1469</f>
         <v>0</v>
       </c>
+      <c r="M1469" s="62"/>
       <c r="Q1469" s="62"/>
       <c r="R1469" s="62"/>
       <c r="S1469" s="1"/>
@@ -32278,6 +32745,7 @@
         <f aca="false">J1470*K1470</f>
         <v>0</v>
       </c>
+      <c r="M1470" s="62"/>
       <c r="Q1470" s="62"/>
       <c r="R1470" s="62"/>
       <c r="S1470" s="1"/>
@@ -32293,6 +32761,7 @@
         <f aca="false">J1471*K1471</f>
         <v>0</v>
       </c>
+      <c r="M1471" s="62"/>
       <c r="Q1471" s="62"/>
       <c r="R1471" s="62"/>
       <c r="S1471" s="1"/>
@@ -32308,6 +32777,7 @@
         <f aca="false">J1472*K1472</f>
         <v>0</v>
       </c>
+      <c r="M1472" s="62"/>
       <c r="Q1472" s="62"/>
       <c r="R1472" s="62"/>
       <c r="S1472" s="1"/>
@@ -32323,6 +32793,7 @@
         <f aca="false">J1473*K1473</f>
         <v>0</v>
       </c>
+      <c r="M1473" s="62"/>
       <c r="Q1473" s="62"/>
       <c r="R1473" s="62"/>
       <c r="S1473" s="1"/>
@@ -32338,6 +32809,7 @@
         <f aca="false">J1474*K1474</f>
         <v>0</v>
       </c>
+      <c r="M1474" s="62"/>
       <c r="Q1474" s="62"/>
       <c r="R1474" s="62"/>
       <c r="S1474" s="1"/>
@@ -32352,6 +32824,7 @@
         <f aca="false">J1475*K1475</f>
         <v>0</v>
       </c>
+      <c r="M1475" s="62"/>
       <c r="Q1475" s="62"/>
       <c r="R1475" s="62"/>
       <c r="S1475" s="1"/>
@@ -32366,6 +32839,7 @@
         <f aca="false">J1476*K1476</f>
         <v>0</v>
       </c>
+      <c r="M1476" s="62"/>
       <c r="Q1476" s="62"/>
       <c r="R1476" s="62"/>
       <c r="S1476" s="1"/>
@@ -32380,6 +32854,7 @@
         <f aca="false">J1477*K1477</f>
         <v>0</v>
       </c>
+      <c r="M1477" s="62"/>
       <c r="Q1477" s="62"/>
       <c r="R1477" s="62"/>
       <c r="S1477" s="1"/>
@@ -32394,6 +32869,7 @@
         <f aca="false">J1478*K1478</f>
         <v>0</v>
       </c>
+      <c r="M1478" s="62"/>
       <c r="Q1478" s="62"/>
       <c r="R1478" s="62"/>
       <c r="S1478" s="1"/>
@@ -32408,6 +32884,7 @@
         <f aca="false">J1479*K1479</f>
         <v>0</v>
       </c>
+      <c r="M1479" s="62"/>
       <c r="Q1479" s="62"/>
       <c r="R1479" s="62"/>
       <c r="S1479" s="1"/>
@@ -32422,6 +32899,7 @@
         <f aca="false">J1480*K1480</f>
         <v>0</v>
       </c>
+      <c r="M1480" s="62"/>
       <c r="Q1480" s="62"/>
       <c r="R1480" s="62"/>
       <c r="S1480" s="1"/>
@@ -32436,6 +32914,7 @@
         <f aca="false">J1481*K1481</f>
         <v>0</v>
       </c>
+      <c r="M1481" s="62"/>
       <c r="Q1481" s="62"/>
       <c r="R1481" s="62"/>
       <c r="S1481" s="1"/>
@@ -32450,6 +32929,7 @@
         <f aca="false">J1482*K1482</f>
         <v>0</v>
       </c>
+      <c r="M1482" s="62"/>
       <c r="Q1482" s="62"/>
       <c r="R1482" s="62"/>
       <c r="S1482" s="1"/>
@@ -32464,6 +32944,7 @@
         <f aca="false">J1483*K1483</f>
         <v>0</v>
       </c>
+      <c r="M1483" s="62"/>
       <c r="Q1483" s="62"/>
       <c r="R1483" s="62"/>
       <c r="S1483" s="1"/>
@@ -32478,6 +32959,7 @@
         <f aca="false">J1484*K1484</f>
         <v>0</v>
       </c>
+      <c r="M1484" s="62"/>
       <c r="Q1484" s="62"/>
       <c r="R1484" s="62"/>
       <c r="S1484" s="1"/>
@@ -32492,6 +32974,7 @@
         <f aca="false">J1485*K1485</f>
         <v>0</v>
       </c>
+      <c r="M1485" s="62"/>
       <c r="Q1485" s="62"/>
       <c r="R1485" s="62"/>
       <c r="S1485" s="1"/>
@@ -32506,6 +32989,7 @@
         <f aca="false">J1486*K1486</f>
         <v>0</v>
       </c>
+      <c r="M1486" s="62"/>
       <c r="Q1486" s="62"/>
       <c r="R1486" s="62"/>
       <c r="S1486" s="1"/>
@@ -32520,6 +33004,7 @@
         <f aca="false">J1487*K1487</f>
         <v>0</v>
       </c>
+      <c r="M1487" s="62"/>
       <c r="Q1487" s="62"/>
       <c r="R1487" s="62"/>
       <c r="S1487" s="1"/>
@@ -32534,6 +33019,7 @@
         <f aca="false">J1488*K1488</f>
         <v>0</v>
       </c>
+      <c r="M1488" s="62"/>
       <c r="Q1488" s="62"/>
       <c r="R1488" s="62"/>
       <c r="S1488" s="1"/>
@@ -32548,6 +33034,7 @@
         <f aca="false">J1489*K1489</f>
         <v>0</v>
       </c>
+      <c r="M1489" s="62"/>
       <c r="Q1489" s="62"/>
       <c r="R1489" s="62"/>
       <c r="S1489" s="1"/>
@@ -32562,6 +33049,7 @@
         <f aca="false">J1490*K1490</f>
         <v>0</v>
       </c>
+      <c r="M1490" s="62"/>
       <c r="Q1490" s="62"/>
       <c r="R1490" s="62"/>
       <c r="S1490" s="1"/>
@@ -32576,6 +33064,7 @@
         <f aca="false">J1491*K1491</f>
         <v>0</v>
       </c>
+      <c r="M1491" s="62"/>
       <c r="Q1491" s="62"/>
       <c r="R1491" s="62"/>
       <c r="S1491" s="1"/>
@@ -32590,6 +33079,7 @@
         <f aca="false">J1492*K1492</f>
         <v>0</v>
       </c>
+      <c r="M1492" s="62"/>
       <c r="Q1492" s="62"/>
       <c r="R1492" s="62"/>
       <c r="S1492" s="1"/>
@@ -32604,6 +33094,7 @@
         <f aca="false">J1493*K1493</f>
         <v>0</v>
       </c>
+      <c r="M1493" s="62"/>
       <c r="Q1493" s="62"/>
       <c r="R1493" s="62"/>
       <c r="S1493" s="1"/>
@@ -32618,6 +33109,7 @@
         <f aca="false">J1494*K1494</f>
         <v>0</v>
       </c>
+      <c r="M1494" s="62"/>
       <c r="Q1494" s="62"/>
       <c r="R1494" s="62"/>
       <c r="S1494" s="1"/>
@@ -32632,6 +33124,7 @@
         <f aca="false">J1495*K1495</f>
         <v>0</v>
       </c>
+      <c r="M1495" s="62"/>
       <c r="Q1495" s="62"/>
       <c r="R1495" s="62"/>
       <c r="S1495" s="1"/>
@@ -32646,6 +33139,7 @@
         <f aca="false">J1496*K1496</f>
         <v>0</v>
       </c>
+      <c r="M1496" s="62"/>
       <c r="Q1496" s="62"/>
       <c r="R1496" s="62"/>
       <c r="S1496" s="1"/>
@@ -32660,6 +33154,7 @@
         <f aca="false">J1497*K1497</f>
         <v>0</v>
       </c>
+      <c r="M1497" s="62"/>
       <c r="Q1497" s="62"/>
       <c r="R1497" s="62"/>
       <c r="S1497" s="1"/>
@@ -32674,6 +33169,7 @@
         <f aca="false">J1498*K1498</f>
         <v>0</v>
       </c>
+      <c r="M1498" s="62"/>
       <c r="Q1498" s="62"/>
       <c r="R1498" s="62"/>
       <c r="S1498" s="1"/>
@@ -32688,6 +33184,7 @@
         <f aca="false">J1499*K1499</f>
         <v>0</v>
       </c>
+      <c r="M1499" s="62"/>
       <c r="Q1499" s="62"/>
       <c r="R1499" s="62"/>
       <c r="S1499" s="1"/>
@@ -32702,6 +33199,7 @@
         <f aca="false">J1500*K1500</f>
         <v>0</v>
       </c>
+      <c r="M1500" s="62"/>
       <c r="Q1500" s="62"/>
       <c r="R1500" s="62"/>
       <c r="S1500" s="1"/>
@@ -32716,6 +33214,7 @@
         <f aca="false">J1501*K1501</f>
         <v>0</v>
       </c>
+      <c r="M1501" s="62"/>
       <c r="Q1501" s="62"/>
       <c r="R1501" s="62"/>
       <c r="S1501" s="1"/>
@@ -32730,6 +33229,7 @@
         <f aca="false">J1502*K1502</f>
         <v>0</v>
       </c>
+      <c r="M1502" s="62"/>
       <c r="Q1502" s="62"/>
       <c r="R1502" s="62"/>
       <c r="S1502" s="1"/>
@@ -32744,6 +33244,7 @@
         <f aca="false">J1503*K1503</f>
         <v>0</v>
       </c>
+      <c r="M1503" s="62"/>
       <c r="Q1503" s="62"/>
       <c r="R1503" s="62"/>
       <c r="S1503" s="1"/>
@@ -32758,6 +33259,7 @@
         <f aca="false">J1504*K1504</f>
         <v>0</v>
       </c>
+      <c r="M1504" s="62"/>
       <c r="Q1504" s="62"/>
       <c r="R1504" s="62"/>
       <c r="S1504" s="1"/>
@@ -32772,6 +33274,7 @@
         <f aca="false">J1505*K1505</f>
         <v>0</v>
       </c>
+      <c r="M1505" s="62"/>
       <c r="Q1505" s="62"/>
       <c r="R1505" s="62"/>
       <c r="S1505" s="1"/>
@@ -32786,6 +33289,7 @@
         <f aca="false">J1506*K1506</f>
         <v>0</v>
       </c>
+      <c r="M1506" s="62"/>
       <c r="Q1506" s="62"/>
       <c r="R1506" s="62"/>
       <c r="S1506" s="1"/>
@@ -32800,6 +33304,7 @@
         <f aca="false">J1507*K1507</f>
         <v>0</v>
       </c>
+      <c r="M1507" s="62"/>
       <c r="Q1507" s="62"/>
       <c r="R1507" s="62"/>
       <c r="S1507" s="1"/>
@@ -32814,6 +33319,7 @@
         <f aca="false">J1508*K1508</f>
         <v>0</v>
       </c>
+      <c r="M1508" s="62"/>
       <c r="Q1508" s="62"/>
       <c r="R1508" s="62"/>
       <c r="S1508" s="1"/>
@@ -32828,6 +33334,7 @@
         <f aca="false">J1509*K1509</f>
         <v>0</v>
       </c>
+      <c r="M1509" s="62"/>
       <c r="Q1509" s="62"/>
       <c r="R1509" s="62"/>
       <c r="S1509" s="1"/>
@@ -32842,6 +33349,7 @@
         <f aca="false">J1510*K1510</f>
         <v>0</v>
       </c>
+      <c r="M1510" s="62"/>
       <c r="Q1510" s="62"/>
       <c r="R1510" s="62"/>
       <c r="S1510" s="1"/>
@@ -32856,6 +33364,7 @@
         <f aca="false">J1511*K1511</f>
         <v>0</v>
       </c>
+      <c r="M1511" s="62"/>
       <c r="Q1511" s="62"/>
       <c r="R1511" s="62"/>
       <c r="S1511" s="1"/>
@@ -32870,6 +33379,7 @@
         <f aca="false">J1512*K1512</f>
         <v>0</v>
       </c>
+      <c r="M1512" s="62"/>
       <c r="Q1512" s="62"/>
       <c r="R1512" s="62"/>
       <c r="S1512" s="1"/>
@@ -32884,6 +33394,7 @@
         <f aca="false">J1513*K1513</f>
         <v>0</v>
       </c>
+      <c r="M1513" s="62"/>
       <c r="Q1513" s="62"/>
       <c r="R1513" s="62"/>
       <c r="S1513" s="1"/>
@@ -32898,6 +33409,7 @@
         <f aca="false">J1514*K1514</f>
         <v>0</v>
       </c>
+      <c r="M1514" s="62"/>
       <c r="Q1514" s="62"/>
       <c r="R1514" s="62"/>
       <c r="S1514" s="1"/>
@@ -32912,6 +33424,7 @@
         <f aca="false">J1515*K1515</f>
         <v>0</v>
       </c>
+      <c r="M1515" s="62"/>
       <c r="Q1515" s="62"/>
       <c r="R1515" s="62"/>
       <c r="S1515" s="1"/>
@@ -32926,6 +33439,7 @@
         <f aca="false">J1516*K1516</f>
         <v>0</v>
       </c>
+      <c r="M1516" s="62"/>
       <c r="Q1516" s="62"/>
       <c r="R1516" s="62"/>
       <c r="S1516" s="1"/>
@@ -32940,6 +33454,7 @@
         <f aca="false">J1517*K1517</f>
         <v>0</v>
       </c>
+      <c r="M1517" s="62"/>
       <c r="Q1517" s="62"/>
       <c r="R1517" s="62"/>
       <c r="S1517" s="1"/>
@@ -32954,6 +33469,7 @@
         <f aca="false">J1518*K1518</f>
         <v>0</v>
       </c>
+      <c r="M1518" s="62"/>
       <c r="Q1518" s="62"/>
       <c r="R1518" s="62"/>
       <c r="S1518" s="1"/>
@@ -32968,6 +33484,7 @@
         <f aca="false">J1519*K1519</f>
         <v>0</v>
       </c>
+      <c r="M1519" s="62"/>
       <c r="Q1519" s="62"/>
       <c r="R1519" s="62"/>
       <c r="S1519" s="1"/>
@@ -32982,6 +33499,7 @@
         <f aca="false">J1520*K1520</f>
         <v>0</v>
       </c>
+      <c r="M1520" s="62"/>
       <c r="Q1520" s="62"/>
       <c r="R1520" s="62"/>
       <c r="S1520" s="1"/>
@@ -32996,6 +33514,7 @@
         <f aca="false">J1521*K1521</f>
         <v>0</v>
       </c>
+      <c r="M1521" s="62"/>
       <c r="Q1521" s="62"/>
       <c r="R1521" s="62"/>
       <c r="S1521" s="1"/>
@@ -33010,6 +33529,7 @@
         <f aca="false">J1522*K1522</f>
         <v>0</v>
       </c>
+      <c r="M1522" s="62"/>
       <c r="Q1522" s="62"/>
       <c r="R1522" s="62"/>
       <c r="S1522" s="1"/>
@@ -33024,6 +33544,7 @@
         <f aca="false">J1523*K1523</f>
         <v>0</v>
       </c>
+      <c r="M1523" s="62"/>
       <c r="Q1523" s="62"/>
       <c r="R1523" s="62"/>
       <c r="S1523" s="1"/>
@@ -33038,6 +33559,7 @@
         <f aca="false">J1524*K1524</f>
         <v>0</v>
       </c>
+      <c r="M1524" s="62"/>
       <c r="Q1524" s="62"/>
       <c r="R1524" s="62"/>
       <c r="S1524" s="1"/>
@@ -33052,6 +33574,7 @@
         <f aca="false">J1525*K1525</f>
         <v>0</v>
       </c>
+      <c r="M1525" s="62"/>
       <c r="Q1525" s="62"/>
       <c r="R1525" s="62"/>
       <c r="S1525" s="1"/>
@@ -33066,6 +33589,7 @@
         <f aca="false">J1526*K1526</f>
         <v>0</v>
       </c>
+      <c r="M1526" s="62"/>
       <c r="Q1526" s="62"/>
       <c r="R1526" s="62"/>
       <c r="S1526" s="1"/>
@@ -33080,6 +33604,7 @@
         <f aca="false">J1527*K1527</f>
         <v>0</v>
       </c>
+      <c r="M1527" s="62"/>
       <c r="Q1527" s="62"/>
       <c r="R1527" s="62"/>
       <c r="S1527" s="1"/>
@@ -33094,6 +33619,7 @@
         <f aca="false">J1528*K1528</f>
         <v>0</v>
       </c>
+      <c r="M1528" s="62"/>
       <c r="Q1528" s="62"/>
       <c r="R1528" s="62"/>
       <c r="S1528" s="1"/>
@@ -33108,6 +33634,7 @@
         <f aca="false">J1529*K1529</f>
         <v>0</v>
       </c>
+      <c r="M1529" s="62"/>
       <c r="Q1529" s="62"/>
       <c r="R1529" s="62"/>
       <c r="S1529" s="1"/>
@@ -33122,6 +33649,7 @@
         <f aca="false">J1530*K1530</f>
         <v>0</v>
       </c>
+      <c r="M1530" s="62"/>
       <c r="Q1530" s="62"/>
       <c r="R1530" s="62"/>
       <c r="S1530" s="1"/>
@@ -33136,6 +33664,7 @@
         <f aca="false">J1531*K1531</f>
         <v>0</v>
       </c>
+      <c r="M1531" s="62"/>
       <c r="Q1531" s="62"/>
       <c r="R1531" s="62"/>
       <c r="S1531" s="1"/>
@@ -33150,6 +33679,7 @@
         <f aca="false">J1532*K1532</f>
         <v>0</v>
       </c>
+      <c r="M1532" s="62"/>
       <c r="Q1532" s="62"/>
       <c r="R1532" s="62"/>
       <c r="S1532" s="1"/>
@@ -33164,6 +33694,7 @@
         <f aca="false">J1533*K1533</f>
         <v>0</v>
       </c>
+      <c r="M1533" s="62"/>
       <c r="Q1533" s="62"/>
       <c r="R1533" s="62"/>
       <c r="S1533" s="1"/>
@@ -33178,6 +33709,7 @@
         <f aca="false">J1534*K1534</f>
         <v>0</v>
       </c>
+      <c r="M1534" s="62"/>
       <c r="Q1534" s="62"/>
       <c r="R1534" s="62"/>
       <c r="S1534" s="1"/>
@@ -33192,6 +33724,7 @@
         <f aca="false">J1535*K1535</f>
         <v>0</v>
       </c>
+      <c r="M1535" s="62"/>
       <c r="Q1535" s="62"/>
       <c r="R1535" s="62"/>
       <c r="S1535" s="1"/>
@@ -33206,6 +33739,7 @@
         <f aca="false">J1536*K1536</f>
         <v>0</v>
       </c>
+      <c r="M1536" s="62"/>
       <c r="Q1536" s="62"/>
       <c r="R1536" s="62"/>
       <c r="S1536" s="1"/>
@@ -33220,6 +33754,7 @@
         <f aca="false">J1537*K1537</f>
         <v>0</v>
       </c>
+      <c r="M1537" s="62"/>
       <c r="Q1537" s="62"/>
       <c r="R1537" s="62"/>
       <c r="S1537" s="1"/>
@@ -33234,6 +33769,7 @@
         <f aca="false">J1538*K1538</f>
         <v>0</v>
       </c>
+      <c r="M1538" s="62"/>
       <c r="Q1538" s="62"/>
       <c r="R1538" s="62"/>
       <c r="S1538" s="1"/>
@@ -33248,6 +33784,7 @@
         <f aca="false">J1539*K1539</f>
         <v>0</v>
       </c>
+      <c r="M1539" s="62"/>
       <c r="Q1539" s="62"/>
       <c r="R1539" s="62"/>
       <c r="S1539" s="1"/>
@@ -33262,6 +33799,7 @@
         <f aca="false">J1540*K1540</f>
         <v>0</v>
       </c>
+      <c r="M1540" s="62"/>
       <c r="Q1540" s="62"/>
       <c r="R1540" s="62"/>
       <c r="S1540" s="1"/>
@@ -33275,6 +33813,7 @@
         <f aca="false">J1541*K1541</f>
         <v>0</v>
       </c>
+      <c r="M1541" s="62"/>
       <c r="Q1541" s="62"/>
       <c r="R1541" s="62"/>
       <c r="S1541" s="1"/>
@@ -33288,6 +33827,7 @@
         <f aca="false">J1542*K1542</f>
         <v>0</v>
       </c>
+      <c r="M1542" s="62"/>
       <c r="Q1542" s="62"/>
       <c r="R1542" s="62"/>
       <c r="S1542" s="1"/>
@@ -33301,6 +33841,7 @@
         <f aca="false">J1543*K1543</f>
         <v>0</v>
       </c>
+      <c r="M1543" s="62"/>
       <c r="Q1543" s="62"/>
       <c r="R1543" s="62"/>
       <c r="S1543" s="1"/>
@@ -33314,6 +33855,7 @@
         <f aca="false">J1544*K1544</f>
         <v>0</v>
       </c>
+      <c r="M1544" s="62"/>
       <c r="Q1544" s="62"/>
       <c r="R1544" s="62"/>
       <c r="S1544" s="1"/>
@@ -33327,6 +33869,7 @@
         <f aca="false">J1545*K1545</f>
         <v>0</v>
       </c>
+      <c r="M1545" s="62"/>
       <c r="Q1545" s="62"/>
       <c r="R1545" s="62"/>
       <c r="S1545" s="1"/>
@@ -33340,6 +33883,7 @@
         <f aca="false">J1546*K1546</f>
         <v>0</v>
       </c>
+      <c r="M1546" s="62"/>
       <c r="Q1546" s="62"/>
       <c r="R1546" s="62"/>
       <c r="S1546" s="1"/>
@@ -33353,6 +33897,7 @@
         <f aca="false">J1547*K1547</f>
         <v>0</v>
       </c>
+      <c r="M1547" s="62"/>
       <c r="Q1547" s="62"/>
       <c r="R1547" s="62"/>
       <c r="S1547" s="1"/>
@@ -33366,6 +33911,7 @@
         <f aca="false">J1548*K1548</f>
         <v>0</v>
       </c>
+      <c r="M1548" s="62"/>
       <c r="Q1548" s="62"/>
       <c r="R1548" s="62"/>
       <c r="S1548" s="1"/>
@@ -33379,6 +33925,7 @@
         <f aca="false">J1549*K1549</f>
         <v>0</v>
       </c>
+      <c r="M1549" s="62"/>
       <c r="Q1549" s="62"/>
       <c r="R1549" s="62"/>
       <c r="S1549" s="1"/>
@@ -33392,6 +33939,7 @@
         <f aca="false">J1550*K1550</f>
         <v>0</v>
       </c>
+      <c r="M1550" s="62"/>
       <c r="Q1550" s="62"/>
       <c r="R1550" s="62"/>
       <c r="S1550" s="1"/>
@@ -33405,6 +33953,7 @@
         <f aca="false">J1551*K1551</f>
         <v>0</v>
       </c>
+      <c r="M1551" s="62"/>
       <c r="Q1551" s="62"/>
       <c r="R1551" s="62"/>
       <c r="S1551" s="1"/>
@@ -33418,6 +33967,7 @@
         <f aca="false">J1552*K1552</f>
         <v>0</v>
       </c>
+      <c r="M1552" s="62"/>
       <c r="Q1552" s="62"/>
       <c r="R1552" s="62"/>
       <c r="S1552" s="1"/>
@@ -33431,6 +33981,7 @@
         <f aca="false">J1553*K1553</f>
         <v>0</v>
       </c>
+      <c r="M1553" s="62"/>
       <c r="Q1553" s="62"/>
       <c r="R1553" s="62"/>
       <c r="S1553" s="1"/>
@@ -33444,6 +33995,7 @@
         <f aca="false">J1554*K1554</f>
         <v>0</v>
       </c>
+      <c r="M1554" s="62"/>
       <c r="Q1554" s="62"/>
       <c r="R1554" s="62"/>
       <c r="S1554" s="1"/>
@@ -33457,6 +34009,7 @@
         <f aca="false">J1555*K1555</f>
         <v>0</v>
       </c>
+      <c r="M1555" s="62"/>
       <c r="Q1555" s="62"/>
       <c r="R1555" s="62"/>
       <c r="S1555" s="1"/>
@@ -33470,6 +34023,7 @@
         <f aca="false">J1556*K1556</f>
         <v>0</v>
       </c>
+      <c r="M1556" s="62"/>
       <c r="Q1556" s="62"/>
       <c r="R1556" s="62"/>
       <c r="S1556" s="1"/>
@@ -33483,6 +34037,7 @@
         <f aca="false">J1557*K1557</f>
         <v>0</v>
       </c>
+      <c r="M1557" s="62"/>
       <c r="Q1557" s="62"/>
       <c r="R1557" s="62"/>
       <c r="S1557" s="1"/>
@@ -33496,6 +34051,7 @@
         <f aca="false">J1558*K1558</f>
         <v>0</v>
       </c>
+      <c r="M1558" s="62"/>
       <c r="Q1558" s="62"/>
       <c r="R1558" s="62"/>
       <c r="S1558" s="1"/>
@@ -33509,6 +34065,7 @@
         <f aca="false">J1559*K1559</f>
         <v>0</v>
       </c>
+      <c r="M1559" s="62"/>
       <c r="Q1559" s="62"/>
       <c r="R1559" s="62"/>
       <c r="S1559" s="1"/>
@@ -33522,6 +34079,7 @@
         <f aca="false">J1560*K1560</f>
         <v>0</v>
       </c>
+      <c r="M1560" s="62"/>
       <c r="Q1560" s="62"/>
       <c r="R1560" s="62"/>
       <c r="S1560" s="1"/>
@@ -33535,6 +34093,7 @@
         <f aca="false">J1561*K1561</f>
         <v>0</v>
       </c>
+      <c r="M1561" s="62"/>
       <c r="Q1561" s="62"/>
       <c r="R1561" s="62"/>
       <c r="S1561" s="1"/>
@@ -33548,6 +34107,7 @@
         <f aca="false">J1562*K1562</f>
         <v>0</v>
       </c>
+      <c r="M1562" s="62"/>
       <c r="Q1562" s="62"/>
       <c r="R1562" s="62"/>
       <c r="S1562" s="1"/>
@@ -33561,6 +34121,7 @@
         <f aca="false">J1563*K1563</f>
         <v>0</v>
       </c>
+      <c r="M1563" s="62"/>
       <c r="Q1563" s="62"/>
       <c r="R1563" s="62"/>
       <c r="S1563" s="1"/>
@@ -33574,6 +34135,7 @@
         <f aca="false">J1564*K1564</f>
         <v>0</v>
       </c>
+      <c r="M1564" s="62"/>
       <c r="Q1564" s="62"/>
       <c r="R1564" s="62"/>
       <c r="S1564" s="1"/>
@@ -33587,6 +34149,7 @@
         <f aca="false">J1565*K1565</f>
         <v>0</v>
       </c>
+      <c r="M1565" s="62"/>
       <c r="Q1565" s="62"/>
       <c r="R1565" s="62"/>
       <c r="S1565" s="1"/>
@@ -33600,6 +34163,7 @@
         <f aca="false">J1566*K1566</f>
         <v>0</v>
       </c>
+      <c r="M1566" s="62"/>
       <c r="Q1566" s="62"/>
       <c r="R1566" s="62"/>
       <c r="S1566" s="1"/>
@@ -33613,6 +34177,7 @@
         <f aca="false">J1567*K1567</f>
         <v>0</v>
       </c>
+      <c r="M1567" s="62"/>
       <c r="Q1567" s="62"/>
       <c r="R1567" s="62"/>
       <c r="S1567" s="1"/>
@@ -33626,6 +34191,7 @@
         <f aca="false">J1568*K1568</f>
         <v>0</v>
       </c>
+      <c r="M1568" s="62"/>
       <c r="Q1568" s="62"/>
       <c r="R1568" s="62"/>
       <c r="S1568" s="1"/>
@@ -33639,6 +34205,7 @@
         <f aca="false">J1569*K1569</f>
         <v>0</v>
       </c>
+      <c r="M1569" s="62"/>
       <c r="Q1569" s="62"/>
       <c r="R1569" s="62"/>
       <c r="S1569" s="1"/>
@@ -33652,6 +34219,7 @@
         <f aca="false">J1570*K1570</f>
         <v>0</v>
       </c>
+      <c r="M1570" s="62"/>
       <c r="Q1570" s="62"/>
       <c r="R1570" s="62"/>
       <c r="S1570" s="1"/>
@@ -33665,6 +34233,7 @@
         <f aca="false">J1571*K1571</f>
         <v>0</v>
       </c>
+      <c r="M1571" s="62"/>
       <c r="Q1571" s="62"/>
       <c r="R1571" s="62"/>
       <c r="S1571" s="1"/>
@@ -33678,6 +34247,7 @@
         <f aca="false">J1572*K1572</f>
         <v>0</v>
       </c>
+      <c r="M1572" s="62"/>
       <c r="Q1572" s="62"/>
       <c r="R1572" s="62"/>
       <c r="S1572" s="1"/>
@@ -33691,6 +34261,7 @@
         <f aca="false">J1573*K1573</f>
         <v>0</v>
       </c>
+      <c r="M1573" s="62"/>
       <c r="Q1573" s="62"/>
       <c r="R1573" s="62"/>
       <c r="S1573" s="1"/>
@@ -33704,6 +34275,7 @@
         <f aca="false">J1574*K1574</f>
         <v>0</v>
       </c>
+      <c r="M1574" s="62"/>
       <c r="Q1574" s="62"/>
       <c r="R1574" s="62"/>
       <c r="S1574" s="1"/>
@@ -33717,6 +34289,7 @@
         <f aca="false">J1575*K1575</f>
         <v>0</v>
       </c>
+      <c r="M1575" s="62"/>
       <c r="Q1575" s="62"/>
       <c r="R1575" s="62"/>
       <c r="S1575" s="1"/>
@@ -33730,6 +34303,7 @@
         <f aca="false">J1576*K1576</f>
         <v>0</v>
       </c>
+      <c r="M1576" s="62"/>
       <c r="Q1576" s="62"/>
       <c r="R1576" s="62"/>
       <c r="S1576" s="1"/>
@@ -33743,6 +34317,7 @@
         <f aca="false">J1577*K1577</f>
         <v>0</v>
       </c>
+      <c r="M1577" s="62"/>
       <c r="R1577" s="62"/>
       <c r="S1577" s="1"/>
       <c r="T1577" s="1"/>
@@ -33755,6 +34330,7 @@
         <f aca="false">J1578*K1578</f>
         <v>0</v>
       </c>
+      <c r="M1578" s="62"/>
       <c r="R1578" s="62"/>
       <c r="S1578" s="1"/>
       <c r="T1578" s="1"/>
@@ -33767,6 +34343,7 @@
         <f aca="false">J1579*K1579</f>
         <v>0</v>
       </c>
+      <c r="M1579" s="62"/>
       <c r="R1579" s="62"/>
       <c r="S1579" s="1"/>
       <c r="T1579" s="1"/>
@@ -33779,6 +34356,7 @@
         <f aca="false">J1580*K1580</f>
         <v>0</v>
       </c>
+      <c r="M1580" s="62"/>
       <c r="R1580" s="62"/>
       <c r="S1580" s="1"/>
       <c r="T1580" s="1"/>
@@ -33791,6 +34369,7 @@
         <f aca="false">J1581*K1581</f>
         <v>0</v>
       </c>
+      <c r="M1581" s="62"/>
       <c r="R1581" s="62"/>
       <c r="S1581" s="1"/>
       <c r="T1581" s="1"/>
@@ -33803,6 +34382,7 @@
         <f aca="false">J1582*K1582</f>
         <v>0</v>
       </c>
+      <c r="M1582" s="62"/>
       <c r="R1582" s="62"/>
       <c r="S1582" s="1"/>
       <c r="T1582" s="1"/>
@@ -33815,6 +34395,7 @@
         <f aca="false">J1583*K1583</f>
         <v>0</v>
       </c>
+      <c r="M1583" s="62"/>
       <c r="R1583" s="62"/>
       <c r="S1583" s="1"/>
       <c r="T1583" s="1"/>
@@ -33827,6 +34408,7 @@
         <f aca="false">J1584*K1584</f>
         <v>0</v>
       </c>
+      <c r="M1584" s="62"/>
       <c r="R1584" s="62"/>
       <c r="S1584" s="1"/>
       <c r="T1584" s="1"/>
@@ -33839,6 +34421,7 @@
         <f aca="false">J1585*K1585</f>
         <v>0</v>
       </c>
+      <c r="M1585" s="62"/>
       <c r="R1585" s="62"/>
       <c r="S1585" s="1"/>
       <c r="T1585" s="1"/>
@@ -33851,6 +34434,7 @@
         <f aca="false">J1586*K1586</f>
         <v>0</v>
       </c>
+      <c r="M1586" s="62"/>
       <c r="R1586" s="62"/>
       <c r="S1586" s="1"/>
       <c r="T1586" s="1"/>
@@ -33863,6 +34447,7 @@
         <f aca="false">J1587*K1587</f>
         <v>0</v>
       </c>
+      <c r="M1587" s="62"/>
       <c r="R1587" s="62"/>
       <c r="S1587" s="1"/>
       <c r="T1587" s="1"/>
@@ -33875,6 +34460,7 @@
         <f aca="false">J1588*K1588</f>
         <v>0</v>
       </c>
+      <c r="M1588" s="62"/>
       <c r="R1588" s="62"/>
       <c r="S1588" s="1"/>
       <c r="T1588" s="1"/>
@@ -33887,6 +34473,7 @@
         <f aca="false">J1589*K1589</f>
         <v>0</v>
       </c>
+      <c r="M1589" s="62"/>
       <c r="R1589" s="62"/>
       <c r="S1589" s="1"/>
       <c r="T1589" s="1"/>
@@ -33899,6 +34486,7 @@
         <f aca="false">J1590*K1590</f>
         <v>0</v>
       </c>
+      <c r="M1590" s="62"/>
       <c r="R1590" s="62"/>
       <c r="S1590" s="1"/>
       <c r="T1590" s="1"/>
@@ -33911,6 +34499,7 @@
         <f aca="false">J1591*K1591</f>
         <v>0</v>
       </c>
+      <c r="M1591" s="62"/>
       <c r="R1591" s="62"/>
       <c r="S1591" s="1"/>
       <c r="T1591" s="1"/>
@@ -33923,6 +34512,7 @@
         <f aca="false">J1592*K1592</f>
         <v>0</v>
       </c>
+      <c r="M1592" s="62"/>
       <c r="R1592" s="62"/>
       <c r="S1592" s="1"/>
       <c r="T1592" s="1"/>
@@ -33935,6 +34525,7 @@
         <f aca="false">J1593*K1593</f>
         <v>0</v>
       </c>
+      <c r="M1593" s="62"/>
       <c r="R1593" s="62"/>
       <c r="S1593" s="1"/>
       <c r="T1593" s="1"/>
@@ -33947,6 +34538,7 @@
         <f aca="false">J1594*K1594</f>
         <v>0</v>
       </c>
+      <c r="M1594" s="62"/>
       <c r="R1594" s="62"/>
       <c r="S1594" s="1"/>
       <c r="T1594" s="1"/>
@@ -33959,6 +34551,7 @@
         <f aca="false">J1595*K1595</f>
         <v>0</v>
       </c>
+      <c r="M1595" s="62"/>
       <c r="R1595" s="62"/>
       <c r="S1595" s="1"/>
       <c r="T1595" s="1"/>
@@ -33971,6 +34564,7 @@
         <f aca="false">J1596*K1596</f>
         <v>0</v>
       </c>
+      <c r="M1596" s="62"/>
       <c r="R1596" s="62"/>
       <c r="S1596" s="1"/>
       <c r="T1596" s="1"/>
@@ -33983,6 +34577,7 @@
         <f aca="false">J1597*K1597</f>
         <v>0</v>
       </c>
+      <c r="M1597" s="62"/>
       <c r="R1597" s="62"/>
       <c r="S1597" s="1"/>
       <c r="T1597" s="1"/>
@@ -33995,6 +34590,7 @@
         <f aca="false">J1598*K1598</f>
         <v>0</v>
       </c>
+      <c r="M1598" s="62"/>
       <c r="R1598" s="62"/>
       <c r="S1598" s="1"/>
       <c r="T1598" s="1"/>
@@ -34007,6 +34603,7 @@
         <f aca="false">J1599*K1599</f>
         <v>0</v>
       </c>
+      <c r="M1599" s="62"/>
       <c r="R1599" s="62"/>
       <c r="S1599" s="1"/>
       <c r="T1599" s="1"/>
@@ -34019,6 +34616,7 @@
         <f aca="false">J1600*K1600</f>
         <v>0</v>
       </c>
+      <c r="M1600" s="62"/>
       <c r="R1600" s="62"/>
       <c r="S1600" s="1"/>
       <c r="T1600" s="1"/>
@@ -34994,15 +35592,7 @@
       <formula1>Справочники!$C$2:$C$96</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7" type="list">
-      <formula1>Справочники!$A$2:$A$246</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M8" type="list">
-      <formula1>Справочники!$A$2:$A$246</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M9:M1003" type="list">
       <formula1>Справочники!$A$2:$A$246</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -35034,6 +35624,14 @@
       <formula1>Справочники!$B$2:$B$118</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7" type="list">
+      <formula1>Справочники!$A$2:$A$243</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M9:M1600" type="list">
+      <formula1>Справочники!$A$2:$A$243</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.511811023622047" footer="0.511811023622047"/>
@@ -35052,8 +35650,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/download_dir/обувь_по коробам.xlsx
+++ b/app/download_dir/обувь_по коробам.xlsx
@@ -840,7 +840,7 @@
     <t xml:space="preserve">Полиэфир</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">БОТЫ СПЕЦИАЛЬНЫЕ</t>
@@ -3767,7 +3767,7 @@
     <numFmt numFmtId="168" formatCode="[$-419]dd\.mm\.yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4039,6 +4039,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4304,7 +4310,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4665,6 +4671,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="38" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4685,7 +4695,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -35650,7 +35660,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -36293,7 +36303,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="89" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -38426,7 +38436,7 @@
       <c r="E168" s="84"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="89" t="s">
+      <c r="A169" s="90" t="s">
         <v>799</v>
       </c>
       <c r="B169" s="84"/>
@@ -39101,2277 +39111,2277 @@
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="84"/>
-      <c r="E244" s="90"/>
+      <c r="E244" s="91"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="84"/>
-      <c r="E245" s="90"/>
+      <c r="E245" s="91"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="84"/>
-      <c r="E246" s="90"/>
+      <c r="E246" s="91"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="90"/>
+      <c r="E247" s="91"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="90"/>
+      <c r="E248" s="91"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="90"/>
+      <c r="E249" s="91"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="90"/>
+      <c r="E250" s="91"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="90"/>
+      <c r="E251" s="91"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="90"/>
+      <c r="E252" s="91"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="90"/>
+      <c r="E253" s="91"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="90"/>
+      <c r="E254" s="91"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="90"/>
+      <c r="E255" s="91"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="90"/>
+      <c r="E256" s="91"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="90"/>
+      <c r="E257" s="91"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="90"/>
+      <c r="E258" s="91"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="90"/>
+      <c r="E259" s="91"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="90"/>
+      <c r="E260" s="91"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="90"/>
+      <c r="E261" s="91"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="90"/>
+      <c r="E262" s="91"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="90"/>
+      <c r="E263" s="91"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="90"/>
+      <c r="E264" s="91"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="90"/>
+      <c r="E265" s="91"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="90"/>
+      <c r="E266" s="91"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="90"/>
+      <c r="E267" s="91"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="90"/>
+      <c r="E268" s="91"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="90"/>
+      <c r="E269" s="91"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="90"/>
+      <c r="E270" s="91"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="90"/>
+      <c r="E271" s="91"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="90"/>
+      <c r="E272" s="91"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="90"/>
+      <c r="E273" s="91"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="90"/>
+      <c r="E274" s="91"/>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="90"/>
+      <c r="E275" s="91"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="90"/>
+      <c r="E276" s="91"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="90"/>
+      <c r="E277" s="91"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="90"/>
+      <c r="E278" s="91"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="90"/>
+      <c r="E279" s="91"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="90"/>
+      <c r="E280" s="91"/>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="90"/>
+      <c r="E281" s="91"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="90"/>
+      <c r="E282" s="91"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="90"/>
+      <c r="E283" s="91"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="90"/>
+      <c r="E284" s="91"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="90"/>
+      <c r="E285" s="91"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="90"/>
+      <c r="E286" s="91"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="90"/>
+      <c r="E287" s="91"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="90"/>
+      <c r="E288" s="91"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="90"/>
+      <c r="E289" s="91"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="90"/>
+      <c r="E290" s="91"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="90"/>
+      <c r="E291" s="91"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="90"/>
+      <c r="E292" s="91"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="90"/>
+      <c r="E293" s="91"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="90"/>
+      <c r="E294" s="91"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="90"/>
+      <c r="E295" s="91"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="90"/>
+      <c r="E296" s="91"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="90"/>
+      <c r="E297" s="91"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="90"/>
+      <c r="E298" s="91"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="90"/>
+      <c r="E299" s="91"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="90"/>
+      <c r="E300" s="91"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="90"/>
+      <c r="E301" s="91"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="90"/>
+      <c r="E302" s="91"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="90"/>
+      <c r="E303" s="91"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="90"/>
+      <c r="E304" s="91"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="90"/>
+      <c r="E305" s="91"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="90"/>
+      <c r="E306" s="91"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="90"/>
+      <c r="E307" s="91"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="90"/>
+      <c r="E308" s="91"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="90"/>
+      <c r="E309" s="91"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="90"/>
+      <c r="E310" s="91"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="90"/>
+      <c r="E311" s="91"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="90"/>
+      <c r="E312" s="91"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="90"/>
+      <c r="E313" s="91"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="90"/>
+      <c r="E314" s="91"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="90"/>
+      <c r="E315" s="91"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="90"/>
+      <c r="E316" s="91"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="90"/>
+      <c r="E317" s="91"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="90"/>
+      <c r="E318" s="91"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="90"/>
+      <c r="E319" s="91"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="90"/>
+      <c r="E320" s="91"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="90"/>
+      <c r="E321" s="91"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="90"/>
+      <c r="E322" s="91"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="90"/>
+      <c r="E323" s="91"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="90"/>
+      <c r="E324" s="91"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="90"/>
+      <c r="E325" s="91"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="90"/>
+      <c r="E326" s="91"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="90"/>
+      <c r="E327" s="91"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="90"/>
+      <c r="E328" s="91"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="90"/>
+      <c r="E329" s="91"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="90"/>
+      <c r="E330" s="91"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="90"/>
+      <c r="E331" s="91"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="90"/>
+      <c r="E332" s="91"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="90"/>
+      <c r="E333" s="91"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="90"/>
+      <c r="E334" s="91"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="90"/>
+      <c r="E335" s="91"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="90"/>
+      <c r="E336" s="91"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="90"/>
+      <c r="E337" s="91"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="90"/>
+      <c r="E338" s="91"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="90"/>
+      <c r="E339" s="91"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="90"/>
+      <c r="E340" s="91"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="90"/>
+      <c r="E341" s="91"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="90"/>
+      <c r="E342" s="91"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="90"/>
+      <c r="E343" s="91"/>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="90"/>
+      <c r="E344" s="91"/>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="90"/>
+      <c r="E345" s="91"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="90"/>
+      <c r="E346" s="91"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="90"/>
+      <c r="E347" s="91"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="90"/>
+      <c r="E348" s="91"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="90"/>
+      <c r="E349" s="91"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="90"/>
+      <c r="E350" s="91"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="90"/>
+      <c r="E351" s="91"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="90"/>
+      <c r="E352" s="91"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="90"/>
+      <c r="E353" s="91"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="90"/>
+      <c r="E354" s="91"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="90"/>
+      <c r="E355" s="91"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="90"/>
+      <c r="E356" s="91"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="90"/>
+      <c r="E357" s="91"/>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="90"/>
+      <c r="E358" s="91"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="90"/>
+      <c r="E359" s="91"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="90"/>
+      <c r="E360" s="91"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="90"/>
+      <c r="E361" s="91"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="90"/>
+      <c r="E362" s="91"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="90"/>
+      <c r="E363" s="91"/>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="90"/>
+      <c r="E364" s="91"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="90"/>
+      <c r="E365" s="91"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="90"/>
+      <c r="E366" s="91"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="90"/>
+      <c r="E367" s="91"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="90"/>
+      <c r="E368" s="91"/>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="90"/>
+      <c r="E369" s="91"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="90"/>
+      <c r="E370" s="91"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="90"/>
+      <c r="E371" s="91"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="90"/>
+      <c r="E372" s="91"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="90"/>
+      <c r="E373" s="91"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="90"/>
+      <c r="E374" s="91"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="90"/>
+      <c r="E375" s="91"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="90"/>
+      <c r="E376" s="91"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="90"/>
+      <c r="E377" s="91"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="90"/>
+      <c r="E378" s="91"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="90"/>
+      <c r="E379" s="91"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="90"/>
+      <c r="E380" s="91"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="90"/>
+      <c r="E381" s="91"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="90"/>
+      <c r="E382" s="91"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="90"/>
+      <c r="E383" s="91"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="90"/>
+      <c r="E384" s="91"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="90"/>
+      <c r="E385" s="91"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="90"/>
+      <c r="E386" s="91"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="90"/>
+      <c r="E387" s="91"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="90"/>
+      <c r="E388" s="91"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="90"/>
+      <c r="E389" s="91"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="90"/>
+      <c r="E390" s="91"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="90"/>
+      <c r="E391" s="91"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="90"/>
+      <c r="E392" s="91"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="90"/>
+      <c r="E393" s="91"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="90"/>
+      <c r="E394" s="91"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="90"/>
+      <c r="E395" s="91"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="90"/>
+      <c r="E396" s="91"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="90"/>
+      <c r="E397" s="91"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="90"/>
+      <c r="E398" s="91"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="90"/>
+      <c r="E399" s="91"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="90"/>
+      <c r="E400" s="91"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="90"/>
+      <c r="E401" s="91"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="90"/>
+      <c r="E402" s="91"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="90"/>
+      <c r="E403" s="91"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="90"/>
+      <c r="E404" s="91"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="90"/>
+      <c r="E405" s="91"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="90"/>
+      <c r="E406" s="91"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="90"/>
+      <c r="E407" s="91"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="90"/>
+      <c r="E408" s="91"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="90"/>
+      <c r="E409" s="91"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="90"/>
+      <c r="E410" s="91"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="90"/>
+      <c r="E411" s="91"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="90"/>
+      <c r="E412" s="91"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="90"/>
+      <c r="E413" s="91"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="90"/>
+      <c r="E414" s="91"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="90"/>
+      <c r="E415" s="91"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="90"/>
+      <c r="E416" s="91"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="90"/>
+      <c r="E417" s="91"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="90"/>
+      <c r="E418" s="91"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="90"/>
+      <c r="E419" s="91"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="90"/>
+      <c r="E420" s="91"/>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="90"/>
+      <c r="E421" s="91"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="90"/>
+      <c r="E422" s="91"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="90"/>
+      <c r="E423" s="91"/>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="90"/>
+      <c r="E424" s="91"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="90"/>
+      <c r="E425" s="91"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="90"/>
+      <c r="E426" s="91"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="90"/>
+      <c r="E427" s="91"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="90"/>
+      <c r="E428" s="91"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="90"/>
+      <c r="E429" s="91"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="90"/>
+      <c r="E430" s="91"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="90"/>
+      <c r="E431" s="91"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="90"/>
+      <c r="E432" s="91"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="90"/>
+      <c r="E433" s="91"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="90"/>
+      <c r="E434" s="91"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="90"/>
+      <c r="E435" s="91"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="90"/>
+      <c r="E436" s="91"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="90"/>
+      <c r="E437" s="91"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="90"/>
+      <c r="E438" s="91"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="90"/>
+      <c r="E439" s="91"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="90"/>
+      <c r="E440" s="91"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="90"/>
+      <c r="E441" s="91"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="90"/>
+      <c r="E442" s="91"/>
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="90"/>
+      <c r="E443" s="91"/>
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="90"/>
+      <c r="E444" s="91"/>
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="90"/>
+      <c r="E445" s="91"/>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="90"/>
+      <c r="E446" s="91"/>
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="90"/>
+      <c r="E447" s="91"/>
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="90"/>
+      <c r="E448" s="91"/>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="90"/>
+      <c r="E449" s="91"/>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="90"/>
+      <c r="E450" s="91"/>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="90"/>
+      <c r="E451" s="91"/>
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="90"/>
+      <c r="E452" s="91"/>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="90"/>
+      <c r="E453" s="91"/>
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="90"/>
+      <c r="E454" s="91"/>
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="90"/>
+      <c r="E455" s="91"/>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="90"/>
+      <c r="E456" s="91"/>
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="90"/>
+      <c r="E457" s="91"/>
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="90"/>
+      <c r="E458" s="91"/>
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="90"/>
+      <c r="E459" s="91"/>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="90"/>
+      <c r="E460" s="91"/>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="90"/>
+      <c r="E461" s="91"/>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="90"/>
+      <c r="E462" s="91"/>
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="90"/>
+      <c r="E463" s="91"/>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="90"/>
+      <c r="E464" s="91"/>
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="90"/>
+      <c r="E465" s="91"/>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="90"/>
+      <c r="E466" s="91"/>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="90"/>
+      <c r="E467" s="91"/>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="90"/>
+      <c r="E468" s="91"/>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="90"/>
+      <c r="E469" s="91"/>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="90"/>
+      <c r="E470" s="91"/>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="90"/>
+      <c r="E471" s="91"/>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="90"/>
+      <c r="E472" s="91"/>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="90"/>
+      <c r="E473" s="91"/>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="90"/>
+      <c r="E474" s="91"/>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="90"/>
+      <c r="E475" s="91"/>
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="90"/>
+      <c r="E476" s="91"/>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="90"/>
+      <c r="E477" s="91"/>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="90"/>
+      <c r="E478" s="91"/>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="90"/>
+      <c r="E479" s="91"/>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="90"/>
+      <c r="E480" s="91"/>
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="90"/>
+      <c r="E481" s="91"/>
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="90"/>
+      <c r="E482" s="91"/>
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="90"/>
+      <c r="E483" s="91"/>
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="90"/>
+      <c r="E484" s="91"/>
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="90"/>
+      <c r="E485" s="91"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="90"/>
+      <c r="E486" s="91"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="90"/>
+      <c r="E487" s="91"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="90"/>
+      <c r="E488" s="91"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="90"/>
+      <c r="E489" s="91"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="90"/>
+      <c r="E490" s="91"/>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="90"/>
+      <c r="E491" s="91"/>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="90"/>
+      <c r="E492" s="91"/>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="90"/>
+      <c r="E493" s="91"/>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="90"/>
+      <c r="E494" s="91"/>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="90"/>
+      <c r="E495" s="91"/>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="90"/>
+      <c r="E496" s="91"/>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="90"/>
+      <c r="E497" s="91"/>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="90"/>
+      <c r="E498" s="91"/>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="90"/>
+      <c r="E499" s="91"/>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="90"/>
+      <c r="E500" s="91"/>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="90"/>
+      <c r="E501" s="91"/>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="90"/>
+      <c r="E502" s="91"/>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="90"/>
+      <c r="E503" s="91"/>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="90"/>
+      <c r="E504" s="91"/>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="90"/>
+      <c r="E505" s="91"/>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="90"/>
+      <c r="E506" s="91"/>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="90"/>
+      <c r="E507" s="91"/>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="90"/>
+      <c r="E508" s="91"/>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="90"/>
+      <c r="E509" s="91"/>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="90"/>
+      <c r="E510" s="91"/>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="90"/>
+      <c r="E511" s="91"/>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="90"/>
+      <c r="E512" s="91"/>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="90"/>
+      <c r="E513" s="91"/>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="90"/>
+      <c r="E514" s="91"/>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="90"/>
+      <c r="E515" s="91"/>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="90"/>
+      <c r="E516" s="91"/>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="90"/>
+      <c r="E517" s="91"/>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="90"/>
+      <c r="E518" s="91"/>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="90"/>
+      <c r="E519" s="91"/>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="90"/>
+      <c r="E520" s="91"/>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="90"/>
+      <c r="E521" s="91"/>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="90"/>
+      <c r="E522" s="91"/>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="90"/>
+      <c r="E523" s="91"/>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="90"/>
+      <c r="E524" s="91"/>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="90"/>
+      <c r="E525" s="91"/>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="90"/>
+      <c r="E526" s="91"/>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="90"/>
+      <c r="E527" s="91"/>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="90"/>
+      <c r="E528" s="91"/>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="90"/>
+      <c r="E529" s="91"/>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="90"/>
+      <c r="E530" s="91"/>
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="90"/>
+      <c r="E531" s="91"/>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="90"/>
+      <c r="E532" s="91"/>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="90"/>
+      <c r="E533" s="91"/>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="90"/>
+      <c r="E534" s="91"/>
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="90"/>
+      <c r="E535" s="91"/>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="90"/>
+      <c r="E536" s="91"/>
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="90"/>
+      <c r="E537" s="91"/>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="90"/>
+      <c r="E538" s="91"/>
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="90"/>
+      <c r="E539" s="91"/>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="90"/>
+      <c r="E540" s="91"/>
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="90"/>
+      <c r="E541" s="91"/>
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="90"/>
+      <c r="E542" s="91"/>
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="90"/>
+      <c r="E543" s="91"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="90"/>
+      <c r="E544" s="91"/>
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="90"/>
+      <c r="E545" s="91"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="90"/>
+      <c r="E546" s="91"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="90"/>
+      <c r="E547" s="91"/>
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="90"/>
+      <c r="E548" s="91"/>
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="90"/>
+      <c r="E549" s="91"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="90"/>
+      <c r="E550" s="91"/>
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="90"/>
+      <c r="E551" s="91"/>
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="90"/>
+      <c r="E552" s="91"/>
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="90"/>
+      <c r="E553" s="91"/>
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="90"/>
+      <c r="E554" s="91"/>
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="90"/>
+      <c r="E555" s="91"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="90"/>
+      <c r="E556" s="91"/>
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="90"/>
+      <c r="E557" s="91"/>
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="90"/>
+      <c r="E558" s="91"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="90"/>
+      <c r="E559" s="91"/>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="90"/>
+      <c r="E560" s="91"/>
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="90"/>
+      <c r="E561" s="91"/>
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="90"/>
+      <c r="E562" s="91"/>
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="90"/>
+      <c r="E563" s="91"/>
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="90"/>
+      <c r="E564" s="91"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="90"/>
+      <c r="E565" s="91"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="90"/>
+      <c r="E566" s="91"/>
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="90"/>
+      <c r="E567" s="91"/>
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="90"/>
+      <c r="E568" s="91"/>
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="90"/>
+      <c r="E569" s="91"/>
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="90"/>
+      <c r="E570" s="91"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="90"/>
+      <c r="E571" s="91"/>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="90"/>
+      <c r="E572" s="91"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="90"/>
+      <c r="E573" s="91"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="90"/>
+      <c r="E574" s="91"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="90"/>
+      <c r="E575" s="91"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="90"/>
+      <c r="E576" s="91"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="90"/>
+      <c r="E577" s="91"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="90"/>
+      <c r="E578" s="91"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="90"/>
+      <c r="E579" s="91"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="90"/>
+      <c r="E580" s="91"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="90"/>
+      <c r="E581" s="91"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="90"/>
+      <c r="E582" s="91"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="90"/>
+      <c r="E583" s="91"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="90"/>
+      <c r="E584" s="91"/>
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="90"/>
+      <c r="E585" s="91"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="90"/>
+      <c r="E586" s="91"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="90"/>
+      <c r="E587" s="91"/>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="90"/>
+      <c r="E588" s="91"/>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="90"/>
+      <c r="E589" s="91"/>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="90"/>
+      <c r="E590" s="91"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="90"/>
+      <c r="E591" s="91"/>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="90"/>
+      <c r="E592" s="91"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="90"/>
+      <c r="E593" s="91"/>
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="90"/>
+      <c r="E594" s="91"/>
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="90"/>
+      <c r="E595" s="91"/>
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="90"/>
+      <c r="E596" s="91"/>
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="90"/>
+      <c r="E597" s="91"/>
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="90"/>
+      <c r="E598" s="91"/>
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="90"/>
+      <c r="E599" s="91"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="90"/>
+      <c r="E600" s="91"/>
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="90"/>
+      <c r="E601" s="91"/>
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="90"/>
+      <c r="E602" s="91"/>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="90"/>
+      <c r="E603" s="91"/>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="90"/>
+      <c r="E604" s="91"/>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="90"/>
+      <c r="E605" s="91"/>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="90"/>
+      <c r="E606" s="91"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="90"/>
+      <c r="E607" s="91"/>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="90"/>
+      <c r="E608" s="91"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="90"/>
+      <c r="E609" s="91"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="90"/>
+      <c r="E610" s="91"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="90"/>
+      <c r="E611" s="91"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="90"/>
+      <c r="E612" s="91"/>
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="90"/>
+      <c r="E613" s="91"/>
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="90"/>
+      <c r="E614" s="91"/>
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="90"/>
+      <c r="E615" s="91"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="90"/>
+      <c r="E616" s="91"/>
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="90"/>
+      <c r="E617" s="91"/>
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="90"/>
+      <c r="E618" s="91"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="90"/>
+      <c r="E619" s="91"/>
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="90"/>
+      <c r="E620" s="91"/>
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="90"/>
+      <c r="E621" s="91"/>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="90"/>
+      <c r="E622" s="91"/>
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="90"/>
+      <c r="E623" s="91"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="90"/>
+      <c r="E624" s="91"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="90"/>
+      <c r="E625" s="91"/>
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="90"/>
+      <c r="E626" s="91"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="90"/>
+      <c r="E627" s="91"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="90"/>
+      <c r="E628" s="91"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="90"/>
+      <c r="E629" s="91"/>
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="90"/>
+      <c r="E630" s="91"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="90"/>
+      <c r="E631" s="91"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="90"/>
+      <c r="E632" s="91"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="90"/>
+      <c r="E633" s="91"/>
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="90"/>
+      <c r="E634" s="91"/>
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="90"/>
+      <c r="E635" s="91"/>
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="90"/>
+      <c r="E636" s="91"/>
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="90"/>
+      <c r="E637" s="91"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="90"/>
+      <c r="E638" s="91"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="90"/>
+      <c r="E639" s="91"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="90"/>
+      <c r="E640" s="91"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="90"/>
+      <c r="E641" s="91"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="90"/>
+      <c r="E642" s="91"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="90"/>
+      <c r="E643" s="91"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="90"/>
+      <c r="E644" s="91"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="90"/>
+      <c r="E645" s="91"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="90"/>
+      <c r="E646" s="91"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="90"/>
+      <c r="E647" s="91"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="90"/>
+      <c r="E648" s="91"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="90"/>
+      <c r="E649" s="91"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="90"/>
+      <c r="E650" s="91"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="90"/>
+      <c r="E651" s="91"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="90"/>
+      <c r="E652" s="91"/>
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="90"/>
+      <c r="E653" s="91"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="90"/>
+      <c r="E654" s="91"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="90"/>
+      <c r="E655" s="91"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="90"/>
+      <c r="E656" s="91"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="90"/>
+      <c r="E657" s="91"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="90"/>
+      <c r="E658" s="91"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="90"/>
+      <c r="E659" s="91"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="90"/>
+      <c r="E660" s="91"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="90"/>
+      <c r="E661" s="91"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="90"/>
+      <c r="E662" s="91"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="90"/>
+      <c r="E663" s="91"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="90"/>
+      <c r="E664" s="91"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="90"/>
+      <c r="E665" s="91"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="90"/>
+      <c r="E666" s="91"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="90"/>
+      <c r="E667" s="91"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="90"/>
+      <c r="E668" s="91"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="90"/>
+      <c r="E669" s="91"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="90"/>
+      <c r="E670" s="91"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="90"/>
+      <c r="E671" s="91"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="90"/>
+      <c r="E672" s="91"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="90"/>
+      <c r="E673" s="91"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="90"/>
+      <c r="E674" s="91"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="90"/>
+      <c r="E675" s="91"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="90"/>
+      <c r="E676" s="91"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="90"/>
+      <c r="E677" s="91"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="90"/>
+      <c r="E678" s="91"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="90"/>
+      <c r="E679" s="91"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="90"/>
+      <c r="E680" s="91"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="90"/>
+      <c r="E681" s="91"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="90"/>
+      <c r="E682" s="91"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="90"/>
+      <c r="E683" s="91"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="90"/>
+      <c r="E684" s="91"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="90"/>
+      <c r="E685" s="91"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="90"/>
+      <c r="E686" s="91"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="90"/>
+      <c r="E687" s="91"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="90"/>
+      <c r="E688" s="91"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="90"/>
+      <c r="E689" s="91"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="90"/>
+      <c r="E690" s="91"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="90"/>
+      <c r="E691" s="91"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="90"/>
+      <c r="E692" s="91"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="90"/>
+      <c r="E693" s="91"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="90"/>
+      <c r="E694" s="91"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="90"/>
+      <c r="E695" s="91"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="90"/>
+      <c r="E696" s="91"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="90"/>
+      <c r="E697" s="91"/>
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="90"/>
+      <c r="E698" s="91"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="90"/>
+      <c r="E699" s="91"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="90"/>
+      <c r="E700" s="91"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="90"/>
+      <c r="E701" s="91"/>
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="90"/>
+      <c r="E702" s="91"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="90"/>
+      <c r="E703" s="91"/>
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="90"/>
+      <c r="E704" s="91"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="90"/>
+      <c r="E705" s="91"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="90"/>
+      <c r="E706" s="91"/>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="90"/>
+      <c r="E707" s="91"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="90"/>
+      <c r="E708" s="91"/>
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="90"/>
+      <c r="E709" s="91"/>
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="90"/>
+      <c r="E710" s="91"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="90"/>
+      <c r="E711" s="91"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="90"/>
+      <c r="E712" s="91"/>
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="90"/>
+      <c r="E713" s="91"/>
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="90"/>
+      <c r="E714" s="91"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="90"/>
+      <c r="E715" s="91"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="90"/>
+      <c r="E716" s="91"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="90"/>
+      <c r="E717" s="91"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="90"/>
+      <c r="E718" s="91"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="90"/>
+      <c r="E719" s="91"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="90"/>
+      <c r="E720" s="91"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="90"/>
+      <c r="E721" s="91"/>
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="90"/>
+      <c r="E722" s="91"/>
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="90"/>
+      <c r="E723" s="91"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="90"/>
+      <c r="E724" s="91"/>
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="90"/>
+      <c r="E725" s="91"/>
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="90"/>
+      <c r="E726" s="91"/>
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="90"/>
+      <c r="E727" s="91"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="90"/>
+      <c r="E728" s="91"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="90"/>
+      <c r="E729" s="91"/>
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="90"/>
+      <c r="E730" s="91"/>
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="90"/>
+      <c r="E731" s="91"/>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="90"/>
+      <c r="E732" s="91"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="90"/>
+      <c r="E733" s="91"/>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="90"/>
+      <c r="E734" s="91"/>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="90"/>
+      <c r="E735" s="91"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="90"/>
+      <c r="E736" s="91"/>
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="90"/>
+      <c r="E737" s="91"/>
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="90"/>
+      <c r="E738" s="91"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="90"/>
+      <c r="E739" s="91"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="90"/>
+      <c r="E740" s="91"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="90"/>
+      <c r="E741" s="91"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="90"/>
+      <c r="E742" s="91"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="90"/>
+      <c r="E743" s="91"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="90"/>
+      <c r="E744" s="91"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="90"/>
+      <c r="E745" s="91"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="90"/>
+      <c r="E746" s="91"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="90"/>
+      <c r="E747" s="91"/>
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="90"/>
+      <c r="E748" s="91"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="90"/>
+      <c r="E749" s="91"/>
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="90"/>
+      <c r="E750" s="91"/>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="90"/>
+      <c r="E751" s="91"/>
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="90"/>
+      <c r="E752" s="91"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="90"/>
+      <c r="E753" s="91"/>
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="90"/>
+      <c r="E754" s="91"/>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="90"/>
+      <c r="E755" s="91"/>
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="90"/>
+      <c r="E756" s="91"/>
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="90"/>
+      <c r="E757" s="91"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="90"/>
+      <c r="E758" s="91"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="90"/>
+      <c r="E759" s="91"/>
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="90"/>
+      <c r="E760" s="91"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="90"/>
+      <c r="E761" s="91"/>
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="90"/>
+      <c r="E762" s="91"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="90"/>
+      <c r="E763" s="91"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="90"/>
+      <c r="E764" s="91"/>
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="90"/>
+      <c r="E765" s="91"/>
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="90"/>
+      <c r="E766" s="91"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="90"/>
+      <c r="E767" s="91"/>
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="90"/>
+      <c r="E768" s="91"/>
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="90"/>
+      <c r="E769" s="91"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="90"/>
+      <c r="E770" s="91"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="90"/>
+      <c r="E771" s="91"/>
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="90"/>
+      <c r="E772" s="91"/>
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="90"/>
+      <c r="E773" s="91"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="90"/>
+      <c r="E774" s="91"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="90"/>
+      <c r="E775" s="91"/>
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="90"/>
+      <c r="E776" s="91"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="90"/>
+      <c r="E777" s="91"/>
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="90"/>
+      <c r="E778" s="91"/>
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="90"/>
+      <c r="E779" s="91"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="90"/>
+      <c r="E780" s="91"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="90"/>
+      <c r="E781" s="91"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="90"/>
+      <c r="E782" s="91"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="90"/>
+      <c r="E783" s="91"/>
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="90"/>
+      <c r="E784" s="91"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="90"/>
+      <c r="E785" s="91"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="90"/>
+      <c r="E786" s="91"/>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="90"/>
+      <c r="E787" s="91"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="90"/>
+      <c r="E788" s="91"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="90"/>
+      <c r="E789" s="91"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="90"/>
+      <c r="E790" s="91"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="90"/>
+      <c r="E791" s="91"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="90"/>
+      <c r="E792" s="91"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="90"/>
+      <c r="E793" s="91"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="90"/>
+      <c r="E794" s="91"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="90"/>
+      <c r="E795" s="91"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="90"/>
+      <c r="E796" s="91"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="90"/>
+      <c r="E797" s="91"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="90"/>
+      <c r="E798" s="91"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="90"/>
+      <c r="E799" s="91"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="90"/>
+      <c r="E800" s="91"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="90"/>
+      <c r="E801" s="91"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="90"/>
+      <c r="E802" s="91"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="90"/>
+      <c r="E803" s="91"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="90"/>
+      <c r="E804" s="91"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="90"/>
+      <c r="E805" s="91"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="90"/>
+      <c r="E806" s="91"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="90"/>
+      <c r="E807" s="91"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="90"/>
+      <c r="E808" s="91"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="90"/>
+      <c r="E809" s="91"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="90"/>
+      <c r="E810" s="91"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="90"/>
+      <c r="E811" s="91"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="90"/>
+      <c r="E812" s="91"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="90"/>
+      <c r="E813" s="91"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="90"/>
+      <c r="E814" s="91"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="90"/>
+      <c r="E815" s="91"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="90"/>
+      <c r="E816" s="91"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="90"/>
+      <c r="E817" s="91"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="90"/>
+      <c r="E818" s="91"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="90"/>
+      <c r="E819" s="91"/>
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="90"/>
+      <c r="E820" s="91"/>
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="90"/>
+      <c r="E821" s="91"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="90"/>
+      <c r="E822" s="91"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="90"/>
+      <c r="E823" s="91"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="90"/>
+      <c r="E824" s="91"/>
     </row>
     <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="90"/>
+      <c r="E825" s="91"/>
     </row>
     <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="90"/>
+      <c r="E826" s="91"/>
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="90"/>
+      <c r="E827" s="91"/>
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="90"/>
+      <c r="E828" s="91"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="90"/>
+      <c r="E829" s="91"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="90"/>
+      <c r="E830" s="91"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="90"/>
+      <c r="E831" s="91"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="90"/>
+      <c r="E832" s="91"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="90"/>
+      <c r="E833" s="91"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="90"/>
+      <c r="E834" s="91"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="90"/>
+      <c r="E835" s="91"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="90"/>
+      <c r="E836" s="91"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="90"/>
+      <c r="E837" s="91"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="90"/>
+      <c r="E838" s="91"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="90"/>
+      <c r="E839" s="91"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="90"/>
+      <c r="E840" s="91"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="90"/>
+      <c r="E841" s="91"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="90"/>
+      <c r="E842" s="91"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="90"/>
+      <c r="E843" s="91"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="90"/>
+      <c r="E844" s="91"/>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="90"/>
+      <c r="E845" s="91"/>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="90"/>
+      <c r="E846" s="91"/>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="90"/>
+      <c r="E847" s="91"/>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="90"/>
+      <c r="E848" s="91"/>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="90"/>
+      <c r="E849" s="91"/>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="90"/>
+      <c r="E850" s="91"/>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="90"/>
+      <c r="E851" s="91"/>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="90"/>
+      <c r="E852" s="91"/>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="90"/>
+      <c r="E853" s="91"/>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="90"/>
+      <c r="E854" s="91"/>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="90"/>
+      <c r="E855" s="91"/>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="90"/>
+      <c r="E856" s="91"/>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="90"/>
+      <c r="E857" s="91"/>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="90"/>
+      <c r="E858" s="91"/>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="90"/>
+      <c r="E859" s="91"/>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="90"/>
+      <c r="E860" s="91"/>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="90"/>
+      <c r="E861" s="91"/>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="90"/>
+      <c r="E862" s="91"/>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="90"/>
+      <c r="E863" s="91"/>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="90"/>
+      <c r="E864" s="91"/>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="90"/>
+      <c r="E865" s="91"/>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="90"/>
+      <c r="E866" s="91"/>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="90"/>
+      <c r="E867" s="91"/>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="90"/>
+      <c r="E868" s="91"/>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="90"/>
+      <c r="E869" s="91"/>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="90"/>
+      <c r="E870" s="91"/>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="90"/>
+      <c r="E871" s="91"/>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="90"/>
+      <c r="E872" s="91"/>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="90"/>
+      <c r="E873" s="91"/>
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="90"/>
+      <c r="E874" s="91"/>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="90"/>
+      <c r="E875" s="91"/>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="90"/>
+      <c r="E876" s="91"/>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="90"/>
+      <c r="E877" s="91"/>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="90"/>
+      <c r="E878" s="91"/>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="90"/>
+      <c r="E879" s="91"/>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="90"/>
+      <c r="E880" s="91"/>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="90"/>
+      <c r="E881" s="91"/>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="90"/>
+      <c r="E882" s="91"/>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="90"/>
+      <c r="E883" s="91"/>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="90"/>
+      <c r="E884" s="91"/>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="90"/>
+      <c r="E885" s="91"/>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="90"/>
+      <c r="E886" s="91"/>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="90"/>
+      <c r="E887" s="91"/>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="90"/>
+      <c r="E888" s="91"/>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="90"/>
+      <c r="E889" s="91"/>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="90"/>
+      <c r="E890" s="91"/>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="90"/>
+      <c r="E891" s="91"/>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="90"/>
+      <c r="E892" s="91"/>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="90"/>
+      <c r="E893" s="91"/>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="90"/>
+      <c r="E894" s="91"/>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="90"/>
+      <c r="E895" s="91"/>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="90"/>
+      <c r="E896" s="91"/>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="90"/>
+      <c r="E897" s="91"/>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="90"/>
+      <c r="E898" s="91"/>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="90"/>
+      <c r="E899" s="91"/>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="90"/>
+      <c r="E900" s="91"/>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="90"/>
+      <c r="E901" s="91"/>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="90"/>
+      <c r="E902" s="91"/>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="90"/>
+      <c r="E903" s="91"/>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="90"/>
+      <c r="E904" s="91"/>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="90"/>
+      <c r="E905" s="91"/>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="90"/>
+      <c r="E906" s="91"/>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="90"/>
+      <c r="E907" s="91"/>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="90"/>
+      <c r="E908" s="91"/>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="90"/>
+      <c r="E909" s="91"/>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="90"/>
+      <c r="E910" s="91"/>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="90"/>
+      <c r="E911" s="91"/>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="90"/>
+      <c r="E912" s="91"/>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="90"/>
+      <c r="E913" s="91"/>
     </row>
     <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="90"/>
+      <c r="E914" s="91"/>
     </row>
     <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="90"/>
+      <c r="E915" s="91"/>
     </row>
     <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="90"/>
+      <c r="E916" s="91"/>
     </row>
     <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="90"/>
+      <c r="E917" s="91"/>
     </row>
     <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="90"/>
+      <c r="E918" s="91"/>
     </row>
     <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="90"/>
+      <c r="E919" s="91"/>
     </row>
     <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="90"/>
+      <c r="E920" s="91"/>
     </row>
     <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="90"/>
+      <c r="E921" s="91"/>
     </row>
     <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="90"/>
+      <c r="E922" s="91"/>
     </row>
     <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="90"/>
+      <c r="E923" s="91"/>
     </row>
     <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="90"/>
+      <c r="E924" s="91"/>
     </row>
     <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="90"/>
+      <c r="E925" s="91"/>
     </row>
     <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="90"/>
+      <c r="E926" s="91"/>
     </row>
     <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="90"/>
+      <c r="E927" s="91"/>
     </row>
     <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="90"/>
+      <c r="E928" s="91"/>
     </row>
     <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="90"/>
+      <c r="E929" s="91"/>
     </row>
     <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="90"/>
+      <c r="E930" s="91"/>
     </row>
     <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="90"/>
+      <c r="E931" s="91"/>
     </row>
     <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="90"/>
+      <c r="E932" s="91"/>
     </row>
     <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="90"/>
+      <c r="E933" s="91"/>
     </row>
     <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="90"/>
+      <c r="E934" s="91"/>
     </row>
     <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="90"/>
+      <c r="E935" s="91"/>
     </row>
     <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="90"/>
+      <c r="E936" s="91"/>
     </row>
     <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="90"/>
+      <c r="E937" s="91"/>
     </row>
     <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="90"/>
+      <c r="E938" s="91"/>
     </row>
     <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="90"/>
+      <c r="E939" s="91"/>
     </row>
     <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="90"/>
+      <c r="E940" s="91"/>
     </row>
     <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="90"/>
+      <c r="E941" s="91"/>
     </row>
     <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="90"/>
+      <c r="E942" s="91"/>
     </row>
     <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="90"/>
+      <c r="E943" s="91"/>
     </row>
     <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="90"/>
+      <c r="E944" s="91"/>
     </row>
     <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="90"/>
+      <c r="E945" s="91"/>
     </row>
     <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="90"/>
+      <c r="E946" s="91"/>
     </row>
     <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="90"/>
+      <c r="E947" s="91"/>
     </row>
     <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="90"/>
+      <c r="E948" s="91"/>
     </row>
     <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="90"/>
+      <c r="E949" s="91"/>
     </row>
     <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="90"/>
+      <c r="E950" s="91"/>
     </row>
     <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="90"/>
+      <c r="E951" s="91"/>
     </row>
     <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="90"/>
+      <c r="E952" s="91"/>
     </row>
     <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="90"/>
+      <c r="E953" s="91"/>
     </row>
     <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="90"/>
+      <c r="E954" s="91"/>
     </row>
     <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="90"/>
+      <c r="E955" s="91"/>
     </row>
     <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="90"/>
+      <c r="E956" s="91"/>
     </row>
     <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="90"/>
+      <c r="E957" s="91"/>
     </row>
     <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="90"/>
+      <c r="E958" s="91"/>
     </row>
     <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="90"/>
+      <c r="E959" s="91"/>
     </row>
     <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="90"/>
+      <c r="E960" s="91"/>
     </row>
     <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="90"/>
+      <c r="E961" s="91"/>
     </row>
     <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="90"/>
+      <c r="E962" s="91"/>
     </row>
     <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="90"/>
+      <c r="E963" s="91"/>
     </row>
     <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="90"/>
+      <c r="E964" s="91"/>
     </row>
     <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="90"/>
+      <c r="E965" s="91"/>
     </row>
     <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="90"/>
+      <c r="E966" s="91"/>
     </row>
     <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="90"/>
+      <c r="E967" s="91"/>
     </row>
     <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="90"/>
+      <c r="E968" s="91"/>
     </row>
     <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="90"/>
+      <c r="E969" s="91"/>
     </row>
     <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="90"/>
+      <c r="E970" s="91"/>
     </row>
     <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="90"/>
+      <c r="E971" s="91"/>
     </row>
     <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="90"/>
+      <c r="E972" s="91"/>
     </row>
     <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="90"/>
+      <c r="E973" s="91"/>
     </row>
     <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="90"/>
+      <c r="E974" s="91"/>
     </row>
     <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="90"/>
+      <c r="E975" s="91"/>
     </row>
     <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="90"/>
+      <c r="E976" s="91"/>
     </row>
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="90"/>
+      <c r="E977" s="91"/>
     </row>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="90"/>
+      <c r="E978" s="91"/>
     </row>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="90"/>
+      <c r="E979" s="91"/>
     </row>
     <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="90"/>
+      <c r="E980" s="91"/>
     </row>
     <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="90"/>
+      <c r="E981" s="91"/>
     </row>
     <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="90"/>
+      <c r="E982" s="91"/>
     </row>
     <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="90"/>
+      <c r="E983" s="91"/>
     </row>
     <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="90"/>
+      <c r="E984" s="91"/>
     </row>
     <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="90"/>
+      <c r="E985" s="91"/>
     </row>
     <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="90"/>
+      <c r="E986" s="91"/>
     </row>
     <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="90"/>
+      <c r="E987" s="91"/>
     </row>
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="90"/>
+      <c r="E988" s="91"/>
     </row>
     <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="90"/>
+      <c r="E989" s="91"/>
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="90"/>
+      <c r="E990" s="91"/>
     </row>
     <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="90"/>
+      <c r="E991" s="91"/>
     </row>
     <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="90"/>
+      <c r="E992" s="91"/>
     </row>
     <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="90"/>
+      <c r="E993" s="91"/>
     </row>
     <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="90"/>
+      <c r="E994" s="91"/>
     </row>
     <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="90"/>
+      <c r="E995" s="91"/>
     </row>
     <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="90"/>
+      <c r="E996" s="91"/>
     </row>
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="90"/>
+      <c r="E997" s="91"/>
     </row>
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="90"/>
+      <c r="E998" s="91"/>
     </row>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="90"/>
+      <c r="E999" s="91"/>
     </row>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="90"/>
+      <c r="E1000" s="91"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C112">
@@ -41405,18 +41415,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="n">
+      <c r="A2" s="93" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>875</v>
       </c>
     </row>
@@ -41424,7 +41434,7 @@
       <c r="A3" s="21" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>876</v>
       </c>
     </row>
@@ -41432,15 +41442,15 @@
       <c r="A4" s="21" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="92" t="n">
+      <c r="A5" s="93" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>878</v>
       </c>
     </row>
@@ -41448,7 +41458,7 @@
       <c r="A6" s="21" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>879</v>
       </c>
     </row>
@@ -41456,7 +41466,7 @@
       <c r="A7" s="21" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="96" t="s">
         <v>880</v>
       </c>
     </row>
@@ -41464,7 +41474,7 @@
       <c r="A8" s="21" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>881</v>
       </c>
     </row>
@@ -41472,7 +41482,7 @@
       <c r="A9" s="21" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>882</v>
       </c>
     </row>
@@ -41480,7 +41490,7 @@
       <c r="A10" s="21" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>883</v>
       </c>
     </row>
@@ -41488,15 +41498,15 @@
       <c r="A11" s="21" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="92" t="n">
+      <c r="A12" s="93" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="94" t="s">
         <v>885</v>
       </c>
     </row>
@@ -41504,7 +41514,7 @@
       <c r="A13" s="21" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="95" t="s">
         <v>886</v>
       </c>
     </row>
@@ -41512,7 +41522,7 @@
       <c r="A14" s="21" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>887</v>
       </c>
     </row>
@@ -41520,7 +41530,7 @@
       <c r="A15" s="21" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>888</v>
       </c>
     </row>
@@ -41528,15 +41538,15 @@
       <c r="A16" s="21" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="92" t="n">
+      <c r="A17" s="93" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="94" t="s">
         <v>890</v>
       </c>
     </row>
@@ -41544,7 +41554,7 @@
       <c r="A18" s="21" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>891</v>
       </c>
     </row>
@@ -41552,7 +41562,7 @@
       <c r="A19" s="21" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>892</v>
       </c>
     </row>
@@ -41560,7 +41570,7 @@
       <c r="A20" s="21" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="95" t="s">
         <v>893</v>
       </c>
     </row>
@@ -41568,7 +41578,7 @@
       <c r="A21" s="21" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="95" t="s">
         <v>894</v>
       </c>
     </row>
@@ -41576,7 +41586,7 @@
       <c r="A22" s="21" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="95" t="s">
         <v>895</v>
       </c>
     </row>
@@ -41584,15 +41594,15 @@
       <c r="A23" s="21" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="95" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="92" t="n">
+      <c r="A24" s="93" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="94" t="s">
         <v>897</v>
       </c>
     </row>
@@ -41600,7 +41610,7 @@
       <c r="A25" s="21" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="95" t="s">
         <v>898</v>
       </c>
     </row>
@@ -41608,7 +41618,7 @@
       <c r="A26" s="21" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="95" t="s">
         <v>899</v>
       </c>
     </row>
@@ -41616,7 +41626,7 @@
       <c r="A27" s="21" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="95" t="s">
         <v>900</v>
       </c>
     </row>
@@ -41624,7 +41634,7 @@
       <c r="A28" s="21" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="95" t="s">
         <v>901</v>
       </c>
     </row>
@@ -41632,7 +41642,7 @@
       <c r="A29" s="21" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="95" t="s">
         <v>902</v>
       </c>
     </row>
@@ -41640,7 +41650,7 @@
       <c r="A30" s="21" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="95" t="s">
         <v>903</v>
       </c>
     </row>
@@ -41648,7 +41658,7 @@
       <c r="A31" s="21" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="95" t="s">
         <v>904</v>
       </c>
     </row>
@@ -41656,7 +41666,7 @@
       <c r="A32" s="21" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="95" t="s">
         <v>905</v>
       </c>
     </row>
@@ -41664,7 +41674,7 @@
       <c r="A33" s="21" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="95" t="s">
         <v>906</v>
       </c>
     </row>
@@ -41672,7 +41682,7 @@
       <c r="A34" s="21" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="95" t="s">
         <v>907</v>
       </c>
     </row>
@@ -41680,7 +41690,7 @@
       <c r="A35" s="21" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="95" t="s">
         <v>908</v>
       </c>
     </row>
@@ -41688,7 +41698,7 @@
       <c r="A36" s="21" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="95" t="s">
         <v>909</v>
       </c>
     </row>
@@ -41696,7 +41706,7 @@
       <c r="A37" s="21" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="95" t="s">
         <v>910</v>
       </c>
     </row>
@@ -41704,7 +41714,7 @@
       <c r="A38" s="21" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="95" t="s">
         <v>911</v>
       </c>
     </row>
@@ -41712,7 +41722,7 @@
       <c r="A39" s="21" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="95" t="s">
         <v>912</v>
       </c>
     </row>
@@ -41720,7 +41730,7 @@
       <c r="A40" s="21" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="95" t="s">
         <v>913</v>
       </c>
     </row>
@@ -41728,7 +41738,7 @@
       <c r="A41" s="21" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="95" t="s">
         <v>914</v>
       </c>
     </row>
@@ -41736,7 +41746,7 @@
       <c r="A42" s="21" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="95" t="s">
         <v>915</v>
       </c>
     </row>
@@ -41744,7 +41754,7 @@
       <c r="A43" s="21" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="95" t="s">
         <v>916</v>
       </c>
     </row>
@@ -41752,7 +41762,7 @@
       <c r="A44" s="21" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="95" t="s">
         <v>917</v>
       </c>
     </row>
@@ -41760,7 +41770,7 @@
       <c r="A45" s="21" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="95" t="s">
         <v>918</v>
       </c>
     </row>
@@ -41768,7 +41778,7 @@
       <c r="A46" s="21" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="95" t="s">
         <v>919</v>
       </c>
     </row>
@@ -41776,7 +41786,7 @@
       <c r="A47" s="21" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="95" t="s">
         <v>920</v>
       </c>
     </row>
@@ -41784,7 +41794,7 @@
       <c r="A48" s="21" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="95" t="s">
         <v>921</v>
       </c>
     </row>
@@ -41792,15 +41802,15 @@
       <c r="A49" s="21" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="95" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="92" t="n">
+      <c r="A50" s="93" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="94" t="s">
         <v>923</v>
       </c>
     </row>
@@ -41808,7 +41818,7 @@
       <c r="A51" s="21" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="95" t="s">
         <v>924</v>
       </c>
     </row>
@@ -41816,7 +41826,7 @@
       <c r="A52" s="21" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="95" t="s">
         <v>925</v>
       </c>
     </row>
@@ -41824,7 +41834,7 @@
       <c r="A53" s="21" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="95" t="s">
         <v>926</v>
       </c>
     </row>
@@ -41832,7 +41842,7 @@
       <c r="A54" s="21" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="95" t="s">
         <v>927</v>
       </c>
     </row>
@@ -41840,7 +41850,7 @@
       <c r="A55" s="21" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="95" t="s">
         <v>928</v>
       </c>
     </row>
@@ -41848,7 +41858,7 @@
       <c r="A56" s="21" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="95" t="s">
         <v>929</v>
       </c>
     </row>
@@ -41856,15 +41866,15 @@
       <c r="A57" s="21" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="94" t="s">
+      <c r="B57" s="95" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="92" t="n">
+      <c r="A58" s="93" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="96" t="s">
+      <c r="B58" s="97" t="s">
         <v>931</v>
       </c>
     </row>
@@ -41872,7 +41882,7 @@
       <c r="A59" s="21" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="94" t="s">
+      <c r="B59" s="95" t="s">
         <v>932</v>
       </c>
     </row>
@@ -41880,15 +41890,15 @@
       <c r="A60" s="21" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="95" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="92" t="n">
+      <c r="A61" s="93" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="94" t="s">
         <v>934</v>
       </c>
     </row>
@@ -41896,7 +41906,7 @@
       <c r="A62" s="21" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="95" t="s">
         <v>935</v>
       </c>
     </row>
@@ -41904,7 +41914,7 @@
       <c r="A63" s="21" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="95" t="s">
         <v>936</v>
       </c>
     </row>
@@ -41912,7 +41922,7 @@
       <c r="A64" s="21" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="95" t="s">
         <v>937</v>
       </c>
     </row>
@@ -41920,7 +41930,7 @@
       <c r="A65" s="21" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="94" t="s">
+      <c r="B65" s="95" t="s">
         <v>938</v>
       </c>
     </row>
@@ -41928,7 +41938,7 @@
       <c r="A66" s="21" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="95" t="s">
         <v>939</v>
       </c>
     </row>
@@ -41936,7 +41946,7 @@
       <c r="A67" s="21" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="94" t="s">
+      <c r="B67" s="95" t="s">
         <v>940</v>
       </c>
     </row>
@@ -41944,7 +41954,7 @@
       <c r="A68" s="21" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="95" t="s">
         <v>941</v>
       </c>
     </row>
@@ -41952,15 +41962,15 @@
       <c r="A69" s="21" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="94" t="s">
+      <c r="B69" s="95" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="92" t="n">
+      <c r="A70" s="93" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="93" t="s">
+      <c r="B70" s="94" t="s">
         <v>943</v>
       </c>
     </row>
@@ -41968,7 +41978,7 @@
       <c r="A71" s="21" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="95" t="s">
         <v>944</v>
       </c>
     </row>
@@ -41976,7 +41986,7 @@
       <c r="A72" s="21" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="95" t="s">
         <v>945</v>
       </c>
     </row>
@@ -41984,7 +41994,7 @@
       <c r="A73" s="21" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="95" t="s">
         <v>946</v>
       </c>
     </row>
@@ -41992,15 +42002,15 @@
       <c r="A74" s="21" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="95" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="92" t="n">
+      <c r="A75" s="93" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="94" t="s">
         <v>948</v>
       </c>
     </row>
@@ -42008,7 +42018,7 @@
       <c r="A76" s="21" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="94" t="s">
+      <c r="B76" s="95" t="s">
         <v>949</v>
       </c>
     </row>
@@ -42016,7 +42026,7 @@
       <c r="A77" s="21" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="94" t="s">
+      <c r="B77" s="95" t="s">
         <v>950</v>
       </c>
     </row>
@@ -42024,7 +42034,7 @@
       <c r="A78" s="21" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="95" t="s">
         <v>951</v>
       </c>
     </row>
@@ -42032,7 +42042,7 @@
       <c r="A79" s="21" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="95" t="s">
         <v>952</v>
       </c>
     </row>
@@ -42040,7 +42050,7 @@
       <c r="A80" s="21" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="94" t="s">
+      <c r="B80" s="95" t="s">
         <v>953</v>
       </c>
     </row>
@@ -42048,7 +42058,7 @@
       <c r="A81" s="21" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="95" t="s">
         <v>954</v>
       </c>
     </row>
@@ -42056,7 +42066,7 @@
       <c r="A82" s="21" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="95" t="s">
         <v>955</v>
       </c>
     </row>
@@ -42064,7 +42074,7 @@
       <c r="A83" s="21" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="94" t="s">
+      <c r="B83" s="95" t="s">
         <v>956</v>
       </c>
     </row>
@@ -42072,7 +42082,7 @@
       <c r="A84" s="21" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="94" t="s">
+      <c r="B84" s="95" t="s">
         <v>957</v>
       </c>
     </row>
@@ -42080,7 +42090,7 @@
       <c r="A85" s="21" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="94" t="s">
+      <c r="B85" s="95" t="s">
         <v>958</v>
       </c>
     </row>
@@ -42088,7 +42098,7 @@
       <c r="A86" s="21" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="95" t="s">
         <v>959</v>
       </c>
     </row>
@@ -42096,7 +42106,7 @@
       <c r="A87" s="21" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="95" t="s">
         <v>960</v>
       </c>
     </row>
@@ -42104,7 +42114,7 @@
       <c r="A88" s="21" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="95" t="s">
         <v>961</v>
       </c>
     </row>
@@ -42112,7 +42122,7 @@
       <c r="A89" s="21" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="94" t="s">
+      <c r="B89" s="95" t="s">
         <v>962</v>
       </c>
     </row>
@@ -42120,15 +42130,15 @@
       <c r="A90" s="21" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="95" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="92" t="n">
+      <c r="A91" s="93" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="93" t="s">
+      <c r="B91" s="94" t="s">
         <v>963</v>
       </c>
     </row>
@@ -42136,7 +42146,7 @@
       <c r="A92" s="21" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="95" t="s">
         <v>964</v>
       </c>
     </row>
@@ -42144,7 +42154,7 @@
       <c r="A93" s="21" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="95" t="s">
         <v>965</v>
       </c>
     </row>
@@ -42152,7 +42162,7 @@
       <c r="A94" s="21" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="94" t="s">
+      <c r="B94" s="95" t="s">
         <v>966</v>
       </c>
     </row>
@@ -42160,7 +42170,7 @@
       <c r="A95" s="21" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="94" t="s">
+      <c r="B95" s="95" t="s">
         <v>967</v>
       </c>
     </row>
@@ -42168,7 +42178,7 @@
       <c r="A96" s="21" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="94" t="s">
+      <c r="B96" s="95" t="s">
         <v>968</v>
       </c>
     </row>
@@ -42176,7 +42186,7 @@
       <c r="A97" s="21" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="94" t="s">
+      <c r="B97" s="95" t="s">
         <v>969</v>
       </c>
     </row>
@@ -42184,7 +42194,7 @@
       <c r="A98" s="21" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="94" t="s">
+      <c r="B98" s="95" t="s">
         <v>970</v>
       </c>
     </row>
@@ -42192,7 +42202,7 @@
       <c r="A99" s="21" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="94" t="s">
+      <c r="B99" s="95" t="s">
         <v>971</v>
       </c>
     </row>
@@ -42200,7 +42210,7 @@
       <c r="A100" s="21" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="94" t="s">
+      <c r="B100" s="95" t="s">
         <v>972</v>
       </c>
     </row>
@@ -42208,7 +42218,7 @@
       <c r="A101" s="21" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="95" t="s">
         <v>973</v>
       </c>
     </row>
@@ -42216,7 +42226,7 @@
       <c r="A102" s="21" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B102" s="95" t="s">
         <v>974</v>
       </c>
     </row>
@@ -42224,7 +42234,7 @@
       <c r="A103" s="21" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="94" t="s">
+      <c r="B103" s="95" t="s">
         <v>975</v>
       </c>
     </row>
@@ -42232,7 +42242,7 @@
       <c r="A104" s="21" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="95" t="s">
         <v>976</v>
       </c>
     </row>
@@ -42240,7 +42250,7 @@
       <c r="A105" s="21" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="94" t="s">
+      <c r="B105" s="95" t="s">
         <v>977</v>
       </c>
     </row>
@@ -42248,7 +42258,7 @@
       <c r="A106" s="21" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="94" t="s">
+      <c r="B106" s="95" t="s">
         <v>978</v>
       </c>
     </row>
@@ -42256,7 +42266,7 @@
       <c r="A107" s="21" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="94" t="s">
+      <c r="B107" s="95" t="s">
         <v>979</v>
       </c>
     </row>
@@ -42264,7 +42274,7 @@
       <c r="A108" s="21" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="94" t="s">
+      <c r="B108" s="95" t="s">
         <v>980</v>
       </c>
     </row>
@@ -42272,7 +42282,7 @@
       <c r="A109" s="21" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="94" t="s">
+      <c r="B109" s="95" t="s">
         <v>981</v>
       </c>
     </row>
@@ -42280,7 +42290,7 @@
       <c r="A110" s="21" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="94" t="s">
+      <c r="B110" s="95" t="s">
         <v>982</v>
       </c>
     </row>
@@ -42288,23 +42298,23 @@
       <c r="A111" s="21" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="94" t="s">
+      <c r="B111" s="95" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="97" t="n">
+      <c r="A112" s="98" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="94" t="s">
+      <c r="B112" s="95" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="97" t="n">
+      <c r="A113" s="98" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="95" t="s">
         <v>985</v>
       </c>
     </row>
@@ -42312,7 +42322,7 @@
       <c r="A114" s="21" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="94" t="s">
+      <c r="B114" s="95" t="s">
         <v>986</v>
       </c>
     </row>
@@ -42320,7 +42330,7 @@
       <c r="A115" s="21" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="94" t="s">
+      <c r="B115" s="95" t="s">
         <v>987</v>
       </c>
     </row>
@@ -42328,7 +42338,7 @@
       <c r="A116" s="21" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="94" t="s">
+      <c r="B116" s="95" t="s">
         <v>988</v>
       </c>
     </row>
@@ -42336,7 +42346,7 @@
       <c r="A117" s="21" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="94" t="s">
+      <c r="B117" s="95" t="s">
         <v>989</v>
       </c>
     </row>
@@ -42344,7 +42354,7 @@
       <c r="A118" s="21" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="94" t="s">
+      <c r="B118" s="95" t="s">
         <v>990</v>
       </c>
     </row>
@@ -42352,7 +42362,7 @@
       <c r="A119" s="21" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="94" t="s">
+      <c r="B119" s="95" t="s">
         <v>991</v>
       </c>
     </row>
@@ -42360,7 +42370,7 @@
       <c r="A120" s="21" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="94" t="s">
+      <c r="B120" s="95" t="s">
         <v>992</v>
       </c>
     </row>
@@ -42368,7 +42378,7 @@
       <c r="A121" s="21" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="94" t="s">
+      <c r="B121" s="95" t="s">
         <v>993</v>
       </c>
     </row>
@@ -42376,7 +42386,7 @@
       <c r="A122" s="21" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="94" t="s">
+      <c r="B122" s="95" t="s">
         <v>994</v>
       </c>
     </row>
@@ -42384,7 +42394,7 @@
       <c r="A123" s="21" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="94" t="s">
+      <c r="B123" s="95" t="s">
         <v>995</v>
       </c>
     </row>
@@ -42392,7 +42402,7 @@
       <c r="A124" s="21" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="94" t="s">
+      <c r="B124" s="95" t="s">
         <v>996</v>
       </c>
     </row>
@@ -42400,7 +42410,7 @@
       <c r="A125" s="21" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="94" t="s">
+      <c r="B125" s="95" t="s">
         <v>997</v>
       </c>
     </row>
@@ -42408,7 +42418,7 @@
       <c r="A126" s="21" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="94" t="s">
+      <c r="B126" s="95" t="s">
         <v>998</v>
       </c>
     </row>
@@ -42416,7 +42426,7 @@
       <c r="A127" s="21" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="94" t="s">
+      <c r="B127" s="95" t="s">
         <v>999</v>
       </c>
     </row>
@@ -42424,7 +42434,7 @@
       <c r="A128" s="21" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="94" t="s">
+      <c r="B128" s="95" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -42432,7 +42442,7 @@
       <c r="A129" s="21" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="94" t="s">
+      <c r="B129" s="95" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -42440,7 +42450,7 @@
       <c r="A130" s="21" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="94" t="s">
+      <c r="B130" s="95" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -42448,15 +42458,15 @@
       <c r="A131" s="21" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="94" t="s">
+      <c r="B131" s="95" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="92" t="n">
+      <c r="A132" s="93" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="93" t="s">
+      <c r="B132" s="94" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -42464,7 +42474,7 @@
       <c r="A133" s="21" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="94" t="s">
+      <c r="B133" s="95" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -42472,7 +42482,7 @@
       <c r="A134" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="94" t="s">
+      <c r="B134" s="95" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -42480,7 +42490,7 @@
       <c r="A135" s="21" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="94" t="s">
+      <c r="B135" s="95" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -42488,7 +42498,7 @@
       <c r="A136" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="94" t="s">
+      <c r="B136" s="95" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -42496,15 +42506,15 @@
       <c r="A137" s="21" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="94" t="s">
+      <c r="B137" s="95" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="92" t="n">
+      <c r="A138" s="93" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="93" t="s">
+      <c r="B138" s="94" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -42512,7 +42522,7 @@
       <c r="A139" s="21" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="94" t="s">
+      <c r="B139" s="95" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -42520,7 +42530,7 @@
       <c r="A140" s="21" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="94" t="s">
+      <c r="B140" s="95" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -42528,7 +42538,7 @@
       <c r="A141" s="21" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="95" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -42536,7 +42546,7 @@
       <c r="A142" s="21" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="94" t="s">
+      <c r="B142" s="95" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -42544,7 +42554,7 @@
       <c r="A143" s="21" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="94" t="s">
+      <c r="B143" s="95" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -42552,7 +42562,7 @@
       <c r="A144" s="21" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="94" t="s">
+      <c r="B144" s="95" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -42560,7 +42570,7 @@
       <c r="A145" s="21" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="94" t="s">
+      <c r="B145" s="95" t="s">
         <v>1017</v>
       </c>
     </row>
